--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Tên FB</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Chiến Lược</t>
-  </si>
-  <si>
-    <t>FB</t>
   </si>
   <si>
     <t>Người Tư Vấn</t>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I16" sqref="I16:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,13 +589,13 @@
         <v>14</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -606,27 +603,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="17">
         <v>42944</v>
@@ -645,7 +642,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="2"/>
@@ -661,7 +658,7 @@
         <v>42947</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -670,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
@@ -688,7 +685,7 @@
         <v>42947</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -697,11 +694,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="2"/>
@@ -717,7 +714,7 @@
         <v>42947</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -726,29 +723,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="18">
         <v>42947</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -757,29 +754,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="18">
         <v>42947</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -788,32 +785,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="18">
         <v>42947</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -881,24 +878,6 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Tên FB</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Ngày Liên Hệ</t>
+  </si>
+  <si>
+    <t>Hoàng Mai</t>
+  </si>
+  <si>
+    <t>Bạn của Vũ 300-500 K4</t>
   </si>
 </sst>
 </file>
@@ -537,12 +543,12 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
@@ -814,19 +820,35 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="18">
+        <v>42938</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
     <col min="5" max="5" width="13.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" style="19" customWidth="1"/>
@@ -622,7 +622,7 @@
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -655,7 +655,7 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="2" t="s">
         <v>1</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="3"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="3"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="3"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="3"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="3"/>
     </row>
   </sheetData>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Tên FB</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Bạn của Vũ 300-500 K4</t>
+  </si>
+  <si>
+    <t>Thủy</t>
+  </si>
+  <si>
+    <t>Thủy Ciu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lệ Quỳnh </t>
+  </si>
+  <si>
+    <t>Lệ Quỳnh</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,12 +214,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -542,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,24 +875,58 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="19">
+        <v>42949</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="19">
+        <v>42949</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Tên FB</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Lệ Quỳnh</t>
+  </si>
+  <si>
+    <t>TOEIC tháng 7</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,17 +217,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -282,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -566,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,11 +789,15 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="18">
         <v>42947</v>
       </c>
@@ -875,58 +871,62 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="19">
+      <c r="J10" s="2"/>
+      <c r="K10" s="18">
         <v>42949</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="19">
+      <c r="J11" s="2"/>
+      <c r="K11" s="18">
         <v>42949</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Tên FB</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Bạn của Vũ 300-500 K4</t>
   </si>
   <si>
-    <t>Thủy</t>
-  </si>
-  <si>
-    <t>Thủy Ciu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lệ Quỳnh </t>
   </si>
   <si>
@@ -150,13 +144,40 @@
   </si>
   <si>
     <t>TOEIC tháng 7</t>
+  </si>
+  <si>
+    <t>Thoan Htk</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>Thảo ciu</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Lê Hữu Minh Thạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hữu Minh Thạnh </t>
+  </si>
+  <si>
+    <t>Hà Thúc Khoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam </t>
+  </si>
+  <si>
+    <t>01645725933</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +196,13 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D2129"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,13 +250,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,7 +272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,9 +285,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,6 +298,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -559,7 +583,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,271 +592,271 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="16" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="14">
         <v>42944</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="18">
+      <c r="K3" s="15">
         <v>42947</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <v>42947</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="18">
+      <c r="K5" s="15">
         <v>42947</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="18">
+      <c r="K6" s="15">
         <v>42947</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="18">
+        <v>38</v>
+      </c>
+      <c r="K7" s="15">
         <v>42947</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="18">
+      <c r="K8" s="15">
         <v>42947</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -840,30 +864,30 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>42938</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -871,95 +895,153 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="15">
+        <v>42949</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="21" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="21" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="18">
+      <c r="J11" s="2"/>
+      <c r="K11" s="15">
         <v>42949</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="21" t="s">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="21" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="18">
-        <v>42949</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="15">
+        <v>42951</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="15">
+        <v>42952</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="15">
+        <v>42952</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="3"/>
+      <c r="M14" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Tên FB</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>01645725933</t>
+  </si>
+  <si>
+    <t>Yến Nhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01669435084</t>
   </si>
 </sst>
 </file>
@@ -580,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,6 +1045,37 @@
       </c>
       <c r="M14" s="2"/>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="15">
+        <v>42954</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Tên FB</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 01669435084</t>
+  </si>
+  <si>
+    <t>Minh Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nữ </t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1082,37 @@
       </c>
       <c r="M15" s="2"/>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="15">
+        <v>42954</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>Tên FB</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t xml:space="preserve">Nữ </t>
+  </si>
+  <si>
+    <t>Thảo Tr</t>
+  </si>
+  <si>
+    <t>Suli</t>
+  </si>
+  <si>
+    <t>Sulie Lê</t>
   </si>
 </sst>
 </file>
@@ -592,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,6 +1122,66 @@
       </c>
       <c r="M16" s="2"/>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="15">
+        <v>42955</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="15">
+        <v>42955</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>Tên FB</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Ngày Liên Hệ</t>
   </si>
   <si>
-    <t>Hoàng Mai</t>
-  </si>
-  <si>
     <t>Bạn của Vũ 300-500 K4</t>
   </si>
   <si>
@@ -192,6 +189,15 @@
   </si>
   <si>
     <t>Sulie Lê</t>
+  </si>
+  <si>
+    <t>Võ Thị Cẩm Nguyệt</t>
+  </si>
+  <si>
+    <t>01266617337</t>
+  </si>
+  <si>
+    <t>Cái Hoàng Mai</t>
   </si>
 </sst>
 </file>
@@ -601,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +847,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="15">
         <v>42947</v>
@@ -889,22 +895,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K9" s="15">
         <v>42938</v>
       </c>
@@ -912,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -920,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
@@ -928,7 +940,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -949,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
@@ -957,7 +969,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -978,13 +990,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="8"/>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -996,7 +1008,7 @@
         <v>42951</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2"/>
     </row>
@@ -1005,7 +1017,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
@@ -1013,7 +1025,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1025,7 +1037,7 @@
         <v>42952</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" s="2"/>
     </row>
@@ -1034,14 +1046,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
@@ -1065,14 +1077,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
@@ -1096,15 +1108,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
@@ -1127,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
@@ -1135,7 +1147,7 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
@@ -1156,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
@@ -1164,7 +1176,7 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
@@ -1181,6 +1193,35 @@
         <v>2</v>
       </c>
       <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="15">
+        <v>42955</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
   <si>
     <t>Tên FB</t>
   </si>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,9 @@
       <c r="K17" s="15">
         <v>42955</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1220,7 +1222,9 @@
       <c r="K19" s="15">
         <v>42955</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M19" s="2"/>
     </row>
   </sheetData>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>Tên FB</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Cái Hoàng Mai</t>
+  </si>
+  <si>
+    <t>Như Mai</t>
+  </si>
+  <si>
+    <t>Nhu Mai Ho Vo</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -272,12 +278,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +343,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -607,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1245,38 @@
       </c>
       <c r="M19" s="2"/>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="15">
+        <v>42956</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>Tên FB</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>Nhu Mai Ho Vo</t>
+  </si>
+  <si>
+    <t>Cường Phạm</t>
+  </si>
+  <si>
+    <t>Cuong Pham</t>
+  </si>
+  <si>
+    <t>Khánh Nhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhung </t>
+  </si>
+  <si>
+    <t>Nhungg Nhungg</t>
+  </si>
+  <si>
+    <t>0945797474</t>
   </si>
 </sst>
 </file>
@@ -255,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,23 +296,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,7 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:M20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +857,9 @@
       <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1077,11 +1085,15 @@
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K14" s="15">
         <v>42952</v>
       </c>
@@ -1275,10 +1287,96 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="15">
+        <v>42956</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="15">
+        <v>42956</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="15">
+        <v>42956</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M9"/>
+  <autoFilter ref="A1:M23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
   <si>
     <t>Tên FB</t>
   </si>
@@ -634,7 +634,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,11 +1244,15 @@
       <c r="G19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K19" s="15">
         <v>42955</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
   <si>
     <t>Tên FB</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>0945797474</t>
+  </si>
+  <si>
+    <t>Thu Oanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu Oanh Nguyễn </t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,6 +1385,34 @@
       </c>
       <c r="M23" s="2"/>
     </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="15">
+        <v>42957</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>Tên FB</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t xml:space="preserve">Thu Oanh Nguyễn </t>
+  </si>
+  <si>
+    <t>Ngọc Hà</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Hà</t>
+  </si>
+  <si>
+    <t>Nguyệt</t>
+  </si>
+  <si>
+    <t>Nguyệt Nguyệt</t>
+  </si>
+  <si>
+    <t>0902440603</t>
+  </si>
+  <si>
+    <t>01662933961</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -302,12 +320,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,6 +387,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -637,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +792,9 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -773,13 +815,17 @@
         <v>17</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
@@ -803,7 +849,9 @@
       <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
@@ -1386,32 +1434,97 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="18" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="15">
+      <c r="J24" s="22"/>
+      <c r="K24" s="24">
         <v>42957</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="20" t="s">
         <v>41</v>
       </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="15">
+        <v>42959</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M23"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
   <si>
     <t>Tên FB</t>
   </si>
@@ -246,6 +246,27 @@
   </si>
   <si>
     <t>01662933961</t>
+  </si>
+  <si>
+    <t>Phương Châu</t>
+  </si>
+  <si>
+    <t>01206152822</t>
+  </si>
+  <si>
+    <t>Khanh Nhi Nguyen</t>
+  </si>
+  <si>
+    <t>Thu Hà</t>
+  </si>
+  <si>
+    <t>Phạm Thu Hà</t>
+  </si>
+  <si>
+    <t>Hiền Lê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hien Le </t>
   </si>
 </sst>
 </file>
@@ -297,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -333,12 +354,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +428,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1211,9 @@
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I15" s="18" t="s">
         <v>1</v>
       </c>
@@ -1388,7 +1427,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1525,6 +1564,97 @@
         <v>2</v>
       </c>
       <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="15">
+        <v>42959</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="15">
+        <v>42959</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="15">
+        <v>42959</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M23"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1657,7 @@
       <c r="M29" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M23"/>
+  <autoFilter ref="A1:M29"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
   <si>
     <t>Tên FB</t>
   </si>
@@ -267,6 +267,33 @@
   </si>
   <si>
     <t xml:space="preserve">Hien Le </t>
+  </si>
+  <si>
+    <t>01673773116</t>
+  </si>
+  <si>
+    <t>Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Kieu Oanh</t>
+  </si>
+  <si>
+    <t>Nhung Nguyễn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhung Nguyễn </t>
+  </si>
+  <si>
+    <t>Kiều Trinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiều Trinh </t>
+  </si>
+  <si>
+    <t>Vũ Cúc</t>
+  </si>
+  <si>
+    <t>Cẩm Nhung</t>
   </si>
 </sst>
 </file>
@@ -714,10 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +841,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -844,7 +872,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -875,7 +903,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -906,7 +934,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -937,7 +965,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -974,7 +1002,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1102,7 +1130,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1129,7 +1157,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1257,7 +1285,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1319,7 +1347,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1429,8 +1457,12 @@
       <c r="F22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I22" s="18" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1504,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -1501,7 +1533,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1559,7 +1591,9 @@
         <v>30</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="15"/>
+      <c r="K26" s="15">
+        <v>42959</v>
+      </c>
       <c r="L26" s="3" t="s">
         <v>2</v>
       </c>
@@ -1638,12 +1672,18 @@
       <c r="D29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="F29" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I29" s="18" t="s">
         <v>30</v>
       </c>
@@ -1656,8 +1696,163 @@
       </c>
       <c r="M29" s="2"/>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="15">
+        <v>42959</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="15">
+        <v>42959</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="15">
+        <v>42960</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>34</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="15">
+        <v>42960</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="15">
+        <v>42960</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M29"/>
+  <autoFilter ref="A1:M34">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Khanh"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
   <si>
     <t>Tên FB</t>
   </si>
@@ -744,8 +744,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,9 +1280,7 @@
       <c r="K16" s="15">
         <v>42954</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
   <si>
     <t>Tên FB</t>
   </si>
@@ -741,11 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +840,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -872,7 +871,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -903,7 +902,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -934,7 +933,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -952,7 +951,9 @@
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
@@ -965,7 +966,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1002,7 +1003,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1157,7 +1158,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1427,7 +1428,9 @@
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I21" s="18" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -1517,8 +1520,12 @@
       <c r="F24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="I24" s="21" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1538,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1783,9 +1790,9 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>87</v>
@@ -1816,7 +1823,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>88</v>
@@ -1844,13 +1851,7 @@
       <c r="M34" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M34">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Khanh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>Tên FB</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Cẩm Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiếu</t>
   </si>
 </sst>
 </file>
@@ -741,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,6 +1853,37 @@
       </c>
       <c r="M34" s="2"/>
     </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="15">
+        <v>42962</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
   <si>
     <t>Tên FB</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Nguyễn Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Lê Văn Thống Nhất</t>
   </si>
 </sst>
 </file>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:M35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1659,9 @@
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1884,8 +1889,39 @@
       </c>
       <c r="M35" s="2"/>
     </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="15">
+        <v>42962</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M34"/>
+  <autoFilter ref="A1:M36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Danh Sach Lop\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
   <si>
     <t>Tên FB</t>
   </si>
@@ -747,6 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
@@ -1659,9 +1660,7 @@
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="18" t="s">
         <v>30</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
   <si>
     <t>Tên FB</t>
   </si>
@@ -750,8 +750,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1660,9 @@
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I28" s="18" t="s">
         <v>30</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>Tên FB</t>
   </si>
@@ -750,7 +750,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1629,7 +1629,9 @@
       <c r="G27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I27" s="18" t="s">
         <v>1</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="93">
   <si>
     <t>Tên FB</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Lê Văn Thống Nhất</t>
+  </si>
+  <si>
+    <t>Tú Nhi</t>
+  </si>
+  <si>
+    <t>Út Trung Kiên</t>
   </si>
 </sst>
 </file>
@@ -747,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M36"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M37" sqref="A37:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +853,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -878,7 +884,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -909,7 +915,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -940,7 +946,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -973,7 +979,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1138,7 +1144,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1165,7 +1171,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1262,7 +1268,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1291,7 +1297,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1512,7 +1518,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1759,7 +1765,9 @@
       <c r="G31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I31" s="18" t="s">
         <v>30</v>
       </c>
@@ -1801,7 +1809,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1861,7 +1869,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1892,7 +1900,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1923,8 +1931,47 @@
       </c>
       <c r="M36" s="2"/>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="15">
+        <v>42968</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M36"/>
+  <autoFilter ref="A1:M37">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Khanh"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="94">
   <si>
     <t>Tên FB</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Út Trung Kiên</t>
+  </si>
+  <si>
+    <t>Anh Vũ</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -406,12 +409,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,6 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -753,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:M37"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M37" sqref="A37:M37"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +868,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -884,7 +899,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -915,7 +930,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -933,7 +948,9 @@
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
@@ -946,7 +963,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -979,7 +996,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1016,7 +1033,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1144,7 +1161,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1171,7 +1188,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1268,7 +1285,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1297,7 +1314,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1359,7 +1376,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1518,7 +1535,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -1551,7 +1568,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1809,7 +1826,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1869,7 +1886,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1900,7 +1917,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1964,14 +1981,34 @@
       </c>
       <c r="M37" s="2"/>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="16">
+        <v>42968</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M37">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Khanh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
   <si>
     <t>Tên FB</t>
   </si>
@@ -360,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -409,23 +409,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,7 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -769,10 +757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,14 +1879,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
@@ -1910,19 +1900,19 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="15">
-        <v>42962</v>
+        <v>42961</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
@@ -1944,71 +1934,106 @@
         <v>42962</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="18" t="s">
-        <v>92</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="15">
+        <v>42962</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="15">
         <v>42968</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="L38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B39" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="26" t="s">
+      <c r="H39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="16">
+      <c r="J39" s="2"/>
+      <c r="K39" s="15">
         <v>42968</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L39" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M37"/>
+  <autoFilter ref="A1:M38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="96">
   <si>
     <t>Tên FB</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Anh Vũ</t>
+  </si>
+  <si>
+    <t>Trương Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tư vấn trực tiếp </t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1297,9 @@
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="18" t="s">
         <v>30</v>
       </c>
@@ -2003,37 +2011,65 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="18" t="s">
+      <c r="H39" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="15">
+      <c r="J39" s="22"/>
+      <c r="K39" s="24">
         <v>42968</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="15">
+        <v>42969</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M38"/>
+  <autoFilter ref="A1:M40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -765,8 +765,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -765,7 +765,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
   <si>
     <t>Tên FB</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t xml:space="preserve">Tư vấn trực tiếp </t>
+  </si>
+  <si>
+    <t>Ngày làm việc</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Lương ngày</t>
+  </si>
+  <si>
+    <t>Ngày thực tế</t>
+  </si>
+  <si>
+    <t>Lương tháng</t>
+  </si>
+  <si>
+    <t>Lương tổng</t>
   </si>
 </sst>
 </file>
@@ -352,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +383,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -415,12 +445,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,9 +505,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -480,6 +518,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M40"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +906,7 @@
       <c r="K2" s="14">
         <v>42944</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6"/>
@@ -961,7 +1010,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
@@ -1027,7 +1076,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1090,18 +1139,18 @@
       <c r="K9" s="15">
         <v>42938</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="2"/>
@@ -1109,12 +1158,12 @@
         <v>27</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="2"/>
@@ -1126,11 +1175,11 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2"/>
@@ -1138,12 +1187,12 @@
         <v>27</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="2"/>
@@ -1155,11 +1204,11 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="2"/>
@@ -1182,7 +1231,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1215,7 +1264,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="2"/>
@@ -1232,7 +1281,7 @@
       <c r="H14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1241,7 +1290,7 @@
       <c r="K14" s="15">
         <v>42952</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="2"/>
@@ -1250,7 +1299,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="2"/>
@@ -1267,14 +1316,14 @@
       <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="15">
         <v>42954</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="2"/>
@@ -1283,7 +1332,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="2"/>
@@ -1291,7 +1340,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1300,21 +1349,23 @@
       <c r="H16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="15">
         <v>42954</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="2"/>
@@ -1322,14 +1373,14 @@
         <v>27</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="2"/>
@@ -1341,11 +1392,11 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="2"/>
@@ -1353,14 +1404,14 @@
         <v>27</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J18" s="2"/>
@@ -1376,7 +1427,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2"/>
@@ -1384,7 +1435,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1393,7 +1444,7 @@
       <c r="H19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1407,11 +1458,11 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="2"/>
@@ -1419,12 +1470,12 @@
         <v>27</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="2"/>
@@ -1440,7 +1491,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="2"/>
@@ -1448,7 +1499,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -1457,14 +1508,14 @@
       <c r="H21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="15">
         <v>42956</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="2"/>
@@ -1473,7 +1524,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="2"/>
@@ -1481,7 +1532,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1490,23 +1541,23 @@
       <c r="H22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="15">
         <v>42956</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="2"/>
@@ -1514,12 +1565,12 @@
         <v>50</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="2"/>
@@ -1532,34 +1583,34 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="24">
+      <c r="H24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="23">
         <v>42957</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M24" s="2"/>
@@ -1568,7 +1619,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="2"/>
@@ -1578,7 +1629,7 @@
       <c r="E25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1587,7 +1638,7 @@
       <c r="H25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -1601,11 +1652,11 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="2"/>
@@ -1613,12 +1664,12 @@
         <v>27</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>70</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J26" s="2"/>
@@ -1634,11 +1685,11 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1651,14 +1702,14 @@
       <c r="H27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="15">
         <v>42959</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="2"/>
@@ -1667,7 +1718,7 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="2"/>
@@ -1675,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -1684,14 +1735,14 @@
       <c r="H28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="15">
         <v>42959</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="2"/>
@@ -1700,7 +1751,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="2"/>
@@ -1710,7 +1761,7 @@
       <c r="E29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>79</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -1719,23 +1770,23 @@
       <c r="H29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="15">
         <v>42959</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="2"/>
@@ -1743,12 +1794,12 @@
         <v>50</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J30" s="2"/>
@@ -1764,7 +1815,7 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="2"/>
@@ -1772,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -1781,23 +1832,23 @@
       <c r="H31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="15">
         <v>42959</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="2"/>
@@ -1810,7 +1861,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="2"/>
@@ -1822,11 +1873,11 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="2"/>
@@ -1841,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J33" s="2"/>
@@ -1853,11 +1904,11 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="2"/>
@@ -1870,7 +1921,7 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J34" s="2"/>
@@ -1882,11 +1933,11 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="2"/>
@@ -1903,23 +1954,23 @@
       <c r="H35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="15">
         <v>42961</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="28" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="2"/>
@@ -1934,7 +1985,7 @@
       <c r="H36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="2"/>
@@ -1946,11 +1997,11 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="2"/>
@@ -1965,7 +2016,7 @@
       <c r="H37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="2"/>
@@ -1977,11 +2028,11 @@
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="2"/>
@@ -1989,7 +2040,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>92</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -1998,54 +2049,54 @@
       <c r="H38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="15">
         <v>42968</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="20" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="21" t="s">
+      <c r="H39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="24">
+      <c r="J39" s="21"/>
+      <c r="K39" s="23">
         <v>42968</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="19" t="s">
         <v>21</v>
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2"/>
@@ -2056,7 +2107,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="17" t="s">
         <v>95</v>
       </c>
       <c r="J40" s="2"/>
@@ -2068,8 +2119,111 @@
       </c>
       <c r="M40" s="2"/>
     </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="26"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="K44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="1">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <f>5%*1470000</f>
+        <v>73500</v>
+      </c>
+      <c r="N44">
+        <f>L44*M44</f>
+        <v>441000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K45" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <f>5%*1680000</f>
+        <v>84000</v>
+      </c>
+      <c r="N45">
+        <f>L45*M45</f>
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f>SUM(M44:M45)</f>
+        <v>157500</v>
+      </c>
+      <c r="N46">
+        <f>SUM(N44:N45)</f>
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48">
+        <v>2500000</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L48" s="1">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>98</v>
+      </c>
+      <c r="N48">
+        <f>J48/L48</f>
+        <v>92592.592592592599</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K49" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" s="1">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <f>N48*L49</f>
+        <v>2037037.0370370371</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>101</v>
+      </c>
+      <c r="N50">
+        <f>N49+N46</f>
+        <v>2730037.0370370373</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M40"/>
+  <autoFilter ref="A1:M40">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -811,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2217,13 +2217,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M40">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
   <si>
     <t>Tên FB</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Lương tổng</t>
+  </si>
+  <si>
+    <t>Lương giờ</t>
+  </si>
+  <si>
+    <t>Ngày lẻ</t>
   </si>
 </sst>
 </file>
@@ -812,10 +818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1879,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1904,7 +1910,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1933,7 +1939,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1966,7 +1972,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1997,7 +2003,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2028,7 +2034,7 @@
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2061,7 +2067,7 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -2092,7 +2098,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2119,16 +2125,16 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="26"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="26"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="26"/>
       <c r="K44" s="16" t="s">
         <v>20</v>
@@ -2145,7 +2151,7 @@
         <v>441000</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K45" s="16" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M46">
         <f>SUM(M44:M45)</f>
         <v>157500</v>
@@ -2171,7 +2177,7 @@
         <v>693000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>97</v>
       </c>
@@ -2191,29 +2197,46 @@
         <f>J48/L48</f>
         <v>92592.592592592599</v>
       </c>
-    </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48">
+        <f>N48/8</f>
+        <v>11574.074074074075</v>
+      </c>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K49" s="16" t="s">
         <v>99</v>
       </c>
       <c r="L49" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M49" t="s">
         <v>100</v>
       </c>
       <c r="N49">
-        <f>N48*L49</f>
-        <v>2037037.0370370371</v>
-      </c>
-    </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.25">
+        <f>N48*L49+P50</f>
+        <v>1996527.7777777778</v>
+      </c>
+      <c r="O49" t="s">
+        <v>103</v>
+      </c>
+      <c r="P49">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="11:16" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
         <v>101</v>
       </c>
       <c r="N50">
         <f>N49+N46</f>
-        <v>2730037.0370370373</v>
+        <v>2689527.777777778</v>
+      </c>
+      <c r="P50">
+        <f>P48*P49</f>
+        <v>52083.333333333336</v>
       </c>
     </row>
   </sheetData>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t>Tên FB</t>
   </si>
@@ -376,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,18 +387,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -467,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,16 +513,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,8 +807,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +900,7 @@
       <c r="K2" s="14">
         <v>42944</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6"/>
@@ -939,11 +927,13 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K3" s="15">
         <v>42947</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="2"/>
@@ -970,11 +960,13 @@
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K4" s="15">
         <v>42947</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="2"/>
@@ -1003,11 +995,13 @@
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" s="15">
         <v>42947</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="2"/>
@@ -1016,7 +1010,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
@@ -1036,11 +1030,13 @@
       <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K6" s="15">
         <v>42947</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2"/>
@@ -1077,7 +1073,7 @@
       <c r="K7" s="15">
         <v>42947</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="2"/>
@@ -1104,11 +1100,13 @@
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K8" s="15">
         <v>42947</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1145,7 +1143,7 @@
       <c r="K9" s="15">
         <v>42938</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1172,11 +1170,13 @@
       <c r="I10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K10" s="15">
         <v>42949</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M10" s="2"/>
@@ -1201,11 +1201,13 @@
       <c r="I11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K11" s="15">
         <v>42949</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="2"/>
@@ -1228,11 +1230,13 @@
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K12" s="15">
         <v>42951</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="26" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="2"/>
@@ -1257,11 +1261,13 @@
       <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K13" s="15">
         <v>42952</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="26" t="s">
         <v>41</v>
       </c>
       <c r="M13" s="2"/>
@@ -1296,7 +1302,7 @@
       <c r="K14" s="15">
         <v>42952</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="2"/>
@@ -1325,11 +1331,13 @@
       <c r="I15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K15" s="15">
         <v>42954</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="2"/>
@@ -1358,11 +1366,13 @@
       <c r="I16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="15">
         <v>42954</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="26" t="s">
         <v>41</v>
       </c>
       <c r="M16" s="2"/>
@@ -1389,11 +1399,13 @@
       <c r="I17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K17" s="15">
         <v>42955</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="26" t="s">
         <v>41</v>
       </c>
       <c r="M17" s="2"/>
@@ -1420,11 +1432,13 @@
       <c r="I18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K18" s="15">
         <v>42955</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="2"/>
@@ -1459,7 +1473,7 @@
       <c r="K19" s="15">
         <v>42955</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="2"/>
@@ -1484,11 +1498,13 @@
       <c r="I20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K20" s="15">
         <v>42956</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="2"/>
@@ -1517,11 +1533,13 @@
       <c r="I21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K21" s="15">
         <v>42956</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="2"/>
@@ -1550,11 +1568,13 @@
       <c r="I22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K22" s="15">
         <v>42956</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="2"/>
@@ -1579,11 +1599,13 @@
       <c r="I23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K23" s="15">
         <v>42956</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="2"/>
@@ -1612,11 +1634,13 @@
       <c r="I24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K24" s="23">
         <v>42957</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="28" t="s">
         <v>41</v>
       </c>
       <c r="M24" s="2"/>
@@ -1653,7 +1677,7 @@
       <c r="K25" s="15">
         <v>42959</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="26" t="s">
         <v>41</v>
       </c>
       <c r="M25" s="2"/>
@@ -1678,11 +1702,13 @@
       <c r="I26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K26" s="15">
         <v>42959</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="2"/>
@@ -1711,11 +1737,13 @@
       <c r="I27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K27" s="15">
         <v>42959</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="2"/>
@@ -1744,11 +1772,13 @@
       <c r="I28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K28" s="15">
         <v>42959</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="2"/>
@@ -1779,11 +1809,13 @@
       <c r="I29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K29" s="15">
         <v>42959</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="2"/>
@@ -1808,11 +1840,13 @@
       <c r="I30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K30" s="15">
         <v>42959</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="2"/>
@@ -1841,11 +1875,13 @@
       <c r="I31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K31" s="15">
         <v>42959</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="2"/>
@@ -1870,11 +1906,13 @@
       <c r="I32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K32" s="15">
         <v>42960</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M32" s="2"/>
@@ -1901,11 +1939,13 @@
       <c r="I33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K33" s="15">
         <v>42960</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="2"/>
@@ -1930,11 +1970,13 @@
       <c r="I34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K34" s="15">
         <v>42960</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="2"/>
@@ -1943,7 +1985,7 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="2"/>
@@ -1963,11 +2005,13 @@
       <c r="I35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K35" s="15">
         <v>42961</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="L35" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="2"/>
@@ -1994,11 +2038,13 @@
       <c r="I36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K36" s="15">
         <v>42962</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="26" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="2"/>
@@ -2025,11 +2071,13 @@
       <c r="I37" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K37" s="15">
         <v>42962</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="26" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="2"/>
@@ -2058,11 +2106,13 @@
       <c r="I38" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K38" s="15">
         <v>42968</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="2"/>
@@ -2089,7 +2139,9 @@
       <c r="I39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="21"/>
+      <c r="J39" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K39" s="23">
         <v>42968</v>
       </c>
@@ -2116,7 +2168,9 @@
       <c r="I40" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K40" s="15">
         <v>42969</v>
       </c>
@@ -2126,16 +2180,16 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
+      <c r="B41" s="25"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
+      <c r="B44" s="25"/>
       <c r="K44" s="16" t="s">
         <v>20</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="107">
   <si>
     <t>Tên FB</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>Ngày lẻ</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Chi</t>
+  </si>
+  <si>
+    <t>Nana Nguyễn</t>
+  </si>
+  <si>
+    <t>TOEIC tháng 9</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -450,12 +459,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,6 +543,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -808,8 +833,8 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L30"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2189,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="17" t="s">
         <v>95</v>
       </c>
@@ -2177,13 +2202,38 @@
       <c r="L40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="15">
+        <v>42984</v>
+      </c>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="25"/>
@@ -2294,7 +2344,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M40"/>
+  <autoFilter ref="A1:M41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="108">
   <si>
     <t>Tên FB</t>
   </si>
@@ -347,7 +347,10 @@
     <t>Nana Nguyễn</t>
   </si>
   <si>
-    <t>TOEIC tháng 9</t>
+    <t>Hậu</t>
+  </si>
+  <si>
+    <t>0935535196</t>
   </si>
 </sst>
 </file>
@@ -832,9 +835,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,7 +2217,9 @@
       <c r="D41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>105</v>
       </c>
@@ -2223,13 +2228,13 @@
       <c r="I41" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="15">
         <v>42984</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="110">
   <si>
     <t>Tên FB</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>0935535196</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>0916663859</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -462,25 +468,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,9 +539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,9 +825,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,8 +2227,32 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="D42" s="29"/>
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="15">
+        <v>42989</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="25"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="116">
   <si>
     <t>Tên FB</t>
   </si>
@@ -357,6 +357,24 @@
   </si>
   <si>
     <t>0916663859</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>0935 218 270</t>
+  </si>
+  <si>
+    <t>Tư Vấn Trực Tiếp</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>Phuong Hoang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fb cá nhân </t>
   </si>
 </sst>
 </file>
@@ -408,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -457,23 +475,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,7 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,11 +829,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +924,7 @@
       <c r="K2" s="14">
         <v>42944</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6"/>
@@ -951,7 +957,7 @@
       <c r="K3" s="15">
         <v>42947</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="2"/>
@@ -984,7 +990,7 @@
       <c r="K4" s="15">
         <v>42947</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="2"/>
@@ -1019,7 +1025,7 @@
       <c r="K5" s="15">
         <v>42947</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="2"/>
@@ -1054,7 +1060,7 @@
       <c r="K6" s="15">
         <v>42947</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2"/>
@@ -1091,7 +1097,7 @@
       <c r="K7" s="15">
         <v>42947</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="2"/>
@@ -1124,7 +1130,7 @@
       <c r="K8" s="15">
         <v>42947</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1161,7 +1167,7 @@
       <c r="K9" s="15">
         <v>42938</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1194,7 +1200,7 @@
       <c r="K10" s="15">
         <v>42949</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M10" s="2"/>
@@ -1225,7 +1231,7 @@
       <c r="K11" s="15">
         <v>42949</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="2"/>
@@ -1254,7 +1260,7 @@
       <c r="K12" s="15">
         <v>42951</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M12" s="2"/>
@@ -1285,7 +1291,7 @@
       <c r="K13" s="15">
         <v>42952</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M13" s="2"/>
@@ -1320,7 +1326,7 @@
       <c r="K14" s="15">
         <v>42952</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="2"/>
@@ -1355,7 +1361,7 @@
       <c r="K15" s="15">
         <v>42954</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="2"/>
@@ -1390,7 +1396,7 @@
       <c r="K16" s="15">
         <v>42954</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M16" s="2"/>
@@ -1423,7 +1429,7 @@
       <c r="K17" s="15">
         <v>42955</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M17" s="2"/>
@@ -1456,7 +1462,7 @@
       <c r="K18" s="15">
         <v>42955</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="2"/>
@@ -1491,7 +1497,7 @@
       <c r="K19" s="15">
         <v>42955</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="2"/>
@@ -1522,7 +1528,7 @@
       <c r="K20" s="15">
         <v>42956</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="2"/>
@@ -1557,7 +1563,7 @@
       <c r="K21" s="15">
         <v>42956</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="2"/>
@@ -1592,7 +1598,7 @@
       <c r="K22" s="15">
         <v>42956</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="2"/>
@@ -1623,7 +1629,7 @@
       <c r="K23" s="15">
         <v>42956</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="2"/>
@@ -1658,7 +1664,7 @@
       <c r="K24" s="23">
         <v>42957</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="27" t="s">
         <v>41</v>
       </c>
       <c r="M24" s="2"/>
@@ -1695,7 +1701,7 @@
       <c r="K25" s="15">
         <v>42959</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M25" s="2"/>
@@ -1726,7 +1732,7 @@
       <c r="K26" s="15">
         <v>42959</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="2"/>
@@ -1761,7 +1767,7 @@
       <c r="K27" s="15">
         <v>42959</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="2"/>
@@ -1796,7 +1802,7 @@
       <c r="K28" s="15">
         <v>42959</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="2"/>
@@ -1833,7 +1839,7 @@
       <c r="K29" s="15">
         <v>42959</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="2"/>
@@ -1864,7 +1870,7 @@
       <c r="K30" s="15">
         <v>42959</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="2"/>
@@ -1899,7 +1905,7 @@
       <c r="K31" s="15">
         <v>42959</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="2"/>
@@ -1930,12 +1936,12 @@
       <c r="K32" s="15">
         <v>42960</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1963,12 +1969,12 @@
       <c r="K33" s="15">
         <v>42960</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1994,12 +2000,12 @@
       <c r="K34" s="15">
         <v>42960</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2029,12 +2035,12 @@
       <c r="K35" s="15">
         <v>42961</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2062,12 +2068,12 @@
       <c r="K36" s="15">
         <v>42962</v>
       </c>
-      <c r="L36" s="26" t="s">
+      <c r="L36" s="25" t="s">
         <v>39</v>
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2095,12 +2101,12 @@
       <c r="K37" s="15">
         <v>42962</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="25" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2130,12 +2136,12 @@
       <c r="K38" s="15">
         <v>42968</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -2168,7 +2174,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2195,8 +2201,9 @@
       <c r="L40" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2225,140 +2232,271 @@
       <c r="L41" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="17" t="s">
+      <c r="F42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="15">
+      <c r="J42" s="21"/>
+      <c r="K42" s="23">
         <v>42989</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="K44" s="16" t="s">
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="15">
+        <v>42989</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="15">
+        <v>42989</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K57" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L57" s="1">
         <v>6</v>
       </c>
-      <c r="M44">
+      <c r="M57">
         <f>5%*1470000</f>
         <v>73500</v>
       </c>
-      <c r="N44">
-        <f>L44*M44</f>
+      <c r="N57">
+        <f>L57*M57</f>
         <v>441000</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K45" s="16" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K58" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L58" s="1">
         <v>3</v>
       </c>
-      <c r="M45">
+      <c r="M58">
         <f>5%*1680000</f>
         <v>84000</v>
       </c>
-      <c r="N45">
-        <f>L45*M45</f>
+      <c r="N58">
+        <f>L58*M58</f>
         <v>252000</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M46">
-        <f>SUM(M44:M45)</f>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f>SUM(M57:M58)</f>
         <v>157500</v>
       </c>
-      <c r="N46">
-        <f>SUM(N44:N45)</f>
+      <c r="N59">
+        <f>SUM(N57:N58)</f>
         <v>693000</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
         <v>97</v>
       </c>
-      <c r="J48">
+      <c r="J61">
         <v>2500000</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K61" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L61" s="1">
         <v>27</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M61" t="s">
         <v>98</v>
       </c>
-      <c r="N48">
-        <f>J48/L48</f>
+      <c r="N61">
+        <f>J61/L61</f>
         <v>92592.592592592599</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O61" t="s">
         <v>102</v>
       </c>
-      <c r="P48">
-        <f>N48/8</f>
+      <c r="P61">
+        <f>N61/8</f>
         <v>11574.074074074075</v>
       </c>
     </row>
-    <row r="49" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K49" s="16" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K62" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L62" s="1">
         <v>21</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M62" t="s">
         <v>100</v>
       </c>
-      <c r="N49">
-        <f>N48*L49+P50</f>
+      <c r="N62">
+        <f>N61*L62+P63</f>
         <v>1996527.7777777778</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O62" t="s">
         <v>103</v>
       </c>
-      <c r="P49">
+      <c r="P62">
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="M50" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
         <v>101</v>
       </c>
-      <c r="N50">
-        <f>N49+N46</f>
+      <c r="N63">
+        <f>N62+N59</f>
         <v>2689527.777777778</v>
       </c>
-      <c r="P50">
-        <f>P48*P49</f>
+      <c r="P63">
+        <f>P61*P62</f>
         <v>52083.333333333336</v>
       </c>
     </row>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="118">
   <si>
     <t>Tên FB</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fb cá nhân </t>
+  </si>
+  <si>
+    <t>Hồng</t>
+  </si>
+  <si>
+    <t>Hồng Ngô</t>
   </si>
 </sst>
 </file>
@@ -831,9 +837,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,18 +2328,32 @@
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="3"/>
+      <c r="K45" s="15">
+        <v>42991</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="120">
   <si>
     <t>Tên FB</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Hồng Ngô</t>
+  </si>
+  <si>
+    <t>Đinh Thị Dung</t>
+  </si>
+  <si>
+    <t>01688741383</t>
   </si>
 </sst>
 </file>
@@ -837,9 +843,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,18 +2363,34 @@
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="3"/>
+      <c r="K46" s="15">
+        <v>42991</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="121">
   <si>
     <t>Tên FB</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>01688741383</t>
+  </si>
+  <si>
+    <t>Phạm Quỳnh Như</t>
   </si>
 </sst>
 </file>
@@ -844,8 +847,8 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,7 +2383,9 @@
       <c r="G46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I46" s="2" t="s">
         <v>1</v>
       </c>
@@ -2394,18 +2399,32 @@
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="3"/>
+      <c r="K47" s="15">
+        <v>42992</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2438,6 +2457,51 @@
       <c r="L49" s="3"/>
       <c r="M49" s="2"/>
     </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="2"/>
+    </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K57" s="16" t="s">
         <v>20</v>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="123">
   <si>
     <t>Tên FB</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>Phạm Quỳnh Như</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Trà</t>
+  </si>
+  <si>
+    <t>Trà Lê</t>
   </si>
 </sst>
 </file>
@@ -847,8 +853,8 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,18 +2434,34 @@
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="3"/>
+      <c r="K48" s="15">
+        <v>42993</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="125">
   <si>
     <t>Tên FB</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Trà Lê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh Hiếu </t>
+  </si>
+  <si>
+    <t>Hieu Minh Tran</t>
   </si>
 </sst>
 </file>
@@ -850,11 +856,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2457,9 @@
       <c r="G48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I48" s="2" t="s">
         <v>115</v>
       </c>
@@ -2464,37 +2472,63 @@
       </c>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="3"/>
+      <c r="K49" s="15">
+        <v>42992</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="3"/>
+      <c r="K50" s="15">
+        <v>42994</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2509,7 +2543,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2524,107 +2558,152 @@
       <c r="L52" s="3"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K57" s="16" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K64" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L64" s="1">
         <v>6</v>
       </c>
-      <c r="M57">
+      <c r="M64">
         <f>5%*1470000</f>
         <v>73500</v>
       </c>
-      <c r="N57">
-        <f>L57*M57</f>
+      <c r="N64">
+        <f>L64*M64</f>
         <v>441000</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K58" s="16" t="s">
+    <row r="65" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K65" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L65" s="1">
         <v>3</v>
       </c>
-      <c r="M58">
+      <c r="M65">
         <f>5%*1680000</f>
         <v>84000</v>
       </c>
-      <c r="N58">
-        <f>L58*M58</f>
+      <c r="N65">
+        <f>L65*M65</f>
         <v>252000</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M59">
-        <f>SUM(M57:M58)</f>
+    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f>SUM(M64:M65)</f>
         <v>157500</v>
       </c>
-      <c r="N59">
-        <f>SUM(N57:N58)</f>
+      <c r="N66">
+        <f>SUM(N64:N65)</f>
         <v>693000</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
+    <row r="68" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
         <v>97</v>
       </c>
-      <c r="J61">
+      <c r="J68">
         <v>2500000</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K68" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L61" s="1">
-        <v>27</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L68" s="1">
+        <v>27</v>
+      </c>
+      <c r="M68" t="s">
         <v>98</v>
       </c>
-      <c r="N61">
-        <f>J61/L61</f>
+      <c r="N68">
+        <f>J68/L68</f>
         <v>92592.592592592599</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O68" t="s">
         <v>102</v>
       </c>
-      <c r="P61">
-        <f>N61/8</f>
+      <c r="P68">
+        <f>N68/8</f>
         <v>11574.074074074075</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K62" s="16" t="s">
+    <row r="69" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K69" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L69" s="1">
         <v>21</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M69" t="s">
         <v>100</v>
       </c>
-      <c r="N62">
-        <f>N61*L62+P63</f>
+      <c r="N69">
+        <f>N68*L69+P70</f>
         <v>1996527.7777777778</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O69" t="s">
         <v>103</v>
       </c>
-      <c r="P62">
+      <c r="P69">
         <v>4.5</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M63" t="s">
+    <row r="70" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
         <v>101</v>
       </c>
-      <c r="N63">
-        <f>N62+N59</f>
+      <c r="N70">
+        <f>N69+N66</f>
         <v>2689527.777777778</v>
       </c>
-      <c r="P63">
-        <f>P61*P62</f>
+      <c r="P70">
+        <f>P68*P69</f>
         <v>52083.333333333336</v>
       </c>
     </row>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,17 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" r:id="rId1"/>
+    <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
+    <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$M$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tháng 8'!$A$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="122">
   <si>
     <t>Tên FB</t>
   </si>
@@ -107,9 +109,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>TOEIC tháng 6</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
@@ -140,9 +139,6 @@
     <t>Lệ Quỳnh</t>
   </si>
   <si>
-    <t>TOEIC tháng 7</t>
-  </si>
-  <si>
     <t>Thoan Htk</t>
   </si>
   <si>
@@ -317,30 +313,6 @@
     <t xml:space="preserve">Tư vấn trực tiếp </t>
   </si>
   <si>
-    <t>Ngày làm việc</t>
-  </si>
-  <si>
-    <t>Lương</t>
-  </si>
-  <si>
-    <t>Lương ngày</t>
-  </si>
-  <si>
-    <t>Ngày thực tế</t>
-  </si>
-  <si>
-    <t>Lương tháng</t>
-  </si>
-  <si>
-    <t>Lương tổng</t>
-  </si>
-  <si>
-    <t>Lương giờ</t>
-  </si>
-  <si>
-    <t>Ngày lẻ</t>
-  </si>
-  <si>
     <t>Nguyễn Hoàng Chi</t>
   </si>
   <si>
@@ -402,6 +374,27 @@
   </si>
   <si>
     <t>Hieu Minh Tran</t>
+  </si>
+  <si>
+    <t>Mỹ Trinh</t>
+  </si>
+  <si>
+    <t>Fb cá nhân</t>
+  </si>
+  <si>
+    <t>Bạn của Mỹ Trinh</t>
+  </si>
+  <si>
+    <t>01643794391</t>
+  </si>
+  <si>
+    <t>Pre-Toeic</t>
+  </si>
+  <si>
+    <t>Đức Lê</t>
+  </si>
+  <si>
+    <t>TOEIC tháng 8</t>
   </si>
 </sst>
 </file>
@@ -856,11 +849,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>15</v>
@@ -930,10 +923,10 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
@@ -945,8 +938,8 @@
       <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>26</v>
+      <c r="J2" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="K2" s="14">
         <v>42944</v>
@@ -965,7 +958,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="2"/>
@@ -979,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K3" s="15">
         <v>42947</v>
@@ -998,7 +991,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="2"/>
@@ -1012,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K4" s="15">
         <v>42947</v>
@@ -1031,10 +1024,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
@@ -1047,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K5" s="15">
         <v>42947</v>
@@ -1066,7 +1059,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="2" t="s">
@@ -1079,10 +1072,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K6" s="15">
         <v>42947</v>
@@ -1101,10 +1094,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>22</v>
@@ -1116,10 +1109,10 @@
         <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K7" s="15">
         <v>42947</v>
@@ -1138,7 +1131,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="2" t="s">
@@ -1149,10 +1142,10 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K8" s="15">
         <v>42947</v>
@@ -1161,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1169,14 +1162,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
@@ -1189,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K9" s="15">
         <v>42938</v>
@@ -1198,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1206,23 +1199,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K10" s="15">
         <v>42949</v>
@@ -1237,23 +1230,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K11" s="15">
         <v>42949</v>
@@ -1268,27 +1261,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="8"/>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K12" s="15">
         <v>42951</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M12" s="2"/>
     </row>
@@ -1297,29 +1290,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K13" s="15">
         <v>42952</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13" s="2"/>
     </row>
@@ -1328,14 +1321,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
@@ -1348,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K14" s="15">
         <v>42952</v>
@@ -1363,14 +1356,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
@@ -1383,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K15" s="15">
         <v>42954</v>
@@ -1398,15 +1391,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
@@ -1415,16 +1408,16 @@
         <v>25</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K16" s="15">
         <v>42954</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -1433,31 +1426,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K17" s="15">
         <v>42955</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -1466,25 +1459,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K18" s="15">
         <v>42955</v>
@@ -1499,15 +1492,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>20</v>
@@ -1516,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K19" s="15">
         <v>42955</v>
@@ -1534,23 +1527,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K20" s="15">
         <v>42956</v>
@@ -1565,15 +1558,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>20</v>
@@ -1582,10 +1575,10 @@
         <v>25</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K21" s="15">
         <v>42956</v>
@@ -1600,15 +1593,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>20</v>
@@ -1617,10 +1610,10 @@
         <v>25</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K22" s="15">
         <v>42956</v>
@@ -1635,23 +1628,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K23" s="15">
         <v>42956</v>
@@ -1666,15 +1659,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>20</v>
@@ -1683,16 +1676,16 @@
         <v>25</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K24" s="23">
         <v>42957</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M24" s="2"/>
     </row>
@@ -1701,17 +1694,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>5</v>
@@ -1720,16 +1713,16 @@
         <v>25</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K25" s="15">
         <v>42959</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M25" s="2"/>
     </row>
@@ -1738,23 +1731,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K26" s="15">
         <v>42959</v>
@@ -1769,14 +1762,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
@@ -1789,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K27" s="15">
         <v>42959</v>
@@ -1804,15 +1797,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>20</v>
@@ -1821,10 +1814,10 @@
         <v>25</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K28" s="15">
         <v>42959</v>
@@ -1839,17 +1832,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1858,10 +1851,10 @@
         <v>25</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K29" s="15">
         <v>42959</v>
@@ -1876,23 +1869,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K30" s="15">
         <v>42959</v>
@@ -1907,15 +1900,15 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>5</v>
@@ -1924,10 +1917,10 @@
         <v>25</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K31" s="15">
         <v>42959</v>
@@ -1942,23 +1935,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K32" s="15">
         <v>42960</v>
@@ -1973,25 +1966,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K33" s="15">
         <v>42960</v>
@@ -2006,23 +1999,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K34" s="15">
         <v>42960</v>
@@ -2041,7 +2034,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
@@ -2057,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K35" s="15">
         <v>42961</v>
@@ -2072,11 +2065,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="2"/>
@@ -2090,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K36" s="15">
         <v>42962</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M36" s="2"/>
     </row>
@@ -2105,11 +2098,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="2"/>
@@ -2123,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K37" s="15">
         <v>42962</v>
@@ -2138,15 +2131,15 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>5</v>
@@ -2155,10 +2148,10 @@
         <v>25</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K38" s="15">
         <v>42968</v>
@@ -2173,11 +2166,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="21"/>
@@ -2191,7 +2184,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K39" s="23">
         <v>42968</v>
@@ -2206,21 +2199,21 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
       <c r="I40" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K40" s="15">
         <v>42969</v>
@@ -2231,484 +2224,531 @@
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>104</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M40"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="15">
+      <c r="B2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="15">
         <v>42984</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23">
+        <v>42989</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="15">
+        <v>42989</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="15">
+        <v>42989</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>40</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="15">
+        <v>42991</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="23">
-        <v>42989</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="15">
+        <v>42991</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="15">
+        <v>42992</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="15">
-        <v>42989</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="15">
+        <v>42993</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="15">
+        <v>42992</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="15">
+        <v>42994</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="15">
-        <v>42989</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="15">
+        <v>42995</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="2" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="15">
+        <v>42995</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="15">
-        <v>42991</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="15">
-        <v>42991</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="15">
+        <v>42992</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="15">
-        <v>42992</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="15">
-        <v>42993</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="15">
-        <v>42992</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="15">
-        <v>42994</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K64" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" s="1">
-        <v>6</v>
-      </c>
-      <c r="M64">
-        <f>5%*1470000</f>
-        <v>73500</v>
-      </c>
-      <c r="N64">
-        <f>L64*M64</f>
-        <v>441000</v>
-      </c>
-    </row>
-    <row r="65" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="K65" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L65" s="1">
-        <v>3</v>
-      </c>
-      <c r="M65">
-        <f>5%*1680000</f>
-        <v>84000</v>
-      </c>
-      <c r="N65">
-        <f>L65*M65</f>
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="M66">
-        <f>SUM(M64:M65)</f>
-        <v>157500</v>
-      </c>
-      <c r="N66">
-        <f>SUM(N64:N65)</f>
-        <v>693000</v>
-      </c>
-    </row>
-    <row r="68" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-      <c r="J68">
-        <v>2500000</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L68" s="1">
-        <v>27</v>
-      </c>
-      <c r="M68" t="s">
-        <v>98</v>
-      </c>
-      <c r="N68">
-        <f>J68/L68</f>
-        <v>92592.592592592599</v>
-      </c>
-      <c r="O68" t="s">
-        <v>102</v>
-      </c>
-      <c r="P68">
-        <f>N68/8</f>
-        <v>11574.074074074075</v>
-      </c>
-    </row>
-    <row r="69" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="K69" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L69" s="1">
-        <v>21</v>
-      </c>
-      <c r="M69" t="s">
-        <v>100</v>
-      </c>
-      <c r="N69">
-        <f>N68*L69+P70</f>
-        <v>1996527.7777777778</v>
-      </c>
-      <c r="O69" t="s">
-        <v>103</v>
-      </c>
-      <c r="P69">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="70" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="M70" t="s">
-        <v>101</v>
-      </c>
-      <c r="N70">
-        <f>N69+N66</f>
-        <v>2689527.777777778</v>
-      </c>
-      <c r="P70">
-        <f>P68*P69</f>
-        <v>52083.333333333336</v>
-      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M41"/>
+  <autoFilter ref="A1:M2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tháng 8'!$A$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -2266,7 +2266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2748,7 @@
       <c r="M16" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M2"/>
+  <autoFilter ref="A1:M14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="124">
   <si>
     <t>Tên FB</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>TOEIC tháng 8</t>
+  </si>
+  <si>
+    <t>Lê lê</t>
+  </si>
+  <si>
+    <t>Lê</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +449,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,7 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,6 +576,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,8 +876,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +968,7 @@
       <c r="K2" s="14">
         <v>42944</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="6"/>
@@ -977,7 +1001,7 @@
       <c r="K3" s="15">
         <v>42947</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="2"/>
@@ -1010,7 +1034,7 @@
       <c r="K4" s="15">
         <v>42947</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="2"/>
@@ -1045,7 +1069,7 @@
       <c r="K5" s="15">
         <v>42947</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="2"/>
@@ -1080,7 +1104,7 @@
       <c r="K6" s="15">
         <v>42947</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2"/>
@@ -1117,43 +1141,43 @@
       <c r="K7" s="15">
         <v>42947</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="J8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="30">
         <v>42947</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1187,134 +1211,134 @@
       <c r="K9" s="15">
         <v>42938</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="30">
         <v>42949</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="17" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="30">
         <v>42949</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="30">
         <v>42951</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="15">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="30">
         <v>42952</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1346,7 +1370,7 @@
       <c r="K14" s="15">
         <v>42952</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="2"/>
@@ -1381,7 +1405,7 @@
       <c r="K15" s="15">
         <v>42954</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M15" s="2"/>
@@ -1416,76 +1440,76 @@
       <c r="K16" s="15">
         <v>42954</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="15">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="30">
         <v>42955</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="15">
+      <c r="H18" s="27"/>
+      <c r="I18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="30">
         <v>42955</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1517,41 +1541,41 @@
       <c r="K19" s="15">
         <v>42955</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="17" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="15">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="30">
         <v>42956</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1583,7 +1607,7 @@
       <c r="K21" s="15">
         <v>42956</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="2"/>
@@ -1618,73 +1642,73 @@
       <c r="K22" s="15">
         <v>42956</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="17" t="s">
+      <c r="E23" s="29"/>
+      <c r="F23" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" s="15">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="30">
         <v>42956</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="20" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>42957</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="26" t="s">
         <v>39</v>
       </c>
       <c r="M24" s="2"/>
@@ -1721,41 +1745,41 @@
       <c r="K25" s="15">
         <v>42959</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>39</v>
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="17" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="30">
         <v>42959</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1765,7 +1789,7 @@
         <v>71</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1787,7 +1811,7 @@
       <c r="K27" s="15">
         <v>42959</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="2"/>
@@ -1822,7 +1846,7 @@
       <c r="K28" s="15">
         <v>42959</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="2"/>
@@ -1859,41 +1883,41 @@
       <c r="K29" s="15">
         <v>42959</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17" t="s">
+    <row r="30" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="15">
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="30">
         <v>42959</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1925,105 +1949,105 @@
       <c r="K31" s="15">
         <v>42959</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="15">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="30">
         <v>42960</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" s="15">
+      <c r="H33" s="27"/>
+      <c r="I33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="30">
         <v>42960</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="15">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="30">
         <v>42960</v>
       </c>
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="28"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -2055,7 +2079,7 @@
       <c r="K35" s="15">
         <v>42961</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="2"/>
@@ -2088,7 +2112,7 @@
       <c r="K36" s="15">
         <v>42962</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M36" s="2"/>
@@ -2121,7 +2145,7 @@
       <c r="K37" s="15">
         <v>42962</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="2"/>
@@ -2156,40 +2180,40 @@
       <c r="K38" s="15">
         <v>42968</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="24" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="19" t="s">
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="22">
         <v>42968</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="18" t="s">
         <v>21</v>
       </c>
       <c r="M39" s="2"/>
@@ -2208,7 +2232,9 @@
       <c r="E40" s="8"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I40" s="17" t="s">
         <v>93</v>
       </c>
@@ -2266,7 +2292,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,30 +2385,30 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23">
+      <c r="J3" s="20"/>
+      <c r="K3" s="22">
         <v>42989</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>96</v>
       </c>
       <c r="M3" s="2"/>
@@ -2445,34 +2471,34 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="15">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="30">
         <v>42991</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2541,7 +2567,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2600,37 +2626,37 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="15">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="30">
         <v>42994</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2718,18 +2744,30 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="15">
+        <v>42996</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
   <si>
     <t>Tên FB</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>Lê</t>
+  </si>
+  <si>
+    <t>Đặng Văn Vi</t>
+  </si>
+  <si>
+    <t>0905618996</t>
   </si>
 </sst>
 </file>
@@ -2290,9 +2296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,18 +2777,32 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="15">
+        <v>42996</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
   </sheetData>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="129">
   <si>
     <t>Tên FB</t>
   </si>
@@ -407,6 +407,15 @@
   </si>
   <si>
     <t>0905618996</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Hiền</t>
+  </si>
+  <si>
+    <t>Bạn của Vũ Thanh Hiền</t>
+  </si>
+  <si>
+    <t>TOEIC Tháng 10</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,9 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -2294,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,30 +2397,30 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22">
+      <c r="J3" s="2"/>
+      <c r="K3" s="15">
         <v>42989</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="3" t="s">
         <v>96</v>
       </c>
       <c r="M3" s="2"/>
@@ -2478,7 +2484,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2573,7 +2579,7 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2662,7 +2668,7 @@
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2730,6 +2736,7 @@
       <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="2" t="s">
         <v>120</v>
       </c>
@@ -2796,7 +2803,9 @@
       <c r="I16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="K16" s="15">
         <v>42996</v>
       </c>
@@ -2804,6 +2813,66 @@
         <v>96</v>
       </c>
       <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="15">
+        <v>42997</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="15">
+        <v>42997</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="131">
   <si>
     <t>Tên FB</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>TOEIC Tháng 10</t>
+  </si>
+  <si>
+    <t>Lê Thị Lam Phương</t>
+  </si>
+  <si>
+    <t>500 - 700</t>
   </si>
 </sst>
 </file>
@@ -2300,11 +2306,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,6 +2880,39 @@
       </c>
       <c r="M18" s="2"/>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="15">
+        <v>42997</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="132">
   <si>
     <t>Tên FB</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>500 - 700</t>
+  </si>
+  <si>
+    <t>01696365707</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2598,9 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -2313,7 +2313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="134">
   <si>
     <t>Tên FB</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>01696365707</t>
+  </si>
+  <si>
+    <t>01222425494</t>
+  </si>
+  <si>
+    <t>Bạn của Vy lớp 300-500 K5</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2319,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,7 +2902,9 @@
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>130</v>
@@ -2916,7 +2924,9 @@
       <c r="L19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="138">
   <si>
     <t>Tên FB</t>
   </si>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>Bạn của Vy lớp 300-500 K5</t>
+  </si>
+  <si>
+    <t>01250949790</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhật Vy</t>
+  </si>
+  <si>
+    <t>Liêu Thị Ngân</t>
+  </si>
+  <si>
+    <t>01673647975</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -2315,11 +2330,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,6 +2943,68 @@
         <v>133</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="15">
+        <v>42999</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="15">
+        <v>42999</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="155">
   <si>
     <t>Tên FB</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Vũ Thanh Hiền</t>
   </si>
   <si>
-    <t>Bạn của Vũ Thanh Hiền</t>
-  </si>
-  <si>
     <t>TOEIC Tháng 10</t>
   </si>
   <si>
@@ -433,23 +430,77 @@
     <t>Bạn của Vy lớp 300-500 K5</t>
   </si>
   <si>
-    <t>01250949790</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nhật Vy</t>
-  </si>
-  <si>
-    <t>Liêu Thị Ngân</t>
-  </si>
-  <si>
     <t>01673647975</t>
+  </si>
+  <si>
+    <t>Lưu Thị Ngân</t>
+  </si>
+  <si>
+    <t>Diệu Phương</t>
+  </si>
+  <si>
+    <t>Fb fanpage</t>
+  </si>
+  <si>
+    <t>Dương Phương Uyên</t>
+  </si>
+  <si>
+    <t>01258949790</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>L Correct Answer</t>
+  </si>
+  <si>
+    <t>R Correct Answer</t>
+  </si>
+  <si>
+    <t>L Points</t>
+  </si>
+  <si>
+    <t>R Points</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part 4</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>Part 6</t>
+  </si>
+  <si>
+    <t>Part 7</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhật Vi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +530,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +583,56 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -550,11 +686,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,9 +778,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
+    <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2330,11 +2515,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2529,7 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
@@ -2352,9 +2537,13 @@
     <col min="11" max="11" width="17.85546875" style="16" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -2394,8 +2583,34 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2425,8 +2640,34 @@
         <v>96</v>
       </c>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2454,8 +2695,20 @@
         <v>96</v>
       </c>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2483,8 +2736,20 @@
         <v>21</v>
       </c>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2512,8 +2777,20 @@
         <v>21</v>
       </c>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -2541,8 +2818,20 @@
         <v>96</v>
       </c>
       <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2574,8 +2863,20 @@
         <v>21</v>
       </c>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2607,8 +2908,20 @@
         <v>39</v>
       </c>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2620,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
@@ -2642,8 +2955,20 @@
         <v>21</v>
       </c>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2669,8 +2994,20 @@
         <v>21</v>
       </c>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -2698,8 +3035,20 @@
         <v>96</v>
       </c>
       <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2729,8 +3078,20 @@
         <v>21</v>
       </c>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2756,8 +3117,20 @@
         <v>21</v>
       </c>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2787,8 +3160,20 @@
         <v>21</v>
       </c>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2814,8 +3199,20 @@
         <v>96</v>
       </c>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2836,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K16" s="15">
         <v>42996</v>
@@ -2845,8 +3242,20 @@
         <v>96</v>
       </c>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2858,14 +3267,20 @@
         <v>26</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="15">
         <v>42997</v>
@@ -2874,29 +3289,43 @@
         <v>21</v>
       </c>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>116</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K18" s="15">
         <v>42997</v>
@@ -2905,24 +3334,36 @@
         <v>21</v>
       </c>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>25</v>
@@ -2931,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K19" s="15">
         <v>42997</v>
@@ -2940,22 +3381,34 @@
         <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -2964,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" s="15">
         <v>42999</v>
@@ -2973,20 +3426,56 @@
         <v>21</v>
       </c>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>6</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>7</v>
+      </c>
+      <c r="R20" s="2">
+        <v>14</v>
+      </c>
+      <c r="S20" s="2">
+        <v>3</v>
+      </c>
+      <c r="T20" s="2">
+        <v>10</v>
+      </c>
+      <c r="U20" s="2">
+        <v>16</v>
+      </c>
+      <c r="V20" s="2">
+        <v>27</v>
+      </c>
+      <c r="W20" s="2">
+        <v>55</v>
+      </c>
+      <c r="X20" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -2995,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="15">
         <v>42999</v>
@@ -3004,9 +3493,163 @@
         <v>21</v>
       </c>
       <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>7</v>
+      </c>
+      <c r="R21" s="2">
+        <v>11</v>
+      </c>
+      <c r="S21" s="2">
+        <v>6</v>
+      </c>
+      <c r="T21" s="2">
+        <v>9</v>
+      </c>
+      <c r="U21" s="2">
+        <v>27</v>
+      </c>
+      <c r="V21" s="2">
+        <v>26</v>
+      </c>
+      <c r="W21" s="2">
+        <v>115</v>
+      </c>
+      <c r="X21" s="2">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="15">
+        <v>43002</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="15">
+        <v>43002</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="156">
   <si>
     <t>Tên FB</t>
   </si>
@@ -439,9 +439,6 @@
     <t>Diệu Phương</t>
   </si>
   <si>
-    <t>Fb fanpage</t>
-  </si>
-  <si>
     <t>Dương Phương Uyên</t>
   </si>
   <si>
@@ -494,6 +491,12 @@
   </si>
   <si>
     <t>Nguyễn Thị Nhật Vi</t>
+  </si>
+  <si>
+    <t>Hồ Thoa</t>
+  </si>
+  <si>
+    <t>Thoa</t>
   </si>
 </sst>
 </file>
@@ -778,15 +781,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,6 +803,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -2515,11 +2518,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,31 +2586,31 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Y1" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2640,32 +2643,32 @@
         <v>96</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="P2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="Q2" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="T2" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2695,18 +2698,18 @@
         <v>96</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -3307,7 +3310,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
@@ -3401,14 +3404,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -3548,7 +3551,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>127</v>
@@ -3556,7 +3559,9 @@
       <c r="K22" s="15">
         <v>43002</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3576,7 +3581,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
@@ -3584,12 +3589,12 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>127</v>
@@ -3597,7 +3602,9 @@
       <c r="K23" s="15">
         <v>43002</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3613,18 +3620,34 @@
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="3"/>
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="15">
+        <v>43004</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3638,6 +3661,157 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="15">
+        <v>43004</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="160">
   <si>
     <t>Tên FB</t>
   </si>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t>Thoa</t>
+  </si>
+  <si>
+    <t>Ngân</t>
+  </si>
+  <si>
+    <t>Ngân Nguyễn</t>
+  </si>
+  <si>
+    <t>Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>300 - 500</t>
   </si>
 </sst>
 </file>
@@ -2520,9 +2532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2542,7 @@
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
@@ -2543,10 +2555,10 @@
     <col min="21" max="21" width="17.5703125" customWidth="1"/>
     <col min="22" max="22" width="17.7109375" customWidth="1"/>
     <col min="23" max="23" width="9.42578125" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -2911,18 +2923,42 @@
         <v>39</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="N8" s="2">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>11</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>12</v>
+      </c>
+      <c r="R8" s="2">
+        <v>17</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2">
+        <v>12</v>
+      </c>
+      <c r="U8" s="2">
+        <v>32</v>
+      </c>
+      <c r="V8" s="2">
+        <v>32</v>
+      </c>
+      <c r="W8" s="2">
+        <v>140</v>
+      </c>
+      <c r="X8" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>240</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3292,18 +3328,42 @@
         <v>21</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="N17" s="2">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2">
+        <v>12</v>
+      </c>
+      <c r="P17" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>11</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2">
+        <v>16</v>
+      </c>
+      <c r="U17" s="2">
+        <v>39</v>
+      </c>
+      <c r="V17" s="2">
+        <v>38</v>
+      </c>
+      <c r="W17" s="2">
+        <v>180</v>
+      </c>
+      <c r="X17" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>320</v>
+      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -3337,18 +3397,42 @@
         <v>21</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>14</v>
+      </c>
+      <c r="P18" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7</v>
+      </c>
+      <c r="R18" s="2">
+        <v>15</v>
+      </c>
+      <c r="S18" s="2">
+        <v>5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>19</v>
+      </c>
+      <c r="U18" s="2">
+        <v>29</v>
+      </c>
+      <c r="V18" s="2">
+        <v>39</v>
+      </c>
+      <c r="W18" s="2">
+        <v>125</v>
+      </c>
+      <c r="X18" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3706,18 +3790,34 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="15">
+        <v>43005</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3733,18 +3833,36 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="3"/>
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="15">
+        <v>43005</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -2532,9 +2532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="168">
   <si>
     <t>Tên FB</t>
   </si>
@@ -509,6 +509,30 @@
   </si>
   <si>
     <t>300 - 500</t>
+  </si>
+  <si>
+    <t>01214231477</t>
+  </si>
+  <si>
+    <t>01676629420</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Ngân</t>
+  </si>
+  <si>
+    <t>0935300632</t>
+  </si>
+  <si>
+    <t>01215991514</t>
+  </si>
+  <si>
+    <t>01225358800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lê Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Trần Thị Thúy Nga</t>
   </si>
 </sst>
 </file>
@@ -2530,11 +2554,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,7 +3329,9 @@
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>126</v>
       </c>
@@ -3376,7 +3402,9 @@
       <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>20</v>
@@ -3878,18 +3906,36 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="3"/>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="15">
+        <v>43006</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3905,18 +3951,36 @@
       <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="3"/>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="15">
+        <v>43006</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3930,6 +3994,132 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="15">
+        <v>43006</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="170">
   <si>
     <t>Tên FB</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Trần Thị Thúy Nga</t>
+  </si>
+  <si>
+    <t>Phạm Thu Uyên</t>
+  </si>
+  <si>
+    <t>Thu Uyen Pham</t>
   </si>
 </sst>
 </file>
@@ -2557,8 +2563,8 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,40 +3360,40 @@
         <v>21</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2">
+      <c r="N17" s="3">
         <v>4</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="3">
         <v>12</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
         <v>12</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3">
         <v>11</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="3">
         <v>20</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="3">
         <v>2</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="3">
         <v>16</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="3">
         <v>39</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="3">
         <v>38</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="3">
         <v>180</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="3">
         <v>140</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="3">
         <v>320</v>
       </c>
     </row>
@@ -3425,40 +3431,40 @@
         <v>21</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2">
+      <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3">
         <v>14</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="3">
         <v>8</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="3">
         <v>7</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="3">
         <v>15</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="3">
         <v>5</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="3">
         <v>19</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="3">
         <v>29</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="3">
         <v>39</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="3">
         <v>125</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="3">
         <v>145</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="3">
         <v>270</v>
       </c>
     </row>
@@ -3498,18 +3504,18 @@
       <c r="M19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3541,40 +3547,40 @@
         <v>21</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2">
+      <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="3">
         <v>6</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="3">
         <v>3</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="3">
         <v>7</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="3">
         <v>14</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="3">
         <v>3</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="3">
         <v>10</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="3">
         <v>16</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="3">
         <v>27</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="3">
         <v>55</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="3">
         <v>70</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="3">
         <v>125</v>
       </c>
     </row>
@@ -3608,40 +3614,40 @@
         <v>21</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2">
+      <c r="N21" s="3">
         <v>2</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="3">
         <v>6</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="3">
         <v>12</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="3">
         <v>7</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="3">
         <v>11</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="3">
         <v>6</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="3">
         <v>9</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="3">
         <v>27</v>
       </c>
-      <c r="V21" s="2">
-        <v>26</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="V21" s="3">
+        <v>26</v>
+      </c>
+      <c r="W21" s="3">
         <v>115</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="3">
         <v>65</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="3">
         <v>180</v>
       </c>
     </row>
@@ -4041,18 +4047,36 @@
       <c r="Y30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="3"/>
+      <c r="I31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="15">
+        <v>43006</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SVN\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
   <si>
     <t>Tên FB</t>
   </si>
@@ -539,6 +539,36 @@
   </si>
   <si>
     <t>Thu Uyen Pham</t>
+  </si>
+  <si>
+    <t>Thùy Nhung</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Huy Trần</t>
+  </si>
+  <si>
+    <t>Thanh Nga</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Bạn của Khánh Nhi</t>
+  </si>
+  <si>
+    <t>Khánh Nhi Nguyễn</t>
+  </si>
+  <si>
+    <t>Hằng</t>
+  </si>
+  <si>
+    <t>Hằng Nguyễn</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Hải</t>
   </si>
 </sst>
 </file>
@@ -2560,11 +2590,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,18 +4122,34 @@
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="3"/>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="15">
+        <v>42998</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4119,18 +4165,34 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="3"/>
+      <c r="I33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="15">
+        <v>43003</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4144,6 +4206,300 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="15">
+        <v>43004</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="15">
+        <v>43005</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="15">
+        <v>43006</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" s="15">
+        <v>43007</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" s="15">
+        <v>43007</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="182">
   <si>
     <t>Tên FB</t>
   </si>
@@ -569,6 +569,12 @@
   </si>
   <si>
     <t>Hoàng Thanh Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Bảo Nhi</t>
+  </si>
+  <si>
+    <t>0916491600</t>
   </si>
 </sst>
 </file>
@@ -2594,7 +2600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,18 +4427,34 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="3"/>
+      <c r="I39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="15">
+        <v>43007</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="205">
   <si>
     <t>Tên FB</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Trần Thị Thúy Nga</t>
   </si>
   <si>
-    <t>Phạm Thu Uyên</t>
-  </si>
-  <si>
     <t>Thu Uyen Pham</t>
   </si>
   <si>
@@ -575,6 +572,79 @@
   </si>
   <si>
     <t>0916491600</t>
+  </si>
+  <si>
+    <t>0909246801</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>Ngô Mỹ</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Anh Vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hoàng</t>
+  </si>
+  <si>
+    <t>Trần Thị Thùy</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Uyên</t>
+  </si>
+  <si>
+    <t>01635133180</t>
+  </si>
+  <si>
+    <t>0964510070</t>
+  </si>
+  <si>
+    <t>Bùi Nhi</t>
+  </si>
+  <si>
+    <t>Phạm Thị Tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01674731073 </t>
+  </si>
+  <si>
+    <t>Trần Thị Khánh Ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01689819367  </t>
+  </si>
+  <si>
+    <t>Lê Thị Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>01246791074</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>01695240235</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thu Hồng</t>
+  </si>
+  <si>
+    <t>0934999256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Ngọc Quỳnh Trân </t>
+  </si>
+  <si>
+    <t>01215949985
+01682882303</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm My</t>
+  </si>
+  <si>
+    <t>01667286108</t>
   </si>
 </sst>
 </file>
@@ -1184,8 +1254,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,11 +2666,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,8 +3815,12 @@
       <c r="F23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3821,17 +3895,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2" t="s">
         <v>29</v>
@@ -3907,20 +3985,24 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I27" s="2" t="s">
         <v>29</v>
       </c>
@@ -4087,20 +4169,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I31" s="2" t="s">
         <v>29</v>
       </c>
@@ -4132,7 +4218,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
@@ -4140,7 +4226,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -4175,7 +4261,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
@@ -4183,7 +4269,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4218,7 +4304,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
@@ -4226,7 +4312,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -4261,7 +4347,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
@@ -4269,7 +4355,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -4304,18 +4390,24 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I36" s="2" t="s">
         <v>29</v>
       </c>
@@ -4347,13 +4439,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4388,7 +4480,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
@@ -4396,7 +4488,7 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4431,14 +4523,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
@@ -4470,18 +4562,34 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="3"/>
+      <c r="I40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4497,18 +4605,34 @@
       <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="3"/>
+      <c r="I41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -4522,6 +4646,454 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" s="15">
+        <v>43008</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -850,7 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,6 +959,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2668,9 +2671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,40 +3469,40 @@
         <v>21</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="3">
+      <c r="N17" s="45">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="45">
         <v>12</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="45">
         <v>12</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="45">
         <v>11</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="45">
         <v>20</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="45">
         <v>2</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="45">
         <v>16</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="45">
         <v>39</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="45">
         <v>38</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="45">
         <v>180</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="45">
         <v>140</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="45">
         <v>320</v>
       </c>
     </row>
@@ -3537,40 +3540,40 @@
         <v>21</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="3">
+      <c r="N18" s="45">
         <v>0</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="45">
         <v>14</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="45">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="45">
         <v>7</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="45">
         <v>15</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="45">
         <v>5</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="45">
         <v>19</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="45">
         <v>29</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="45">
         <v>39</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="45">
         <v>125</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="45">
         <v>145</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="45">
         <v>270</v>
       </c>
     </row>
@@ -3610,18 +3613,18 @@
       <c r="M19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3653,40 +3656,40 @@
         <v>21</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="3">
+      <c r="N20" s="45">
         <v>0</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="45">
         <v>6</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="45">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="45">
         <v>7</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="45">
         <v>14</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="45">
         <v>3</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="45">
         <v>10</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="45">
         <v>16</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="45">
         <v>27</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="45">
         <v>55</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="45">
         <v>70</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="45">
         <v>125</v>
       </c>
     </row>
@@ -3720,40 +3723,40 @@
         <v>21</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="3">
+      <c r="N21" s="45">
         <v>2</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="45">
         <v>6</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="45">
         <v>12</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="45">
         <v>7</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="45">
         <v>11</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="45">
         <v>6</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="45">
         <v>9</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="45">
         <v>27</v>
       </c>
-      <c r="V21" s="3">
-        <v>26</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="V21" s="45">
+        <v>26</v>
+      </c>
+      <c r="W21" s="45">
         <v>115</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="45">
         <v>65</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="45">
         <v>180</v>
       </c>
     </row>
@@ -4421,18 +4424,42 @@
         <v>96</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
+      <c r="N36" s="2">
+        <v>4</v>
+      </c>
+      <c r="O36" s="2">
+        <v>9</v>
+      </c>
+      <c r="P36" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>8</v>
+      </c>
+      <c r="R36" s="2">
+        <v>19</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>15</v>
+      </c>
+      <c r="U36" s="2">
+        <v>30</v>
+      </c>
+      <c r="V36" s="2">
+        <v>35</v>
+      </c>
+      <c r="W36" s="2">
+        <v>130</v>
+      </c>
+      <c r="X36" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>250</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -4814,18 +4841,42 @@
         <v>96</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
+      <c r="N45" s="2">
+        <v>4</v>
+      </c>
+      <c r="O45" s="2">
+        <v>9</v>
+      </c>
+      <c r="P45" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>7</v>
+      </c>
+      <c r="R45" s="2">
+        <v>21</v>
+      </c>
+      <c r="S45" s="2">
+        <v>4</v>
+      </c>
+      <c r="T45" s="2">
+        <v>5</v>
+      </c>
+      <c r="U45" s="2">
+        <v>29</v>
+      </c>
+      <c r="V45" s="2">
+        <v>30</v>
+      </c>
+      <c r="W45" s="2">
+        <v>125</v>
+      </c>
+      <c r="X45" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>215</v>
+      </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -4904,18 +4955,42 @@
         <v>96</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>10</v>
+      </c>
+      <c r="P47" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>8</v>
+      </c>
+      <c r="R47" s="2">
+        <v>12</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2">
+        <v>11</v>
+      </c>
+      <c r="U47" s="2">
+        <v>23</v>
+      </c>
+      <c r="V47" s="2">
+        <v>24</v>
+      </c>
+      <c r="W47" s="2">
+        <v>90</v>
+      </c>
+      <c r="X47" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -4947,18 +5022,42 @@
         <v>96</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
+      <c r="N48" s="2">
+        <v>2</v>
+      </c>
+      <c r="O48" s="2">
+        <v>10</v>
+      </c>
+      <c r="P48" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>14</v>
+      </c>
+      <c r="R48" s="2">
+        <v>26</v>
+      </c>
+      <c r="S48" s="2">
+        <v>5</v>
+      </c>
+      <c r="T48" s="2">
+        <v>18</v>
+      </c>
+      <c r="U48" s="2">
+        <v>37</v>
+      </c>
+      <c r="V48" s="2">
+        <v>49</v>
+      </c>
+      <c r="W48" s="2">
+        <v>170</v>
+      </c>
+      <c r="X48" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>380</v>
+      </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="206">
   <si>
     <t>Tên FB</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>01667286108</t>
+  </si>
+  <si>
+    <t>Phước Quang</t>
   </si>
 </sst>
 </file>
@@ -951,6 +954,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,9 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1257,8 +1260,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,9 +2674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,30 +2740,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="42" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="43" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2815,11 +2818,11 @@
       <c r="T2" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3469,40 +3472,40 @@
         <v>21</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="45">
+      <c r="N17" s="42">
         <v>4</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="42">
         <v>12</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="42">
         <v>12</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="42">
         <v>11</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="42">
         <v>20</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="42">
         <v>2</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="42">
         <v>16</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="42">
         <v>39</v>
       </c>
-      <c r="V17" s="45">
+      <c r="V17" s="42">
         <v>38</v>
       </c>
-      <c r="W17" s="45">
+      <c r="W17" s="42">
         <v>180</v>
       </c>
-      <c r="X17" s="45">
+      <c r="X17" s="42">
         <v>140</v>
       </c>
-      <c r="Y17" s="45">
+      <c r="Y17" s="42">
         <v>320</v>
       </c>
     </row>
@@ -3540,40 +3543,40 @@
         <v>21</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="45">
+      <c r="N18" s="42">
         <v>0</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="42">
         <v>14</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="42">
         <v>8</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="42">
         <v>7</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="42">
         <v>15</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="42">
         <v>5</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="42">
         <v>19</v>
       </c>
-      <c r="U18" s="45">
+      <c r="U18" s="42">
         <v>29</v>
       </c>
-      <c r="V18" s="45">
+      <c r="V18" s="42">
         <v>39</v>
       </c>
-      <c r="W18" s="45">
+      <c r="W18" s="42">
         <v>125</v>
       </c>
-      <c r="X18" s="45">
+      <c r="X18" s="42">
         <v>145</v>
       </c>
-      <c r="Y18" s="45">
+      <c r="Y18" s="42">
         <v>270</v>
       </c>
     </row>
@@ -3613,18 +3616,18 @@
       <c r="M19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3656,40 +3659,40 @@
         <v>21</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="45">
+      <c r="N20" s="42">
         <v>0</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="42">
         <v>6</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="42">
         <v>3</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="42">
         <v>7</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="42">
         <v>14</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="42">
         <v>3</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="42">
         <v>10</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="42">
         <v>16</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="42">
         <v>27</v>
       </c>
-      <c r="W20" s="45">
+      <c r="W20" s="42">
         <v>55</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X20" s="42">
         <v>70</v>
       </c>
-      <c r="Y20" s="45">
+      <c r="Y20" s="42">
         <v>125</v>
       </c>
     </row>
@@ -3723,40 +3726,40 @@
         <v>21</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="45">
+      <c r="N21" s="42">
         <v>2</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="42">
         <v>6</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="42">
         <v>12</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="42">
         <v>7</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="42">
         <v>11</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="42">
         <v>6</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="42">
         <v>9</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="42">
         <v>27</v>
       </c>
-      <c r="V21" s="45">
-        <v>26</v>
-      </c>
-      <c r="W21" s="45">
+      <c r="V21" s="42">
+        <v>26</v>
+      </c>
+      <c r="W21" s="42">
         <v>115</v>
       </c>
-      <c r="X21" s="45">
+      <c r="X21" s="42">
         <v>65</v>
       </c>
-      <c r="Y21" s="45">
+      <c r="Y21" s="42">
         <v>180</v>
       </c>
     </row>
@@ -5060,18 +5063,34 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="3"/>
+      <c r="I49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="15">
+        <v>43009</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="206">
   <si>
     <t>Tên FB</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>01643794391</t>
-  </si>
-  <si>
-    <t>Pre-Toeic</t>
   </si>
   <si>
     <t>Đức Lê</t>
@@ -648,6 +645,9 @@
   </si>
   <si>
     <t>Phước Quang</t>
+  </si>
+  <si>
+    <t>Phạm Thị Quỳnh Như</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K2" s="14">
         <v>42944</v>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K3" s="15">
         <v>42947</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="15">
         <v>42947</v>
@@ -1448,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="15">
         <v>42947</v>
@@ -1483,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K6" s="15">
         <v>42947</v>
@@ -1520,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="15">
         <v>42947</v>
@@ -1553,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" s="30">
         <v>42947</v>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="15">
         <v>42938</v>
@@ -1623,7 +1623,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="30">
         <v>42949</v>
@@ -1654,7 +1654,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="30">
         <v>42949</v>
@@ -1683,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="30">
         <v>42951</v>
@@ -1714,7 +1714,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="30">
         <v>42952</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="15">
         <v>42952</v>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" s="15">
         <v>42954</v>
@@ -1819,7 +1819,7 @@
         <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16" s="15">
         <v>42954</v>
@@ -1852,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K17" s="30">
         <v>42955</v>
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" s="30">
         <v>42955</v>
@@ -1920,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K19" s="15">
         <v>42955</v>
@@ -1951,7 +1951,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K20" s="30">
         <v>42956</v>
@@ -1986,7 +1986,7 @@
         <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" s="15">
         <v>42956</v>
@@ -2021,7 +2021,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K22" s="15">
         <v>42956</v>
@@ -2052,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K23" s="30">
         <v>42956</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K24" s="22">
         <v>42957</v>
@@ -2124,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K25" s="15">
         <v>42959</v>
@@ -2155,7 +2155,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K26" s="30">
         <v>42959</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K27" s="15">
         <v>42959</v>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K28" s="15">
         <v>42959</v>
@@ -2262,7 +2262,7 @@
         <v>29</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" s="15">
         <v>42959</v>
@@ -2293,7 +2293,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="30">
         <v>42959</v>
@@ -2328,7 +2328,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="15">
         <v>42959</v>
@@ -2359,7 +2359,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K32" s="30">
         <v>42960</v>
@@ -2392,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K33" s="30">
         <v>42960</v>
@@ -2423,7 +2423,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K34" s="30">
         <v>42960</v>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K35" s="15">
         <v>42961</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K36" s="15">
         <v>42962</v>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K37" s="15">
         <v>42962</v>
@@ -2559,7 +2559,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K38" s="15">
         <v>42968</v>
@@ -2592,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K39" s="22">
         <v>42968</v>
@@ -2623,7 +2623,7 @@
         <v>93</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K40" s="15">
         <v>42969</v>
@@ -2675,8 +2675,8 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,30 +2741,30 @@
         <v>16</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="W1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="X1" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="Y1" s="43" t="s">
         <v>144</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2798,25 +2798,25 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="P2" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R2" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="40" t="s">
         <v>151</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>152</v>
       </c>
       <c r="U2" s="43"/>
       <c r="V2" s="43"/>
@@ -3038,7 +3038,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
@@ -3051,9 +3051,11 @@
         <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
@@ -3316,7 +3318,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -3324,7 +3326,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
@@ -3359,13 +3361,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3398,14 +3400,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -3414,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="15">
         <v>42996</v>
@@ -3441,17 +3443,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
@@ -3463,7 +3465,7 @@
         <v>116</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" s="15">
         <v>42997</v>
@@ -3514,14 +3516,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
@@ -3534,7 +3536,7 @@
         <v>116</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="15">
         <v>42997</v>
@@ -3585,18 +3587,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>25</v>
@@ -3605,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="15">
         <v>42997</v>
@@ -3614,7 +3616,7 @@
         <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -3634,14 +3636,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -3650,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K20" s="15">
         <v>42999</v>
@@ -3701,14 +3703,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -3717,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K21" s="15">
         <v>42999</v>
@@ -3768,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
@@ -3776,7 +3778,7 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3784,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K22" s="15">
         <v>43002</v>
@@ -3811,7 +3813,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
@@ -3819,10 +3821,10 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>25</v>
@@ -3831,7 +3833,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K23" s="15">
         <v>43002</v>
@@ -3858,7 +3860,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
@@ -3866,7 +3868,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3874,7 +3876,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" s="15">
         <v>43004</v>
@@ -3901,27 +3903,27 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K25" s="15">
         <v>43004</v>
@@ -3948,7 +3950,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
@@ -3956,7 +3958,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3964,7 +3966,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K26" s="15">
         <v>43005</v>
@@ -3991,20 +3993,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>25</v>
@@ -4013,7 +4015,7 @@
         <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K27" s="15">
         <v>43005</v>
@@ -4040,25 +4042,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="15">
         <v>43006</v>
@@ -4085,25 +4087,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K29" s="15">
         <v>43006</v>
@@ -4130,25 +4132,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K30" s="15">
         <v>43006</v>
@@ -4175,17 +4177,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>5</v>
@@ -4197,7 +4199,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K31" s="15">
         <v>43006</v>
@@ -4224,7 +4226,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
@@ -4232,7 +4234,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -4240,7 +4242,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" s="15">
         <v>42998</v>
@@ -4267,7 +4269,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
@@ -4275,7 +4277,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4283,7 +4285,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="15">
         <v>43003</v>
@@ -4310,7 +4312,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
@@ -4318,7 +4320,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -4326,7 +4328,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="15">
         <v>43004</v>
@@ -4353,7 +4355,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
@@ -4361,7 +4363,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -4369,7 +4371,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="15">
         <v>43005</v>
@@ -4396,20 +4398,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>25</v>
@@ -4418,7 +4420,7 @@
         <v>29</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" s="15">
         <v>43006</v>
@@ -4469,13 +4471,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4483,7 +4485,7 @@
         <v>29</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" s="15">
         <v>43007</v>
@@ -4510,7 +4512,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
@@ -4518,7 +4520,7 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4526,7 +4528,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K38" s="15">
         <v>43007</v>
@@ -4553,14 +4555,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
@@ -4569,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K39" s="15">
         <v>43007</v>
@@ -4596,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
@@ -4604,7 +4606,7 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4612,7 +4614,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K40" s="15">
         <v>43008</v>
@@ -4639,7 +4641,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
@@ -4647,7 +4649,7 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -4655,7 +4657,7 @@
         <v>29</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K41" s="15">
         <v>43008</v>
@@ -4682,18 +4684,18 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>25</v>
@@ -4702,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" s="15">
         <v>43008</v>
@@ -4729,7 +4731,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
@@ -4737,7 +4739,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -4745,7 +4747,7 @@
         <v>29</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K43" s="15">
         <v>43008</v>
@@ -4772,14 +4774,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
@@ -4788,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K44" s="15">
         <v>43008</v>
@@ -4815,18 +4817,18 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>25</v>
@@ -4835,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K45" s="15">
         <v>43008</v>
@@ -4886,18 +4888,18 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>25</v>
@@ -4906,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K46" s="15">
         <v>43008</v>
@@ -4933,14 +4935,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
@@ -4949,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K47" s="15">
         <v>43008</v>
@@ -5000,14 +5002,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
@@ -5016,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K48" s="15">
         <v>43008</v>
@@ -5067,7 +5069,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
@@ -5075,7 +5077,7 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -5083,7 +5085,7 @@
         <v>29</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" s="15">
         <v>43009</v>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="208">
   <si>
     <t>Tên FB</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t>Phạm Thị Quỳnh Như</t>
+  </si>
+  <si>
+    <t>Uyên Nhi</t>
+  </si>
+  <si>
+    <t>Thanh Hằng</t>
   </si>
 </sst>
 </file>
@@ -2675,8 +2681,8 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,7 +3924,9 @@
       <c r="G25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3932,18 +3940,42 @@
         <v>96</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>12</v>
+      </c>
+      <c r="P25" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>9</v>
+      </c>
+      <c r="R25" s="2">
+        <v>15</v>
+      </c>
+      <c r="S25" s="2">
+        <v>3</v>
+      </c>
+      <c r="T25" s="2">
+        <v>12</v>
+      </c>
+      <c r="U25" s="2">
+        <v>31</v>
+      </c>
+      <c r="V25" s="2">
+        <v>30</v>
+      </c>
+      <c r="W25" s="2">
+        <v>135</v>
+      </c>
+      <c r="X25" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>225</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -5108,18 +5140,34 @@
       <c r="Y49" s="2"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="3"/>
+      <c r="I50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" s="15">
+        <v>43011</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -5135,18 +5183,34 @@
       <c r="Y50" s="2"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="3"/>
+      <c r="I51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" s="15">
+        <v>43011</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="210">
   <si>
     <t>Tên FB</t>
   </si>
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>Thanh Hằng</t>
+  </si>
+  <si>
+    <t>Thủy Phương</t>
+  </si>
+  <si>
+    <t>Phương Thủy</t>
   </si>
 </sst>
 </file>
@@ -2681,8 +2687,8 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,17 +5232,31 @@
       <c r="Y51" s="2"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="15"/>
+      <c r="I52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" s="15">
+        <v>43012</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="214">
   <si>
     <t>Tên FB</t>
   </si>
@@ -660,6 +660,18 @@
   </si>
   <si>
     <t>Phương Thủy</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Nga Lê</t>
+  </si>
+  <si>
+    <t>Hồ Trần Hoài Nhi</t>
+  </si>
+  <si>
+    <t>Nim</t>
   </si>
 </sst>
 </file>
@@ -2684,11 +2696,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,8 +2904,12 @@
         <v>101</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>102</v>
       </c>
@@ -5257,7 +5273,9 @@
       <c r="K52" s="15">
         <v>43012</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -5273,18 +5291,34 @@
       <c r="Y52" s="2"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="3"/>
+      <c r="I53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" s="15">
+        <v>43012</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -5298,6 +5332,173 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K54" s="15">
+        <v>43013</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="15">
+        <v>43014</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="215">
   <si>
     <t>Tên FB</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>Trần Thị Ngọc Anh</t>
-  </si>
-  <si>
-    <t>0935 218 270</t>
   </si>
   <si>
     <t>Tư Vấn Trực Tiếp</t>
@@ -672,6 +669,12 @@
   </si>
   <si>
     <t>Nim</t>
+  </si>
+  <si>
+    <t>0935218270</t>
+  </si>
+  <si>
+    <t>Vũ Thị Thanh Hiền</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="14">
         <v>42944</v>
@@ -1404,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="15">
         <v>42947</v>
@@ -1437,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="15">
         <v>42947</v>
@@ -1472,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K5" s="15">
         <v>42947</v>
@@ -1507,7 +1510,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="15">
         <v>42947</v>
@@ -1544,7 +1547,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="15">
         <v>42947</v>
@@ -1577,7 +1580,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="30">
         <v>42947</v>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="15">
         <v>42938</v>
@@ -1647,7 +1650,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="30">
         <v>42949</v>
@@ -1678,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K11" s="30">
         <v>42949</v>
@@ -1707,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12" s="30">
         <v>42951</v>
@@ -1738,7 +1741,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K13" s="30">
         <v>42952</v>
@@ -1773,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="15">
         <v>42952</v>
@@ -1808,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K15" s="15">
         <v>42954</v>
@@ -1843,7 +1846,7 @@
         <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K16" s="15">
         <v>42954</v>
@@ -1876,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" s="30">
         <v>42955</v>
@@ -1909,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="30">
         <v>42955</v>
@@ -1944,7 +1947,7 @@
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" s="15">
         <v>42955</v>
@@ -1975,7 +1978,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K20" s="30">
         <v>42956</v>
@@ -2010,7 +2013,7 @@
         <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="15">
         <v>42956</v>
@@ -2045,7 +2048,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K22" s="15">
         <v>42956</v>
@@ -2076,7 +2079,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23" s="30">
         <v>42956</v>
@@ -2111,7 +2114,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24" s="22">
         <v>42957</v>
@@ -2148,7 +2151,7 @@
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K25" s="15">
         <v>42959</v>
@@ -2179,7 +2182,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K26" s="30">
         <v>42959</v>
@@ -2214,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K27" s="15">
         <v>42959</v>
@@ -2249,7 +2252,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K28" s="15">
         <v>42959</v>
@@ -2286,7 +2289,7 @@
         <v>29</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K29" s="15">
         <v>42959</v>
@@ -2317,7 +2320,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K30" s="30">
         <v>42959</v>
@@ -2352,7 +2355,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K31" s="15">
         <v>42959</v>
@@ -2383,7 +2386,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32" s="30">
         <v>42960</v>
@@ -2416,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="30">
         <v>42960</v>
@@ -2447,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K34" s="30">
         <v>42960</v>
@@ -2482,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K35" s="15">
         <v>42961</v>
@@ -2515,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K36" s="15">
         <v>42962</v>
@@ -2548,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K37" s="15">
         <v>42962</v>
@@ -2583,7 +2586,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K38" s="15">
         <v>42968</v>
@@ -2616,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K39" s="22">
         <v>42968</v>
@@ -2647,7 +2650,7 @@
         <v>93</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K40" s="15">
         <v>42969</v>
@@ -2698,9 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,30 +2767,30 @@
         <v>16</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="W1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="X1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="Y1" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2822,25 +2824,25 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="P2" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R2" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>151</v>
       </c>
       <c r="U2" s="43"/>
       <c r="V2" s="43"/>
@@ -2901,7 +2903,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -2911,7 +2913,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="15">
@@ -2939,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
@@ -2947,12 +2949,12 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="15">
@@ -2980,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="27" t="s">
@@ -2988,7 +2990,7 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -3021,14 +3023,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
@@ -3066,17 +3068,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>20</v>
@@ -3137,17 +3139,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
@@ -3156,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="15">
@@ -3184,13 +3186,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="8"/>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3264,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
@@ -3272,14 +3274,14 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="15">
@@ -3307,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -3318,7 +3320,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="15">
@@ -3346,7 +3348,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -3354,7 +3356,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
@@ -3389,13 +3391,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
       <c r="F15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3428,14 +3430,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -3444,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K16" s="15">
         <v>42996</v>
@@ -3471,17 +3473,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
@@ -3490,10 +3492,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="15">
         <v>42997</v>
@@ -3544,14 +3546,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
@@ -3561,10 +3563,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="15">
         <v>42997</v>
@@ -3615,18 +3617,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>25</v>
@@ -3635,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K19" s="15">
         <v>42997</v>
@@ -3644,7 +3646,7 @@
         <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -3664,14 +3666,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -3680,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" s="15">
         <v>42999</v>
@@ -3731,14 +3733,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -3747,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21" s="15">
         <v>42999</v>
@@ -3798,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
@@ -3806,7 +3808,7 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3814,7 +3816,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="15">
         <v>43002</v>
@@ -3841,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
@@ -3849,10 +3851,10 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>25</v>
@@ -3861,7 +3863,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="15">
         <v>43002</v>
@@ -3888,7 +3890,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
@@ -3896,7 +3898,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3904,7 +3906,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="15">
         <v>43004</v>
@@ -3931,20 +3933,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>25</v>
@@ -3953,7 +3955,7 @@
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="15">
         <v>43004</v>
@@ -4004,7 +4006,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
@@ -4012,7 +4014,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -4020,7 +4022,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K26" s="15">
         <v>43005</v>
@@ -4047,20 +4049,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>25</v>
@@ -4069,7 +4071,7 @@
         <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" s="15">
         <v>43005</v>
@@ -4096,25 +4098,27 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="15">
         <v>43006</v>
@@ -4141,25 +4145,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="15">
         <v>43006</v>
@@ -4186,25 +4192,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K30" s="15">
         <v>43006</v>
@@ -4231,17 +4237,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>5</v>
@@ -4253,7 +4259,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K31" s="15">
         <v>43006</v>
@@ -4280,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
@@ -4288,7 +4294,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -4296,7 +4302,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" s="15">
         <v>42998</v>
@@ -4323,7 +4329,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
@@ -4331,7 +4337,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4339,7 +4345,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" s="15">
         <v>43003</v>
@@ -4366,7 +4372,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
@@ -4374,7 +4380,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -4382,7 +4388,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K34" s="15">
         <v>43004</v>
@@ -4409,7 +4415,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
@@ -4417,7 +4423,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -4425,7 +4431,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" s="15">
         <v>43005</v>
@@ -4452,20 +4458,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>25</v>
@@ -4474,7 +4480,7 @@
         <v>29</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" s="15">
         <v>43006</v>
@@ -4525,13 +4531,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4539,7 +4545,7 @@
         <v>29</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" s="15">
         <v>43007</v>
@@ -4566,7 +4572,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
@@ -4574,7 +4580,7 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4582,7 +4588,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38" s="15">
         <v>43007</v>
@@ -4609,14 +4615,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
@@ -4625,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K39" s="15">
         <v>43007</v>
@@ -4652,7 +4658,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
@@ -4660,7 +4666,7 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4668,7 +4674,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K40" s="15">
         <v>43008</v>
@@ -4695,7 +4701,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
@@ -4703,7 +4709,7 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -4711,7 +4717,7 @@
         <v>29</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K41" s="15">
         <v>43008</v>
@@ -4738,18 +4744,18 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>25</v>
@@ -4758,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K42" s="15">
         <v>43008</v>
@@ -4785,7 +4791,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
@@ -4793,7 +4799,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -4801,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="15">
         <v>43008</v>
@@ -4828,14 +4834,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
@@ -4844,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K44" s="15">
         <v>43008</v>
@@ -4871,18 +4877,18 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>25</v>
@@ -4891,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K45" s="15">
         <v>43008</v>
@@ -4942,18 +4948,18 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>25</v>
@@ -4962,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K46" s="15">
         <v>43008</v>
@@ -4989,14 +4995,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
@@ -5005,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K47" s="15">
         <v>43008</v>
@@ -5056,14 +5062,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
@@ -5072,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K48" s="15">
         <v>43008</v>
@@ -5123,7 +5129,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
@@ -5131,7 +5137,7 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -5139,7 +5145,7 @@
         <v>29</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K49" s="15">
         <v>43009</v>
@@ -5166,7 +5172,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
@@ -5174,7 +5180,7 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -5182,7 +5188,7 @@
         <v>29</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K50" s="15">
         <v>43011</v>
@@ -5209,7 +5215,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
@@ -5217,7 +5223,7 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -5225,7 +5231,7 @@
         <v>29</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K51" s="15">
         <v>43011</v>
@@ -5252,7 +5258,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
@@ -5260,7 +5266,7 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -5268,7 +5274,7 @@
         <v>29</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K52" s="15">
         <v>43012</v>
@@ -5295,7 +5301,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
@@ -5303,7 +5309,7 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -5311,7 +5317,7 @@
         <v>29</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K53" s="15">
         <v>43012</v>
@@ -5338,7 +5344,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3" t="s">
@@ -5346,7 +5352,7 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5354,7 +5360,7 @@
         <v>29</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K54" s="15">
         <v>43013</v>
@@ -5381,7 +5387,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="s">
@@ -5389,7 +5395,7 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -5397,7 +5403,7 @@
         <v>29</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K55" s="15">
         <v>43014</v>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\share\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="215">
   <si>
     <t>Tên FB</t>
   </si>
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5311,8 +5311,12 @@
       <c r="F53" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I53" s="2" t="s">
         <v>29</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="218">
   <si>
     <t>Tên FB</t>
   </si>
@@ -675,6 +675,15 @@
   </si>
   <si>
     <t>Vũ Thị Thanh Hiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo Ngọc </t>
+  </si>
+  <si>
+    <t>Hồng Niệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hậu </t>
   </si>
 </sst>
 </file>
@@ -2699,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,7 +4634,9 @@
         <v>178</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="2" t="s">
         <v>1</v>
@@ -4658,29 +4669,29 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K40" s="15">
-        <v>43008</v>
+        <v>43007</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4701,29 +4712,29 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="15">
-        <v>43008</v>
+        <v>43007</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4744,24 +4755,20 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>125</v>
@@ -4791,15 +4798,15 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -4813,7 +4820,7 @@
         <v>43008</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -4834,18 +4841,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I44" s="2" t="s">
         <v>1</v>
       </c>
@@ -4877,24 +4888,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>125</v>
@@ -4906,64 +4913,36 @@
         <v>96</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2">
-        <v>4</v>
-      </c>
-      <c r="O45" s="2">
-        <v>9</v>
-      </c>
-      <c r="P45" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>7</v>
-      </c>
-      <c r="R45" s="2">
-        <v>21</v>
-      </c>
-      <c r="S45" s="2">
-        <v>4</v>
-      </c>
-      <c r="T45" s="2">
-        <v>5</v>
-      </c>
-      <c r="U45" s="2">
-        <v>29</v>
-      </c>
-      <c r="V45" s="2">
-        <v>30</v>
-      </c>
-      <c r="W45" s="2">
-        <v>125</v>
-      </c>
-      <c r="X45" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>215</v>
-      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="2" t="s">
         <v>1</v>
       </c>
@@ -4995,18 +4974,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I47" s="2" t="s">
         <v>1</v>
       </c>
@@ -5021,59 +5004,63 @@
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O47" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P47" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>7</v>
+      </c>
+      <c r="R47" s="2">
+        <v>21</v>
+      </c>
+      <c r="S47" s="2">
+        <v>4</v>
+      </c>
+      <c r="T47" s="2">
         <v>5</v>
       </c>
-      <c r="Q47" s="2">
-        <v>8</v>
-      </c>
-      <c r="R47" s="2">
-        <v>12</v>
-      </c>
-      <c r="S47" s="2">
-        <v>1</v>
-      </c>
-      <c r="T47" s="2">
-        <v>11</v>
-      </c>
       <c r="U47" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V47" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="W47" s="2">
+        <v>125</v>
+      </c>
+      <c r="X47" s="2">
         <v>90</v>
       </c>
-      <c r="X47" s="2">
-        <v>50</v>
-      </c>
       <c r="Y47" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="33" t="s">
-        <v>200</v>
+      <c r="E48" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I48" s="2" t="s">
         <v>1</v>
       </c>
@@ -5087,143 +5074,167 @@
         <v>96</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2">
-        <v>2</v>
-      </c>
-      <c r="O48" s="2">
-        <v>10</v>
-      </c>
-      <c r="P48" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>14</v>
-      </c>
-      <c r="R48" s="2">
-        <v>26</v>
-      </c>
-      <c r="S48" s="2">
-        <v>5</v>
-      </c>
-      <c r="T48" s="2">
-        <v>18</v>
-      </c>
-      <c r="U48" s="2">
-        <v>37</v>
-      </c>
-      <c r="V48" s="2">
-        <v>49</v>
-      </c>
-      <c r="W48" s="2">
-        <v>170</v>
-      </c>
-      <c r="X48" s="2">
-        <v>210</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>380</v>
-      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K49" s="15">
-        <v>43009</v>
+        <v>43008</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>10</v>
+      </c>
+      <c r="P49" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>8</v>
+      </c>
+      <c r="R49" s="2">
+        <v>12</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1</v>
+      </c>
+      <c r="T49" s="2">
+        <v>11</v>
+      </c>
+      <c r="U49" s="2">
+        <v>23</v>
+      </c>
+      <c r="V49" s="2">
+        <v>24</v>
+      </c>
+      <c r="W49" s="2">
+        <v>90</v>
+      </c>
+      <c r="X49" s="2">
+        <v>50</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="E50" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K50" s="15">
-        <v>43011</v>
+        <v>43008</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
+      <c r="N50" s="2">
+        <v>2</v>
+      </c>
+      <c r="O50" s="2">
+        <v>10</v>
+      </c>
+      <c r="P50" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>14</v>
+      </c>
+      <c r="R50" s="2">
+        <v>26</v>
+      </c>
+      <c r="S50" s="2">
+        <v>5</v>
+      </c>
+      <c r="T50" s="2">
+        <v>18</v>
+      </c>
+      <c r="U50" s="2">
+        <v>37</v>
+      </c>
+      <c r="V50" s="2">
+        <v>49</v>
+      </c>
+      <c r="W50" s="2">
+        <v>170</v>
+      </c>
+      <c r="X50" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>380</v>
+      </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -5234,7 +5245,7 @@
         <v>125</v>
       </c>
       <c r="K51" s="15">
-        <v>43011</v>
+        <v>43009</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>21</v>
@@ -5258,7 +5269,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
@@ -5266,7 +5277,7 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -5277,10 +5288,10 @@
         <v>125</v>
       </c>
       <c r="K52" s="15">
-        <v>43012</v>
+        <v>43011</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -5301,7 +5312,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
@@ -5309,14 +5320,10 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="2" t="s">
         <v>29</v>
       </c>
@@ -5324,10 +5331,10 @@
         <v>125</v>
       </c>
       <c r="K53" s="15">
-        <v>43012</v>
+        <v>43011</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -5348,7 +5355,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3" t="s">
@@ -5356,7 +5363,7 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5367,10 +5374,10 @@
         <v>125</v>
       </c>
       <c r="K54" s="15">
-        <v>43013</v>
+        <v>43012</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -5391,7 +5398,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="s">
@@ -5399,10 +5406,14 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I55" s="2" t="s">
         <v>29</v>
       </c>
@@ -5410,10 +5421,10 @@
         <v>125</v>
       </c>
       <c r="K55" s="15">
-        <v>43014</v>
+        <v>43012</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -5430,18 +5441,34 @@
       <c r="Y55" s="2"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="3"/>
+      <c r="I56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="15">
+        <v>43013</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -5457,18 +5484,34 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="3"/>
+      <c r="I57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="15">
+        <v>43014</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -5510,6 +5553,60 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <mergeCells count="7">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="221">
   <si>
     <t>Tên FB</t>
   </si>
@@ -684,6 +684,15 @@
   </si>
   <si>
     <t xml:space="preserve">Hậu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na </t>
+  </si>
+  <si>
+    <t>Na Lê</t>
+  </si>
+  <si>
+    <t>Trần Phương Lan</t>
   </si>
 </sst>
 </file>
@@ -2708,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,8 +4817,12 @@
       <c r="F43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I43" s="2" t="s">
         <v>29</v>
       </c>
@@ -5527,18 +5540,32 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="3"/>
+      <c r="I58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" s="15">
+        <v>43017</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -5554,18 +5581,34 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="3"/>
+      <c r="I59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="15">
+        <v>43018</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -5607,6 +5650,60 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <mergeCells count="7">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="222">
   <si>
     <t>Tên FB</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>Trần Phương Lan</t>
+  </si>
+  <si>
+    <t>Bảo Nhi</t>
   </si>
 </sst>
 </file>
@@ -2719,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,7 +4645,9 @@
       <c r="E39" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>157</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="222">
   <si>
     <t>Tên FB</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>Nguyễn Bảo Nhi</t>
-  </si>
-  <si>
-    <t>0916491600</t>
   </si>
   <si>
     <t>0909246801</t>
@@ -696,6 +693,10 @@
   </si>
   <si>
     <t>Bảo Nhi</t>
+  </si>
+  <si>
+    <t>0916491600
+0946062074</t>
   </si>
 </sst>
 </file>
@@ -2722,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2924,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -3089,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
@@ -3494,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
@@ -3954,14 +3955,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>91</v>
@@ -4070,14 +4071,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>156</v>
@@ -4258,14 +4259,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>166</v>
@@ -4479,14 +4480,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>171</v>
@@ -4631,7 +4632,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4642,11 +4643,11 @@
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>178</v>
+      <c r="E39" s="33" t="s">
+        <v>221</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>157</v>
@@ -4683,7 +4684,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
@@ -4705,7 +4706,7 @@
         <v>43007</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4726,7 +4727,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
@@ -4769,7 +4770,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
@@ -4777,7 +4778,7 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -4812,7 +4813,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
@@ -4820,7 +4821,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>157</v>
@@ -4859,14 +4860,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3" t="s">
@@ -4906,7 +4907,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
@@ -4914,7 +4915,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -4949,14 +4950,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
@@ -4992,14 +4993,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3" t="s">
@@ -5063,14 +5064,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="3" t="s">
@@ -5110,18 +5111,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I49" s="2" t="s">
         <v>1</v>
       </c>
@@ -5177,18 +5182,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I50" s="2" t="s">
         <v>1</v>
       </c>
@@ -5244,7 +5253,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
@@ -5252,7 +5261,7 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -5287,7 +5296,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
@@ -5295,7 +5304,7 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -5330,7 +5339,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
@@ -5338,7 +5347,7 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -5373,7 +5382,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3" t="s">
@@ -5381,7 +5390,7 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5416,7 +5425,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="s">
@@ -5424,7 +5433,7 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>20</v>
@@ -5463,7 +5472,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
@@ -5471,7 +5480,7 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -5506,7 +5515,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="s">
@@ -5514,7 +5523,7 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5549,13 +5558,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="8"/>
       <c r="F58" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -5590,7 +5599,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="s">
@@ -5598,7 +5607,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="224">
   <si>
     <t>Tên FB</t>
   </si>
@@ -697,6 +697,12 @@
   <si>
     <t>0916491600
 0946062074</t>
+  </si>
+  <si>
+    <t>Ông Văn Huy</t>
+  </si>
+  <si>
+    <t>Huy Văn Ông</t>
   </si>
 </sst>
 </file>
@@ -2724,7 +2730,7 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,18 +5644,38 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="3"/>
+      <c r="F60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K60" s="15">
+        <v>43019</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="226">
   <si>
     <t>Tên FB</t>
   </si>
@@ -703,6 +703,12 @@
   </si>
   <si>
     <t>Huy Văn Ông</t>
+  </si>
+  <si>
+    <t>Hồ Xuân VĂn</t>
+  </si>
+  <si>
+    <t>0963311599</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2736,7 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5691,18 +5697,34 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="8"/>
+      <c r="D61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="3"/>
+      <c r="I61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K61" s="15">
+        <v>43020</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
@@ -705,10 +706,10 @@
     <t>Huy Văn Ông</t>
   </si>
   <si>
-    <t>Hồ Xuân VĂn</t>
-  </si>
-  <si>
     <t>0963311599</t>
+  </si>
+  <si>
+    <t>Hồ Xuân Văn</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -5701,14 +5702,14 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
@@ -5780,4 +5781,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Thống kê Tháng 10" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="239">
   <si>
     <t>Tên FB</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>Phuong Hoang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fb cá nhân </t>
   </si>
   <si>
     <t>Hồng</t>
@@ -710,13 +707,55 @@
   </si>
   <si>
     <t>Hồ Xuân Văn</t>
+  </si>
+  <si>
+    <t>Tư Vấn trực tiếp</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kênh tư vấn </t>
+  </si>
+  <si>
+    <t>Tỉ lệ %</t>
+  </si>
+  <si>
+    <t>Tỉ lệ (%)</t>
+  </si>
+  <si>
+    <t>Đăng ký học</t>
+  </si>
+  <si>
+    <t>Toeic 300 - 500</t>
+  </si>
+  <si>
+    <t>Toeic 500 - 700</t>
+  </si>
+  <si>
+    <t>Tổng đăng ký</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>Khóa đăng ký</t>
+  </si>
+  <si>
+    <t>SAU KHI CHẠY CHƯƠNG TRÌNH</t>
+  </si>
+  <si>
+    <t>TRƯỚC KHI CHẠY CHƯƠNG TRÌNH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +820,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,8 +921,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -901,6 +983,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -915,7 +1021,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1028,6 +1134,27 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1053,6 +1180,6473 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kênh tư vấn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37926561160053013"/>
+          <c:y val="5.1371871675491572E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$B$29:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư Vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$C$29:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$B$29:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư Vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$D$29:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36.95652173913043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3478260869565215</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632417568"/>
+        <c:axId val="1632415936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632417568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632415936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632415936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632417568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Đăng ký học</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$I$29:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$J$29:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1588840032"/>
+        <c:axId val="1588841120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1588840032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588841120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1588841120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588840032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Khóa đăng ký</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$O$29:$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Toeic 300 - 500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toeic 500 - 700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tổng đăng ký</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$P$29:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$O$29:$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Toeic 300 - 500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toeic 500 - 700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tổng đăng ký</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$Q$29:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>72.222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1633489616"/>
+        <c:axId val="1633491248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633489616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633491248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633491248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633489616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kênh</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> tư vấn</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$B$5:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư Vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$B$5:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư Vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1633494512"/>
+        <c:axId val="1633496144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633494512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633496144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633496144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633494512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Đăng ký học</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$H$5:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$H$5:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Tư vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tổng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$J$5:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1592957760"/>
+        <c:axId val="1592955040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1592957760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592955040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1592955040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592957760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Khóa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đăng ký</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$O$5:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Toeic 300 - 500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toeic 500 - 700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tổng đăng ký</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$P$5:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê Tháng 10'!$O$5:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Toeic 300 - 500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toeic 500 - 700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tổng đăng ký</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê Tháng 10'!$Q$5:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1633495600"/>
+        <c:axId val="1527760192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633495600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1527760192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1527760192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633495600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,7 +7916,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1409,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="14">
         <v>42944</v>
@@ -1442,7 +8036,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="15">
         <v>42947</v>
@@ -1475,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="15">
         <v>42947</v>
@@ -1510,7 +8104,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="15">
         <v>42947</v>
@@ -1545,7 +8139,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="15">
         <v>42947</v>
@@ -1582,7 +8176,7 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="15">
         <v>42947</v>
@@ -1615,7 +8209,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="30">
         <v>42947</v>
@@ -1652,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="15">
         <v>42938</v>
@@ -1685,7 +8279,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K10" s="30">
         <v>42949</v>
@@ -1716,7 +8310,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K11" s="30">
         <v>42949</v>
@@ -1745,7 +8339,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K12" s="30">
         <v>42951</v>
@@ -1776,7 +8370,7 @@
         <v>29</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K13" s="30">
         <v>42952</v>
@@ -1811,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="15">
         <v>42952</v>
@@ -1846,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" s="15">
         <v>42954</v>
@@ -1881,7 +8475,7 @@
         <v>29</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K16" s="15">
         <v>42954</v>
@@ -1914,7 +8508,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" s="30">
         <v>42955</v>
@@ -1947,7 +8541,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K18" s="30">
         <v>42955</v>
@@ -1982,7 +8576,7 @@
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" s="15">
         <v>42955</v>
@@ -2013,7 +8607,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20" s="30">
         <v>42956</v>
@@ -2048,7 +8642,7 @@
         <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K21" s="15">
         <v>42956</v>
@@ -2083,7 +8677,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22" s="15">
         <v>42956</v>
@@ -2114,7 +8708,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" s="30">
         <v>42956</v>
@@ -2149,7 +8743,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K24" s="22">
         <v>42957</v>
@@ -2186,7 +8780,7 @@
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K25" s="15">
         <v>42959</v>
@@ -2217,7 +8811,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" s="30">
         <v>42959</v>
@@ -2252,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K27" s="15">
         <v>42959</v>
@@ -2287,7 +8881,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K28" s="15">
         <v>42959</v>
@@ -2324,7 +8918,7 @@
         <v>29</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="15">
         <v>42959</v>
@@ -2355,7 +8949,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K30" s="30">
         <v>42959</v>
@@ -2390,7 +8984,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K31" s="15">
         <v>42959</v>
@@ -2421,7 +9015,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K32" s="30">
         <v>42960</v>
@@ -2454,7 +9048,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K33" s="30">
         <v>42960</v>
@@ -2485,7 +9079,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K34" s="30">
         <v>42960</v>
@@ -2520,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" s="15">
         <v>42961</v>
@@ -2553,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K36" s="15">
         <v>42962</v>
@@ -2586,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K37" s="15">
         <v>42962</v>
@@ -2621,7 +9215,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K38" s="15">
         <v>42968</v>
@@ -2654,7 +9248,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K39" s="22">
         <v>42968</v>
@@ -2685,7 +9279,7 @@
         <v>93</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" s="15">
         <v>42969</v>
@@ -2736,8 +9330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,30 +9396,30 @@
         <v>16</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="W1" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="X1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="Y1" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2859,25 +9453,25 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="P2" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="T2" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>150</v>
       </c>
       <c r="U2" s="43"/>
       <c r="V2" s="43"/>
@@ -2938,11 +9532,11 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>25</v>
@@ -2989,7 +9583,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="15">
@@ -3017,7 +9611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="27" t="s">
@@ -3025,7 +9619,7 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -3058,18 +9652,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>25</v>
@@ -3103,20 +9697,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>25</v>
@@ -3174,26 +9768,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="15">
@@ -3221,13 +9815,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="8"/>
       <c r="F10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3301,7 +9895,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
@@ -3309,14 +9903,14 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="15">
@@ -3344,18 +9938,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="8"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="15">
@@ -3383,7 +9977,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -3391,10 +9985,10 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
@@ -3426,13 +10020,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
       <c r="F15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3465,14 +10059,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -3481,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K16" s="15">
         <v>42996</v>
@@ -3508,29 +10102,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K17" s="15">
         <v>42997</v>
@@ -3581,27 +10175,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K18" s="15">
         <v>42997</v>
@@ -3652,18 +10246,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>25</v>
@@ -3672,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K19" s="15">
         <v>42997</v>
@@ -3681,7 +10275,7 @@
         <v>21</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -3701,14 +10295,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -3717,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="15">
         <v>42999</v>
@@ -3768,14 +10362,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -3784,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K21" s="15">
         <v>42999</v>
@@ -3835,7 +10429,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
@@ -3843,7 +10437,7 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3851,7 +10445,7 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K22" s="15">
         <v>43002</v>
@@ -3878,7 +10472,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
@@ -3886,10 +10480,10 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>25</v>
@@ -3898,7 +10492,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K23" s="15">
         <v>43002</v>
@@ -3925,7 +10519,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
@@ -3933,7 +10527,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3941,7 +10535,7 @@
         <v>29</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" s="15">
         <v>43004</v>
@@ -3968,20 +10562,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>25</v>
@@ -3990,7 +10584,7 @@
         <v>29</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K25" s="15">
         <v>43004</v>
@@ -4041,7 +10635,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
@@ -4049,7 +10643,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -4057,7 +10651,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K26" s="15">
         <v>43005</v>
@@ -4084,20 +10678,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>25</v>
@@ -4106,7 +10700,7 @@
         <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K27" s="15">
         <v>43005</v>
@@ -4133,18 +10727,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>25</v>
@@ -4153,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="15">
         <v>43006</v>
@@ -4180,18 +10774,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>25</v>
@@ -4200,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K29" s="15">
         <v>43006</v>
@@ -4227,25 +10821,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="15">
         <v>43006</v>
@@ -4272,20 +10866,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>25</v>
@@ -4294,7 +10888,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K31" s="15">
         <v>43006</v>
@@ -4321,7 +10915,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
@@ -4329,7 +10923,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -4337,7 +10931,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K32" s="15">
         <v>42998</v>
@@ -4364,7 +10958,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
@@ -4372,7 +10966,7 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4380,7 +10974,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K33" s="15">
         <v>43003</v>
@@ -4407,7 +11001,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
@@ -4415,7 +11009,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -4423,7 +11017,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K34" s="15">
         <v>43004</v>
@@ -4450,7 +11044,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
@@ -4458,7 +11052,7 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -4466,7 +11060,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" s="15">
         <v>43005</v>
@@ -4493,20 +11087,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>25</v>
@@ -4515,7 +11109,7 @@
         <v>29</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K36" s="15">
         <v>43006</v>
@@ -4566,13 +11160,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4580,7 +11174,7 @@
         <v>29</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K37" s="15">
         <v>43007</v>
@@ -4607,7 +11201,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
@@ -4615,7 +11209,7 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4623,7 +11217,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K38" s="15">
         <v>43007</v>
@@ -4650,27 +11244,27 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K39" s="15">
         <v>43007</v>
@@ -4697,7 +11291,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
@@ -4706,20 +11300,20 @@
       <c r="E40" s="8"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K40" s="15">
         <v>43007</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4740,7 +11334,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
@@ -4749,14 +11343,14 @@
       <c r="E41" s="8"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K41" s="15">
         <v>43007</v>
@@ -4783,7 +11377,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
@@ -4791,7 +11385,7 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -4799,7 +11393,7 @@
         <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" s="15">
         <v>43008</v>
@@ -4826,7 +11420,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
@@ -4834,10 +11428,10 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>25</v>
@@ -4846,7 +11440,7 @@
         <v>29</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K43" s="15">
         <v>43008</v>
@@ -4873,18 +11467,18 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>25</v>
@@ -4893,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K44" s="15">
         <v>43008</v>
@@ -4920,7 +11514,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
@@ -4928,7 +11522,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -4936,7 +11530,7 @@
         <v>29</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K45" s="15">
         <v>43008</v>
@@ -4963,14 +11557,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
@@ -4979,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K46" s="15">
         <v>43008</v>
@@ -5006,18 +11600,18 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>25</v>
@@ -5026,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K47" s="15">
         <v>43008</v>
@@ -5077,18 +11671,18 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>25</v>
@@ -5097,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K48" s="15">
         <v>43008</v>
@@ -5124,18 +11718,18 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>25</v>
@@ -5144,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K49" s="15">
         <v>43008</v>
@@ -5195,18 +11789,18 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>25</v>
@@ -5215,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K50" s="15">
         <v>43008</v>
@@ -5266,7 +11860,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
@@ -5274,7 +11868,7 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -5282,7 +11876,7 @@
         <v>29</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K51" s="15">
         <v>43009</v>
@@ -5309,7 +11903,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
@@ -5317,7 +11911,7 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -5325,7 +11919,7 @@
         <v>29</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K52" s="15">
         <v>43011</v>
@@ -5352,7 +11946,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
@@ -5360,7 +11954,7 @@
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -5368,7 +11962,7 @@
         <v>29</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K53" s="15">
         <v>43011</v>
@@ -5395,7 +11989,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3" t="s">
@@ -5403,7 +11997,7 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5411,7 +12005,7 @@
         <v>29</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K54" s="15">
         <v>43012</v>
@@ -5438,7 +12032,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3" t="s">
@@ -5446,10 +12040,10 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>25</v>
@@ -5458,7 +12052,7 @@
         <v>29</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K55" s="15">
         <v>43012</v>
@@ -5485,7 +12079,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
@@ -5493,7 +12087,7 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -5501,7 +12095,7 @@
         <v>29</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K56" s="15">
         <v>43013</v>
@@ -5528,7 +12122,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="s">
@@ -5536,7 +12130,7 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -5544,7 +12138,7 @@
         <v>29</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K57" s="15">
         <v>43014</v>
@@ -5571,13 +12165,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="8"/>
       <c r="F58" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -5585,7 +12179,7 @@
         <v>29</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K58" s="15">
         <v>43017</v>
@@ -5612,7 +12206,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="s">
@@ -5620,7 +12214,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -5628,7 +12222,7 @@
         <v>29</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K59" s="15">
         <v>43018</v>
@@ -5655,7 +12249,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3" t="s">
@@ -5663,10 +12257,10 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>25</v>
@@ -5675,7 +12269,7 @@
         <v>29</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K60" s="15">
         <v>43019</v>
@@ -5702,14 +12296,14 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
@@ -5718,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K61" s="15">
         <v>43020</v>
@@ -5785,17 +12379,432 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="H3" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="O3" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2">
+        <f>COUNTIFS('Tháng 10'!I2:I15,"Tư vấn trực tiếp")</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="46">
+        <f>C5/C8*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <f>COUNTIFS('Tháng 10'!I2:I15,"Tư Vấn trực tiếp",'Tháng 10'!H2:H15,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="46">
+        <f>I5/I8*100</f>
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="2">
+        <f>COUNTIFS('Tháng 10'!H2:H15,"X",'Tháng 10'!G2:G15,"300 - 500")</f>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="46">
+        <f>P5/P7*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <f>COUNTIFS('Tháng 10'!I2:I15,"FB fanpage")</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="46">
+        <f>C6/C8*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
+        <f>COUNTIFS('Tháng 10'!I2:I15,"FB fanpage",'Tháng 10'!H2:H15,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="46">
+        <f>I6/I8*100</f>
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P6" s="2">
+        <f>COUNTIFS('Tháng 10'!H2:H15,"X",'Tháng 10'!G2:G15,"500 - 700")</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="46">
+        <f>P6/P7*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <f>COUNTIFS('Tháng 10'!I2:I15,"Fb cá nhân")</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="46">
+        <f>C7/C8*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="2">
+        <f>COUNTIFS('Tháng 10'!I2:I15,"Fb cá nhân",'Tháng 10'!H2:H15,"X")</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="46">
+        <f>I7/I8*100</f>
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="2">
+        <f>SUM(P5:P6)</f>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>P7/P7*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C5:C7)</f>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8/C8*100</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(I5:I7)</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <f>I8/I8*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="H27" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="O27" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="2">
+        <f>COUNTIFS('Tháng 10'!I16:I62,"Tư vấn trực tiếp")</f>
+        <v>17</v>
+      </c>
+      <c r="D29" s="46">
+        <f>C29/C32*100</f>
+        <v>36.95652173913043</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <f>COUNTIFS('Tháng 10'!I16:I61,"Tư Vấn trực tiếp",'Tháng 10'!H16:H61,"X")</f>
+        <v>8</v>
+      </c>
+      <c r="J29" s="46">
+        <f>I29/I32*100</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P29" s="2">
+        <f>COUNTIFS('Tháng 10'!H16:H61,"X",'Tháng 10'!G16:G61,"300 - 500")</f>
+        <v>13</v>
+      </c>
+      <c r="Q29" s="46">
+        <f>P29/P31*100</f>
+        <v>72.222222222222214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2">
+        <f>COUNTIFS('Tháng 10'!I16:I61,"FB fanpage")</f>
+        <v>27</v>
+      </c>
+      <c r="D30" s="46">
+        <f>C30/C32*100</f>
+        <v>58.695652173913047</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2">
+        <f>COUNTIFS('Tháng 10'!I16:I61,"FB fanpage",'Tháng 10'!H16:H61,"X")</f>
+        <v>8</v>
+      </c>
+      <c r="J30" s="46">
+        <f>I30/I32*100</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P30" s="2">
+        <f>COUNTIFS('Tháng 10'!H16:H61,"X",'Tháng 10'!G16:G61,"500 - 700")</f>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="46">
+        <f>P30/P31*100</f>
+        <v>27.777777777777779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2">
+        <f>COUNTIFS('Tháng 10'!I16:I61,"Fb cá nhân")</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="46">
+        <f>C31/C32*100</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="2">
+        <f>COUNTIFS('Tháng 10'!I16:I61,"Fb cá nhân",'Tháng 10'!H16:H61,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="J31" s="46">
+        <f>I31/I32*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P31" s="2">
+        <f>SUM(P29:P30)</f>
+        <v>18</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>P31/P31*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="2">
+        <f>SUM(C29:C31)</f>
+        <v>46</v>
+      </c>
+      <c r="D32" s="2">
+        <f>C32/C32*100</f>
+        <v>100</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="2">
+        <f>SUM(I29:I31)</f>
+        <v>18</v>
+      </c>
+      <c r="J32" s="2">
+        <f>I32/I32*100</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A25:T25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -852,7 +852,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +930,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1039,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,6 +1143,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,25 +1155,31 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1282,7 +1309,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1407,7 +1434,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1527,11 +1554,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1632417568"/>
-        <c:axId val="1632415936"/>
+        <c:axId val="-676417456"/>
+        <c:axId val="-676423984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1632417568"/>
+        <c:axId val="-676417456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,7 +1601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632415936"/>
+        <c:crossAx val="-676423984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1582,7 +1609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1632415936"/>
+        <c:axId val="-676423984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632417568"/>
+        <c:crossAx val="-676417456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2052,11 +2079,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1588840032"/>
-        <c:axId val="1588841120"/>
+        <c:axId val="-676416368"/>
+        <c:axId val="-676415824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1588840032"/>
+        <c:axId val="-676416368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588841120"/>
+        <c:crossAx val="-676415824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,7 +2134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588841120"/>
+        <c:axId val="-676415824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588840032"/>
+        <c:crossAx val="-676416368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2565,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1633489616"/>
-        <c:axId val="1633491248"/>
+        <c:axId val="-676421808"/>
+        <c:axId val="-676413104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1633489616"/>
+        <c:axId val="-676421808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633491248"/>
+        <c:crossAx val="-676413104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2620,7 +2647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1633491248"/>
+        <c:axId val="-676413104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633489616"/>
+        <c:crossAx val="-676421808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2850,7 +2877,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2975,7 +3002,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3095,11 +3122,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1633494512"/>
-        <c:axId val="1633496144"/>
+        <c:axId val="-676419088"/>
+        <c:axId val="-676418000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1633494512"/>
+        <c:axId val="-676419088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633496144"/>
+        <c:crossAx val="-676418000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3150,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1633496144"/>
+        <c:axId val="-676418000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3201,7 +3228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633494512"/>
+        <c:crossAx val="-676419088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3620,11 +3647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1592957760"/>
-        <c:axId val="1592955040"/>
+        <c:axId val="-676414736"/>
+        <c:axId val="-676412560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1592957760"/>
+        <c:axId val="-676414736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3667,7 +3694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1592955040"/>
+        <c:crossAx val="-676412560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3675,7 +3702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1592955040"/>
+        <c:axId val="-676412560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +3753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1592957760"/>
+        <c:crossAx val="-676414736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4019,11 +4046,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1633495600"/>
-        <c:axId val="1527760192"/>
+        <c:axId val="-676551616"/>
+        <c:axId val="-485476192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1633495600"/>
+        <c:axId val="-676551616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4066,7 +4093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1527760192"/>
+        <c:crossAx val="-485476192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4074,7 +4101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1527760192"/>
+        <c:axId val="-485476192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +4152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633495600"/>
+        <c:crossAx val="-676551616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4207,13 +4234,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4327,13 +4351,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -9395,30 +9416,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="46" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9473,11 +9494,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -12381,8 +12402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12395,7 +12416,7 @@
     <col min="15" max="15" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
         <v>238</v>
       </c>
@@ -12425,11 +12446,11 @@
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
       <c r="O3" s="52" t="s">
         <v>236</v>
       </c>
@@ -12473,7 +12494,7 @@
         <f>COUNTIFS('Tháng 10'!I2:I15,"Tư vấn trực tiếp")</f>
         <v>4</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="43">
         <f>C5/C8*100</f>
         <v>28.571428571428569</v>
       </c>
@@ -12484,7 +12505,7 @@
         <f>COUNTIFS('Tháng 10'!I2:I15,"Tư Vấn trực tiếp",'Tháng 10'!H2:H15,"X")</f>
         <v>2</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="43">
         <f>I5/I8*100</f>
         <v>50</v>
       </c>
@@ -12495,7 +12516,7 @@
         <f>COUNTIFS('Tháng 10'!H2:H15,"X",'Tháng 10'!G2:G15,"300 - 500")</f>
         <v>3</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="43">
         <f>P5/P7*100</f>
         <v>75</v>
       </c>
@@ -12508,7 +12529,7 @@
         <f>COUNTIFS('Tháng 10'!I2:I15,"FB fanpage")</f>
         <v>6</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="43">
         <f>C6/C8*100</f>
         <v>42.857142857142854</v>
       </c>
@@ -12519,7 +12540,7 @@
         <f>COUNTIFS('Tháng 10'!I2:I15,"FB fanpage",'Tháng 10'!H2:H15,"X")</f>
         <v>1</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="43">
         <f>I6/I8*100</f>
         <v>25</v>
       </c>
@@ -12530,7 +12551,7 @@
         <f>COUNTIFS('Tháng 10'!H2:H15,"X",'Tháng 10'!G2:G15,"500 - 700")</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="43">
         <f>P6/P7*100</f>
         <v>25</v>
       </c>
@@ -12543,7 +12564,7 @@
         <f>COUNTIFS('Tháng 10'!I2:I15,"Fb cá nhân")</f>
         <v>4</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="43">
         <f>C7/C8*100</f>
         <v>28.571428571428569</v>
       </c>
@@ -12554,7 +12575,7 @@
         <f>COUNTIFS('Tháng 10'!I2:I15,"Fb cá nhân",'Tháng 10'!H2:H15,"X")</f>
         <v>1</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="43">
         <f>I7/I8*100</f>
         <v>25</v>
       </c>
@@ -12594,29 +12615,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="47" t="s">
+    <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
@@ -12624,11 +12645,11 @@
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
       <c r="O27" s="52" t="s">
         <v>236</v>
       </c>
@@ -12672,7 +12693,7 @@
         <f>COUNTIFS('Tháng 10'!I16:I62,"Tư vấn trực tiếp")</f>
         <v>17</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="43">
         <f>C29/C32*100</f>
         <v>36.95652173913043</v>
       </c>
@@ -12683,7 +12704,7 @@
         <f>COUNTIFS('Tháng 10'!I16:I61,"Tư Vấn trực tiếp",'Tháng 10'!H16:H61,"X")</f>
         <v>8</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="43">
         <f>I29/I32*100</f>
         <v>44.444444444444443</v>
       </c>
@@ -12694,7 +12715,7 @@
         <f>COUNTIFS('Tháng 10'!H16:H61,"X",'Tháng 10'!G16:G61,"300 - 500")</f>
         <v>13</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="43">
         <f>P29/P31*100</f>
         <v>72.222222222222214</v>
       </c>
@@ -12707,7 +12728,7 @@
         <f>COUNTIFS('Tháng 10'!I16:I61,"FB fanpage")</f>
         <v>27</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="43">
         <f>C30/C32*100</f>
         <v>58.695652173913047</v>
       </c>
@@ -12718,7 +12739,7 @@
         <f>COUNTIFS('Tháng 10'!I16:I61,"FB fanpage",'Tháng 10'!H16:H61,"X")</f>
         <v>8</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="43">
         <f>I30/I32*100</f>
         <v>44.444444444444443</v>
       </c>
@@ -12729,7 +12750,7 @@
         <f>COUNTIFS('Tháng 10'!H16:H61,"X",'Tháng 10'!G16:G61,"500 - 700")</f>
         <v>5</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="43">
         <f>P30/P31*100</f>
         <v>27.777777777777779</v>
       </c>
@@ -12742,7 +12763,7 @@
         <f>COUNTIFS('Tháng 10'!I16:I61,"Fb cá nhân")</f>
         <v>2</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="43">
         <f>C31/C32*100</f>
         <v>4.3478260869565215</v>
       </c>
@@ -12753,7 +12774,7 @@
         <f>COUNTIFS('Tháng 10'!I16:I61,"Fb cá nhân",'Tháng 10'!H16:H61,"X")</f>
         <v>2</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="43">
         <f>I31/I32*100</f>
         <v>11.111111111111111</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -1158,10 +1158,16 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,13 +1179,7 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1554,11 +1554,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-676417456"/>
-        <c:axId val="-676423984"/>
+        <c:axId val="-1785692736"/>
+        <c:axId val="-1785690560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-676417456"/>
+        <c:axId val="-1785692736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676423984"/>
+        <c:crossAx val="-1785690560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1609,7 +1609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-676423984"/>
+        <c:axId val="-1785690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676417456"/>
+        <c:crossAx val="-1785692736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2079,11 +2079,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-676416368"/>
-        <c:axId val="-676415824"/>
+        <c:axId val="-1785691104"/>
+        <c:axId val="-1785685664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-676416368"/>
+        <c:axId val="-1785691104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676415824"/>
+        <c:crossAx val="-1785685664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2134,7 +2134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-676415824"/>
+        <c:axId val="-1785685664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676416368"/>
+        <c:crossAx val="-1785691104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-676421808"/>
-        <c:axId val="-676413104"/>
+        <c:axId val="-1882802784"/>
+        <c:axId val="-1882797888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-676421808"/>
+        <c:axId val="-1882802784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676413104"/>
+        <c:crossAx val="-1882797888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2647,7 +2647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-676413104"/>
+        <c:axId val="-1882797888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676421808"/>
+        <c:crossAx val="-1882802784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,11 +3122,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-676419088"/>
-        <c:axId val="-676418000"/>
+        <c:axId val="-1648593088"/>
+        <c:axId val="-1648594720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-676419088"/>
+        <c:axId val="-1648593088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676418000"/>
+        <c:crossAx val="-1648594720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-676418000"/>
+        <c:axId val="-1648594720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676419088"/>
+        <c:crossAx val="-1648593088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3647,11 +3647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-676414736"/>
-        <c:axId val="-676412560"/>
+        <c:axId val="-1648592544"/>
+        <c:axId val="-1648599616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-676414736"/>
+        <c:axId val="-1648592544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,7 +3694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676412560"/>
+        <c:crossAx val="-1648599616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +3702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-676412560"/>
+        <c:axId val="-1648599616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676414736"/>
+        <c:crossAx val="-1648592544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4046,11 +4046,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-676551616"/>
-        <c:axId val="-485476192"/>
+        <c:axId val="-1648590912"/>
+        <c:axId val="-1648595264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-676551616"/>
+        <c:axId val="-1648590912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485476192"/>
+        <c:crossAx val="-1648595264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4101,7 +4101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-485476192"/>
+        <c:axId val="-1648595264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,7 +4152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-676551616"/>
+        <c:crossAx val="-1648590912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12402,7 +12402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -12441,21 +12441,21 @@
       <c r="T1" s="49"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="H3" s="55" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="H3" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="O3" s="52" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="O3" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -12616,45 +12616,45 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="H27" s="55" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="H27" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="O27" s="52" t="s">
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="O27" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="242">
   <si>
     <t>Tên FB</t>
   </si>
@@ -749,6 +749,15 @@
   </si>
   <si>
     <t>TRƯỚC KHI CHẠY CHƯƠNG TRÌNH</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Quang</t>
+  </si>
+  <si>
+    <t>0962644063</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ấn (Bạn Quang)</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1366,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1403,7 +1411,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
@@ -1412,7 +1420,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,7 +1490,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1528,13 +1535,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>36.95652173913043</c:v>
+                  <c:v>38.297872340425535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.695652173913047</c:v>
+                  <c:v>57.446808510638306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3478260869565215</c:v>
+                  <c:v>4.2553191489361701</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -1554,11 +1561,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1785692736"/>
-        <c:axId val="-1785690560"/>
+        <c:axId val="-2137757632"/>
+        <c:axId val="-2137759808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1785692736"/>
+        <c:axId val="-2137757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1785690560"/>
+        <c:crossAx val="-2137759808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1609,7 +1616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1785690560"/>
+        <c:axId val="-2137759808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1785692736"/>
+        <c:crossAx val="-2137757632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,7 +1681,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,7 +1787,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1882,7 +1887,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2007,7 +2011,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2079,11 +2082,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1785691104"/>
-        <c:axId val="-1785685664"/>
+        <c:axId val="-2137755456"/>
+        <c:axId val="-2137754912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1785691104"/>
+        <c:axId val="-2137755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1785685664"/>
+        <c:crossAx val="-2137754912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2134,7 +2137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1785685664"/>
+        <c:axId val="-2137754912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1785691104"/>
+        <c:crossAx val="-2137755456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,7 +2202,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2306,7 +2308,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2407,7 +2408,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2526,7 +2526,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2592,11 +2591,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1882802784"/>
-        <c:axId val="-1882797888"/>
+        <c:axId val="-2065396064"/>
+        <c:axId val="-2065399328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1882802784"/>
+        <c:axId val="-2065396064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1882797888"/>
+        <c:crossAx val="-2065399328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2647,7 +2646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1882797888"/>
+        <c:axId val="-2065399328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1882802784"/>
+        <c:crossAx val="-2065396064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,7 +2711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3122,11 +3120,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1648593088"/>
-        <c:axId val="-1648594720"/>
+        <c:axId val="-2065406400"/>
+        <c:axId val="-2065401504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1648593088"/>
+        <c:axId val="-2065406400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648594720"/>
+        <c:crossAx val="-2065401504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648594720"/>
+        <c:axId val="-2065401504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648593088"/>
+        <c:crossAx val="-2065406400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3647,11 +3645,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1648592544"/>
-        <c:axId val="-1648599616"/>
+        <c:axId val="-2065397152"/>
+        <c:axId val="-2065397696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1648592544"/>
+        <c:axId val="-2065397152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,7 +3692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648599616"/>
+        <c:crossAx val="-2065397696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +3700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648599616"/>
+        <c:axId val="-2065397696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648592544"/>
+        <c:crossAx val="-2065397152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4046,11 +4044,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1648590912"/>
-        <c:axId val="-1648595264"/>
+        <c:axId val="-2065398240"/>
+        <c:axId val="-2065410752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1648590912"/>
+        <c:axId val="-2065398240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648595264"/>
+        <c:crossAx val="-2065410752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4101,7 +4099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1648595264"/>
+        <c:axId val="-2065410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,7 +4150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1648590912"/>
+        <c:crossAx val="-2065398240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9351,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11881,7 +11879,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
@@ -12356,17 +12354,31 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="8"/>
+      <c r="D62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="15"/>
+      <c r="I62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K62" s="15">
+        <v>43022</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -12402,7 +12414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -12691,11 +12703,11 @@
       </c>
       <c r="C29" s="2">
         <f>COUNTIFS('Tháng 10'!I16:I62,"Tư vấn trực tiếp")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="43">
         <f>C29/C32*100</f>
-        <v>36.95652173913043</v>
+        <v>38.297872340425535</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
@@ -12730,7 +12742,7 @@
       </c>
       <c r="D30" s="43">
         <f>C30/C32*100</f>
-        <v>58.695652173913047</v>
+        <v>57.446808510638306</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
@@ -12765,7 +12777,7 @@
       </c>
       <c r="D31" s="43">
         <f>C31/C32*100</f>
-        <v>4.3478260869565215</v>
+        <v>4.2553191489361701</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>114</v>
@@ -12796,7 +12808,7 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C29:C31)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
         <f>C32/C32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="244">
   <si>
     <t>Tên FB</t>
   </si>
@@ -757,7 +757,13 @@
     <t>0962644063</t>
   </si>
   <si>
-    <t>Nguyễn Văn Ấn (Bạn Quang)</t>
+    <t>Nguyễn Văn Ấn Bạn củaQuang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Quỳnh</t>
+  </si>
+  <si>
+    <t>01282795251</t>
   </si>
 </sst>
 </file>
@@ -1366,6 +1372,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1411,7 +1418,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
@@ -1420,7 +1427,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,6 +1497,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1535,13 +1543,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>38.297872340425535</c:v>
+                  <c:v>39.583333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.446808510638306</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2553191489361701</c:v>
+                  <c:v>4.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -1561,11 +1569,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2137757632"/>
-        <c:axId val="-2137759808"/>
+        <c:axId val="964036144"/>
+        <c:axId val="964049744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137757632"/>
+        <c:axId val="964036144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137759808"/>
+        <c:crossAx val="964049744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137759808"/>
+        <c:axId val="964049744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137757632"/>
+        <c:crossAx val="964036144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1681,6 +1689,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1787,6 +1796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1887,6 +1897,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2011,6 +2022,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2082,11 +2094,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2137755456"/>
-        <c:axId val="-2137754912"/>
+        <c:axId val="964037776"/>
+        <c:axId val="964038320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137755456"/>
+        <c:axId val="964037776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137754912"/>
+        <c:crossAx val="964038320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2137,7 +2149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137754912"/>
+        <c:axId val="964038320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137755456"/>
+        <c:crossAx val="964037776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2202,6 +2214,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2308,6 +2321,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2408,6 +2422,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2526,6 +2541,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2591,11 +2607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2065396064"/>
-        <c:axId val="-2065399328"/>
+        <c:axId val="1130568960"/>
+        <c:axId val="1190582864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065396064"/>
+        <c:axId val="1130568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065399328"/>
+        <c:crossAx val="1190582864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2646,7 +2662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065399328"/>
+        <c:axId val="1190582864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065396064"/>
+        <c:crossAx val="1130568960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2711,6 +2727,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3120,11 +3137,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2065406400"/>
-        <c:axId val="-2065401504"/>
+        <c:axId val="1227646032"/>
+        <c:axId val="1227636240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065406400"/>
+        <c:axId val="1227646032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065401504"/>
+        <c:crossAx val="1227636240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065401504"/>
+        <c:axId val="1227636240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3226,7 +3243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065406400"/>
+        <c:crossAx val="1227646032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3645,11 +3662,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2065397152"/>
-        <c:axId val="-2065397696"/>
+        <c:axId val="1227638416"/>
+        <c:axId val="1227637328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065397152"/>
+        <c:axId val="1227638416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,7 +3709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065397696"/>
+        <c:crossAx val="1227637328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3700,7 +3717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065397696"/>
+        <c:axId val="1227637328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3751,7 +3768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065397152"/>
+        <c:crossAx val="1227638416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4044,11 +4061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2065398240"/>
-        <c:axId val="-2065410752"/>
+        <c:axId val="1227631888"/>
+        <c:axId val="1227636784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065398240"/>
+        <c:axId val="1227631888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065410752"/>
+        <c:crossAx val="1227636784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4099,7 +4116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065410752"/>
+        <c:axId val="1227636784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065398240"/>
+        <c:crossAx val="1227631888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9347,10 +9364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12394,6 +12411,103 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" s="15">
+        <v>43024</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <mergeCells count="7">
@@ -12414,8 +12528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12702,18 +12816,18 @@
         <v>225</v>
       </c>
       <c r="C29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I62,"Tư vấn trực tiếp")</f>
-        <v>18</v>
+        <f>COUNTIFS('Tháng 10'!I16:I65,"Tư vấn trực tiếp")</f>
+        <v>19</v>
       </c>
       <c r="D29" s="43">
         <f>C29/C32*100</f>
-        <v>38.297872340425535</v>
+        <v>39.583333333333329</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I61,"Tư Vấn trực tiếp",'Tháng 10'!H16:H61,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I65,"Tư Vấn trực tiếp",'Tháng 10'!H16:H65,"X")</f>
         <v>8</v>
       </c>
       <c r="J29" s="43">
@@ -12724,7 +12838,7 @@
         <v>232</v>
       </c>
       <c r="P29" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H61,"X",'Tháng 10'!G16:G61,"300 - 500")</f>
+        <f>COUNTIFS('Tháng 10'!H16:H65,"X",'Tháng 10'!G16:G65,"300 - 500")</f>
         <v>13</v>
       </c>
       <c r="Q29" s="43">
@@ -12737,18 +12851,18 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I61,"FB fanpage")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I65,"FB fanpage")</f>
         <v>27</v>
       </c>
       <c r="D30" s="43">
         <f>C30/C32*100</f>
-        <v>57.446808510638306</v>
+        <v>56.25</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I61,"FB fanpage",'Tháng 10'!H16:H61,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I65,"FB fanpage",'Tháng 10'!H16:H65,"X")</f>
         <v>8</v>
       </c>
       <c r="J30" s="43">
@@ -12759,7 +12873,7 @@
         <v>233</v>
       </c>
       <c r="P30" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H61,"X",'Tháng 10'!G16:G61,"500 - 700")</f>
+        <f>COUNTIFS('Tháng 10'!H16:H65,"X",'Tháng 10'!G16:G65,"500 - 700")</f>
         <v>5</v>
       </c>
       <c r="Q30" s="43">
@@ -12772,18 +12886,18 @@
         <v>114</v>
       </c>
       <c r="C31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I61,"Fb cá nhân")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I65,"Fb cá nhân")</f>
         <v>2</v>
       </c>
       <c r="D31" s="43">
         <f>C31/C32*100</f>
-        <v>4.2553191489361701</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I61,"Fb cá nhân",'Tháng 10'!H16:H61,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I65,"Fb cá nhân",'Tháng 10'!H16:H65,"X")</f>
         <v>2</v>
       </c>
       <c r="J31" s="43">
@@ -12808,7 +12922,7 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C29:C31)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2">
         <f>C32/C32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="246">
   <si>
     <t>Tên FB</t>
   </si>
@@ -757,13 +757,19 @@
     <t>0962644063</t>
   </si>
   <si>
-    <t>Nguyễn Văn Ấn Bạn củaQuang</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Xuân Quỳnh</t>
   </si>
   <si>
     <t>01282795251</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ấn (Bạn củaQuang)</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng (Bạn của Thu Hồng)</t>
+  </si>
+  <si>
+    <t>01636769837</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,6 +1202,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1418,7 +1427,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
@@ -1427,7 +1436,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,13 +1552,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39.583333333333329</c:v>
+                  <c:v>40.816326530612244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.25</c:v>
+                  <c:v>55.102040816326522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>4.0816326530612246</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -1569,11 +1578,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="964036144"/>
-        <c:axId val="964049744"/>
+        <c:axId val="-1647870896"/>
+        <c:axId val="-1647884496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="964036144"/>
+        <c:axId val="-1647870896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964049744"/>
+        <c:crossAx val="-1647884496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964049744"/>
+        <c:axId val="-1647884496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964036144"/>
+        <c:crossAx val="-1647870896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1943,7 +1952,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1952,7 +1961,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,13 +2077,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>44.444444444444443</c:v>
+                  <c:v>47.368421052631575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.444444444444443</c:v>
+                  <c:v>42.105263157894733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.111111111111111</c:v>
+                  <c:v>10.526315789473683</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -2094,11 +2103,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="964037776"/>
-        <c:axId val="964038320"/>
+        <c:axId val="-1647869808"/>
+        <c:axId val="-1647874704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="964037776"/>
+        <c:axId val="-1647869808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964038320"/>
+        <c:crossAx val="-1647874704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2149,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964038320"/>
+        <c:axId val="-1647874704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964037776"/>
+        <c:crossAx val="-1647869808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2465,13 +2474,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,10 +2593,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>72.222222222222214</c:v>
+                  <c:v>73.68421052631578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.777777777777779</c:v>
+                  <c:v>26.315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>100</c:v>
@@ -2607,11 +2616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1130568960"/>
-        <c:axId val="1190582864"/>
+        <c:axId val="-1647878512"/>
+        <c:axId val="-1647882864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1130568960"/>
+        <c:axId val="-1647878512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190582864"/>
+        <c:crossAx val="-1647882864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1190582864"/>
+        <c:axId val="-1647882864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130568960"/>
+        <c:crossAx val="-1647878512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3137,11 +3146,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1227646032"/>
-        <c:axId val="1227636240"/>
+        <c:axId val="-1647883952"/>
+        <c:axId val="-1647883408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227646032"/>
+        <c:axId val="-1647883952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,7 +3193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227636240"/>
+        <c:crossAx val="-1647883408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3192,7 +3201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227636240"/>
+        <c:axId val="-1647883408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227646032"/>
+        <c:crossAx val="-1647883952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3662,11 +3671,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1227638416"/>
-        <c:axId val="1227637328"/>
+        <c:axId val="-1647873072"/>
+        <c:axId val="-1647882320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227638416"/>
+        <c:axId val="-1647873072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +3718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227637328"/>
+        <c:crossAx val="-1647882320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3717,7 +3726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227637328"/>
+        <c:axId val="-1647882320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227638416"/>
+        <c:crossAx val="-1647873072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3894,7 +3903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4061,11 +4069,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1227631888"/>
-        <c:axId val="1227636784"/>
+        <c:axId val="-1539631808"/>
+        <c:axId val="-1539628544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227631888"/>
+        <c:axId val="-1539631808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4108,7 +4116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227636784"/>
+        <c:crossAx val="-1539628544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4116,7 +4124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227636784"/>
+        <c:axId val="-1539628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +4175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227631888"/>
+        <c:crossAx val="-1539631808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4181,7 +4189,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9366,8 +9373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12370,12 +12377,12 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>241</v>
+      <c r="B62" s="58" t="s">
+        <v>243</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="s">
@@ -12416,14 +12423,14 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
@@ -12454,18 +12461,36 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2"/>
+    <row r="64" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>244</v>
+      </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="8"/>
+      <c r="D64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="15"/>
+      <c r="G64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K64" s="15">
+        <v>43024</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -12528,8 +12553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12817,33 +12842,33 @@
       </c>
       <c r="C29" s="2">
         <f>COUNTIFS('Tháng 10'!I16:I65,"Tư vấn trực tiếp")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="43">
         <f>C29/C32*100</f>
-        <v>39.583333333333329</v>
+        <v>40.816326530612244</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="2">
         <f>COUNTIFS('Tháng 10'!I16:I65,"Tư Vấn trực tiếp",'Tháng 10'!H16:H65,"X")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J29" s="43">
         <f>I29/I32*100</f>
-        <v>44.444444444444443</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>232</v>
       </c>
       <c r="P29" s="2">
         <f>COUNTIFS('Tháng 10'!H16:H65,"X",'Tháng 10'!G16:G65,"300 - 500")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="43">
         <f>P29/P31*100</f>
-        <v>72.222222222222214</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -12856,7 +12881,7 @@
       </c>
       <c r="D30" s="43">
         <f>C30/C32*100</f>
-        <v>56.25</v>
+        <v>55.102040816326522</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
@@ -12867,7 +12892,7 @@
       </c>
       <c r="J30" s="43">
         <f>I30/I32*100</f>
-        <v>44.444444444444443</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>233</v>
@@ -12878,7 +12903,7 @@
       </c>
       <c r="Q30" s="43">
         <f>P30/P31*100</f>
-        <v>27.777777777777779</v>
+        <v>26.315789473684209</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -12891,7 +12916,7 @@
       </c>
       <c r="D31" s="43">
         <f>C31/C32*100</f>
-        <v>4.1666666666666661</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>114</v>
@@ -12902,14 +12927,14 @@
       </c>
       <c r="J31" s="43">
         <f>I31/I32*100</f>
-        <v>11.111111111111111</v>
+        <v>10.526315789473683</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="P31" s="2">
         <f>SUM(P29:P30)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2">
         <f>P31/P31*100</f>
@@ -12922,7 +12947,7 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C29:C31)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2">
         <f>C32/C32*100</f>
@@ -12933,7 +12958,7 @@
       </c>
       <c r="I32" s="2">
         <f>SUM(I29:I31)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32" s="2">
         <f>I32/I32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="246">
   <si>
     <t>Tên FB</t>
   </si>
@@ -763,13 +763,13 @@
     <t>01282795251</t>
   </si>
   <si>
-    <t>Nguyễn Văn Ấn (Bạn củaQuang)</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Hùng (Bạn của Thu Hồng)</t>
   </si>
   <si>
     <t>01636769837</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ân (Bạn củaQuang)</t>
   </si>
 </sst>
 </file>
@@ -1167,6 +1167,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,9 +1205,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1578,11 +1578,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1647870896"/>
-        <c:axId val="-1647884496"/>
+        <c:axId val="-746771280"/>
+        <c:axId val="-746762576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647870896"/>
+        <c:axId val="-746771280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647884496"/>
+        <c:crossAx val="-746762576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647884496"/>
+        <c:axId val="-746762576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647870896"/>
+        <c:crossAx val="-746771280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1952,7 +1952,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1961,7 +1961,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,13 +2077,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47.368421052631575</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.105263157894733</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -2103,11 +2103,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1647869808"/>
-        <c:axId val="-1647874704"/>
+        <c:axId val="-746769104"/>
+        <c:axId val="-746768560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647869808"/>
+        <c:axId val="-746769104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647874704"/>
+        <c:crossAx val="-746768560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647874704"/>
+        <c:axId val="-746768560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647869808"/>
+        <c:crossAx val="-746769104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2477,10 +2477,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,10 +2593,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>73.68421052631578</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.315789473684209</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>100</c:v>
@@ -2616,11 +2616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1647878512"/>
-        <c:axId val="-1647882864"/>
+        <c:axId val="-746760400"/>
+        <c:axId val="-746767472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647878512"/>
+        <c:axId val="-746760400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647882864"/>
+        <c:crossAx val="-746767472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,7 +2671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647882864"/>
+        <c:axId val="-746767472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647878512"/>
+        <c:crossAx val="-746760400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2848,7 +2848,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2949,7 +2948,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3074,7 +3072,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3146,11 +3143,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1647883952"/>
-        <c:axId val="-1647883408"/>
+        <c:axId val="-746760944"/>
+        <c:axId val="-746765296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647883952"/>
+        <c:axId val="-746760944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647883408"/>
+        <c:crossAx val="-746765296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3201,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647883408"/>
+        <c:axId val="-746765296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647883952"/>
+        <c:crossAx val="-746760944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3266,7 +3263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3373,7 +3369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3474,7 +3469,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3599,7 +3593,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3671,11 +3664,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1647873072"/>
-        <c:axId val="-1647882320"/>
+        <c:axId val="-746763120"/>
+        <c:axId val="-746758768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1647873072"/>
+        <c:axId val="-746763120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3718,7 +3711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647882320"/>
+        <c:crossAx val="-746758768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3726,7 +3719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647882320"/>
+        <c:axId val="-746758768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647873072"/>
+        <c:crossAx val="-746763120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3791,7 +3784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4069,11 +4061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1539631808"/>
-        <c:axId val="-1539628544"/>
+        <c:axId val="-639967088"/>
+        <c:axId val="-639967632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1539631808"/>
+        <c:axId val="-639967088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1539628544"/>
+        <c:crossAx val="-639967632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4124,7 +4116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1539628544"/>
+        <c:axId val="-639967632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4175,7 +4167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1539631808"/>
+        <c:crossAx val="-639967088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9371,10 +9363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9438,30 +9430,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="47" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9516,11 +9508,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -12381,8 +12373,8 @@
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="58" t="s">
-        <v>243</v>
+      <c r="B62" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="s">
@@ -12392,8 +12384,12 @@
         <v>240</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I62" s="2" t="s">
         <v>1</v>
       </c>
@@ -12465,15 +12461,15 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="58" t="s">
-        <v>244</v>
+      <c r="B64" s="46" t="s">
+        <v>243</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="3" t="s">
@@ -12508,7 +12504,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="8"/>
@@ -12533,6 +12529,114 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <mergeCells count="7">
@@ -12553,7 +12657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -12568,45 +12672,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="H3" s="51" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="H3" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="O3" s="54" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="O3" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -12767,45 +12871,45 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="H27" s="51" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="H27" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="O27" s="54" t="s">
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="O27" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -12841,7 +12945,7 @@
         <v>225</v>
       </c>
       <c r="C29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I65,"Tư vấn trực tiếp")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I69,"Tư vấn trực tiếp")</f>
         <v>20</v>
       </c>
       <c r="D29" s="43">
@@ -12852,23 +12956,23 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I65,"Tư Vấn trực tiếp",'Tháng 10'!H16:H65,"X")</f>
-        <v>9</v>
+        <f>COUNTIFS('Tháng 10'!I16:I69,"Tư Vấn trực tiếp",'Tháng 10'!H16:H69,"X")</f>
+        <v>10</v>
       </c>
       <c r="J29" s="43">
         <f>I29/I32*100</f>
-        <v>47.368421052631575</v>
+        <v>50</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>232</v>
       </c>
       <c r="P29" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H65,"X",'Tháng 10'!G16:G65,"300 - 500")</f>
+        <f>COUNTIFS('Tháng 10'!H16:H69,"X",'Tháng 10'!G16:G69,"300 - 500")</f>
         <v>14</v>
       </c>
       <c r="Q29" s="43">
         <f>P29/P31*100</f>
-        <v>73.68421052631578</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -12876,7 +12980,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I65,"FB fanpage")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I69,"FB fanpage")</f>
         <v>27</v>
       </c>
       <c r="D30" s="43">
@@ -12887,23 +12991,23 @@
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I65,"FB fanpage",'Tháng 10'!H16:H65,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I69,"FB fanpage",'Tháng 10'!H16:H69,"X")</f>
         <v>8</v>
       </c>
       <c r="J30" s="43">
         <f>I30/I32*100</f>
-        <v>42.105263157894733</v>
+        <v>40</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>233</v>
       </c>
       <c r="P30" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H65,"X",'Tháng 10'!G16:G65,"500 - 700")</f>
-        <v>5</v>
+        <f>COUNTIFS('Tháng 10'!H16:H69,"X",'Tháng 10'!G16:G69,"500 - 700")</f>
+        <v>6</v>
       </c>
       <c r="Q30" s="43">
         <f>P30/P31*100</f>
-        <v>26.315789473684209</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -12911,7 +13015,7 @@
         <v>114</v>
       </c>
       <c r="C31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I65,"Fb cá nhân")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I69,"Fb cá nhân")</f>
         <v>2</v>
       </c>
       <c r="D31" s="43">
@@ -12922,19 +13026,19 @@
         <v>114</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I65,"Fb cá nhân",'Tháng 10'!H16:H65,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I69,"Fb cá nhân",'Tháng 10'!H16:H69,"X")</f>
         <v>2</v>
       </c>
       <c r="J31" s="43">
         <f>I31/I32*100</f>
-        <v>10.526315789473683</v>
+        <v>10</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="P31" s="2">
         <f>SUM(P29:P30)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2">
         <f>P31/P31*100</f>
@@ -12958,7 +13062,7 @@
       </c>
       <c r="I32" s="2">
         <f>SUM(I29:I31)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J32" s="2">
         <f>I32/I32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="248">
   <si>
     <t>Tên FB</t>
   </si>
@@ -770,6 +770,12 @@
   </si>
   <si>
     <t>Nguyễn Văn Ân (Bạn củaQuang)</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Toàn</t>
+  </si>
+  <si>
+    <t>Phan Nguyễn Tường Vi</t>
   </si>
 </sst>
 </file>
@@ -1427,16 +1433,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,13 +1558,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40.816326530612244</c:v>
+                  <c:v>41.17647058823529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.102040816326522</c:v>
+                  <c:v>52.941176470588239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0816326530612246</c:v>
+                  <c:v>5.8823529411764701</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -1578,11 +1584,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-746771280"/>
-        <c:axId val="-746762576"/>
+        <c:axId val="-1440717040"/>
+        <c:axId val="-1440713776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-746771280"/>
+        <c:axId val="-1440717040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746762576"/>
+        <c:crossAx val="-1440713776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746762576"/>
+        <c:axId val="-1440713776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746771280"/>
+        <c:crossAx val="-1440717040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1952,16 +1958,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,13 +2083,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>47.826086956521742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>39.130434782608695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>13.043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -2103,11 +2109,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-746769104"/>
-        <c:axId val="-746768560"/>
+        <c:axId val="-1440712688"/>
+        <c:axId val="-1440727920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-746769104"/>
+        <c:axId val="-1440712688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746768560"/>
+        <c:crossAx val="-1440727920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2158,7 +2164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746768560"/>
+        <c:axId val="-1440727920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746769104"/>
+        <c:crossAx val="-1440712688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2474,13 +2480,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,10 +2599,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>69.565217391304344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.434782608695656</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>100</c:v>
@@ -2616,11 +2622,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-746760400"/>
-        <c:axId val="-746767472"/>
+        <c:axId val="-1440719760"/>
+        <c:axId val="-1440715408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-746760400"/>
+        <c:axId val="-1440719760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746767472"/>
+        <c:crossAx val="-1440715408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,7 +2677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746767472"/>
+        <c:axId val="-1440715408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746760400"/>
+        <c:crossAx val="-1440719760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2848,6 +2854,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2948,6 +2955,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3072,6 +3080,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3143,11 +3152,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-746760944"/>
-        <c:axId val="-746765296"/>
+        <c:axId val="-1440722480"/>
+        <c:axId val="-1440726832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-746760944"/>
+        <c:axId val="-1440722480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746765296"/>
+        <c:crossAx val="-1440726832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3198,7 +3207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746765296"/>
+        <c:axId val="-1440726832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3249,7 +3258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746760944"/>
+        <c:crossAx val="-1440722480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3263,6 +3272,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3369,6 +3379,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3469,6 +3480,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3593,6 +3605,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3664,11 +3677,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-746763120"/>
-        <c:axId val="-746758768"/>
+        <c:axId val="-1440725744"/>
+        <c:axId val="-1440725200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-746763120"/>
+        <c:axId val="-1440725744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3711,7 +3724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746758768"/>
+        <c:crossAx val="-1440725200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3719,7 +3732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-746758768"/>
+        <c:axId val="-1440725200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +3783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-746763120"/>
+        <c:crossAx val="-1440725744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3784,6 +3797,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3895,6 +3909,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4061,11 +4076,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-639967088"/>
-        <c:axId val="-639967632"/>
+        <c:axId val="-1401511584"/>
+        <c:axId val="-1401502336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-639967088"/>
+        <c:axId val="-1401511584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4108,7 +4123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-639967632"/>
+        <c:crossAx val="-1401502336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4116,7 +4131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-639967632"/>
+        <c:axId val="-1401502336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +4182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-639967088"/>
+        <c:crossAx val="-1401511584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4181,6 +4196,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9363,10 +9379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11905,8 +11921,12 @@
       <c r="F51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I51" s="2" t="s">
         <v>29</v>
       </c>
@@ -12503,18 +12523,36 @@
       <c r="Y64" s="2"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>247</v>
+      </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="15">
+        <v>43024</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -12530,17 +12568,33 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>246</v>
+      </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="15"/>
+      <c r="G66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K66" s="15">
+        <v>43026</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -12612,7 +12666,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="8"/>
@@ -12637,6 +12691,33 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <mergeCells count="7">
@@ -12657,8 +12738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12945,34 +13026,34 @@
         <v>225</v>
       </c>
       <c r="C29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I69,"Tư vấn trực tiếp")</f>
-        <v>20</v>
+        <f>COUNTIFS('Tháng 10'!I16:I70,"Tư vấn trực tiếp")</f>
+        <v>21</v>
       </c>
       <c r="D29" s="43">
         <f>C29/C32*100</f>
-        <v>40.816326530612244</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I69,"Tư Vấn trực tiếp",'Tháng 10'!H16:H69,"X")</f>
-        <v>10</v>
+        <f>COUNTIFS('Tháng 10'!I16:I70,"Tư Vấn trực tiếp",'Tháng 10'!H16:H70,"X")</f>
+        <v>11</v>
       </c>
       <c r="J29" s="43">
         <f>I29/I32*100</f>
-        <v>50</v>
+        <v>47.826086956521742</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>232</v>
       </c>
       <c r="P29" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H69,"X",'Tháng 10'!G16:G69,"300 - 500")</f>
-        <v>14</v>
+        <f>COUNTIFS('Tháng 10'!H16:H70,"X",'Tháng 10'!G16:G70,"300 - 500")</f>
+        <v>16</v>
       </c>
       <c r="Q29" s="43">
         <f>P29/P31*100</f>
-        <v>70</v>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -12980,34 +13061,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I69,"FB fanpage")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I70,"FB fanpage")</f>
         <v>27</v>
       </c>
       <c r="D30" s="43">
         <f>C30/C32*100</f>
-        <v>55.102040816326522</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I69,"FB fanpage",'Tháng 10'!H16:H69,"X")</f>
-        <v>8</v>
+        <f>COUNTIFS('Tháng 10'!I16:I70,"FB fanpage",'Tháng 10'!H16:H70,"X")</f>
+        <v>9</v>
       </c>
       <c r="J30" s="43">
         <f>I30/I32*100</f>
-        <v>40</v>
+        <v>39.130434782608695</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>233</v>
       </c>
       <c r="P30" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H69,"X",'Tháng 10'!G16:G69,"500 - 700")</f>
-        <v>6</v>
+        <f>COUNTIFS('Tháng 10'!H16:H70,"X",'Tháng 10'!G16:G70,"500 - 700")</f>
+        <v>7</v>
       </c>
       <c r="Q30" s="43">
         <f>P30/P31*100</f>
-        <v>30</v>
+        <v>30.434782608695656</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -13015,30 +13096,30 @@
         <v>114</v>
       </c>
       <c r="C31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I69,"Fb cá nhân")</f>
-        <v>2</v>
+        <f>COUNTIFS('Tháng 10'!I16:I70,"Fb cá nhân")</f>
+        <v>3</v>
       </c>
       <c r="D31" s="43">
         <f>C31/C32*100</f>
-        <v>4.0816326530612246</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I69,"Fb cá nhân",'Tháng 10'!H16:H69,"X")</f>
-        <v>2</v>
+        <f>COUNTIFS('Tháng 10'!I16:I70,"Fb cá nhân",'Tháng 10'!H16:H70,"X")</f>
+        <v>3</v>
       </c>
       <c r="J31" s="43">
         <f>I31/I32*100</f>
-        <v>10</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="P31" s="2">
         <f>SUM(P29:P30)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q31" s="2">
         <f>P31/P31*100</f>
@@ -13051,7 +13132,7 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C29:C31)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2">
         <f>C32/C32*100</f>
@@ -13062,7 +13143,7 @@
       </c>
       <c r="I32" s="2">
         <f>SUM(I29:I31)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J32" s="2">
         <f>I32/I32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="253">
   <si>
     <t>Tên FB</t>
   </si>
@@ -776,13 +776,28 @@
   </si>
   <si>
     <t>Phan Nguyễn Tường Vi</t>
+  </si>
+  <si>
+    <t>Thùy Elsa</t>
+  </si>
+  <si>
+    <t>Thùy</t>
+  </si>
+  <si>
+    <t>Phụng</t>
+  </si>
+  <si>
+    <t>Phụng nè</t>
+  </si>
+  <si>
+    <t>Mỹ Linh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +889,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1066,7 +1087,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,6 +1233,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1436,13 +1458,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,13 +1580,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>41.17647058823529</c:v>
+                  <c:v>38.888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.941176470588239</c:v>
+                  <c:v>55.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8823529411764701</c:v>
+                  <c:v>5.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -1584,11 +1606,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1440717040"/>
-        <c:axId val="-1440713776"/>
+        <c:axId val="913352128"/>
+        <c:axId val="913348864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1440717040"/>
+        <c:axId val="913352128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440713776"/>
+        <c:crossAx val="913348864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1639,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1440713776"/>
+        <c:axId val="913348864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440717040"/>
+        <c:crossAx val="913352128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,11 +2131,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1440712688"/>
-        <c:axId val="-1440727920"/>
+        <c:axId val="913349952"/>
+        <c:axId val="913352672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1440712688"/>
+        <c:axId val="913349952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440727920"/>
+        <c:crossAx val="913352672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1440727920"/>
+        <c:axId val="913352672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440712688"/>
+        <c:crossAx val="913349952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2622,11 +2644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1440719760"/>
-        <c:axId val="-1440715408"/>
+        <c:axId val="1144116336"/>
+        <c:axId val="1144117968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1440719760"/>
+        <c:axId val="1144116336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440715408"/>
+        <c:crossAx val="1144117968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2677,7 +2699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1440715408"/>
+        <c:axId val="1144117968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440719760"/>
+        <c:crossAx val="1144116336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3152,11 +3174,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1440722480"/>
-        <c:axId val="-1440726832"/>
+        <c:axId val="1144118512"/>
+        <c:axId val="1144119600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1440722480"/>
+        <c:axId val="1144118512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440726832"/>
+        <c:crossAx val="1144119600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3207,7 +3229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1440726832"/>
+        <c:axId val="1144119600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +3280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440722480"/>
+        <c:crossAx val="1144118512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3677,11 +3699,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1440725744"/>
-        <c:axId val="-1440725200"/>
+        <c:axId val="913197920"/>
+        <c:axId val="913195200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1440725744"/>
+        <c:axId val="913197920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3724,7 +3746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440725200"/>
+        <c:crossAx val="913195200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3732,7 +3754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1440725200"/>
+        <c:axId val="913195200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1440725744"/>
+        <c:crossAx val="913197920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4076,11 +4098,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1401511584"/>
-        <c:axId val="-1401502336"/>
+        <c:axId val="913200640"/>
+        <c:axId val="1178978304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1401511584"/>
+        <c:axId val="913200640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,7 +4145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1401502336"/>
+        <c:crossAx val="1178978304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4131,7 +4153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1401502336"/>
+        <c:axId val="1178978304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1401511584"/>
+        <c:crossAx val="913200640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9379,10 +9401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12389,37 +12411,35 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>245</v>
+      <c r="B62" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K62" s="15">
-        <v>43022</v>
-      </c>
-      <c r="L62" s="3"/>
+        <v>43021</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -12434,23 +12454,27 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>241</v>
+      <c r="B63" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I63" s="2" t="s">
         <v>1</v>
       </c>
@@ -12458,11 +12482,9 @@
         <v>124</v>
       </c>
       <c r="K63" s="15">
-        <v>43024</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>43022</v>
+      </c>
+      <c r="L63" s="3"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -12477,35 +12499,31 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>124</v>
       </c>
       <c r="K64" s="15">
-        <v>43024</v>
+        <v>43022</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="2"/>
@@ -12526,23 +12544,21 @@
       <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>247</v>
+      <c r="B65" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="2" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>124</v>
@@ -12551,7 +12567,7 @@
         <v>43024</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -12567,18 +12583,20 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="3" t="s">
         <v>156</v>
@@ -12593,7 +12611,7 @@
         <v>124</v>
       </c>
       <c r="K66" s="15">
-        <v>43026</v>
+        <v>43024</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="2"/>
@@ -12611,18 +12629,36 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>247</v>
+      </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E67" s="8"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K67" s="15">
+        <v>43024</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -12638,17 +12674,33 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>246</v>
+      </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E68" s="8"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="15"/>
+      <c r="G68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68" s="15">
+        <v>43026</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -12665,18 +12717,34 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>249</v>
+      </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="59" t="s">
+        <v>248</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="3"/>
+      <c r="I69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69" s="15">
+        <v>43027</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -12693,7 +12761,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="8"/>
@@ -12718,6 +12786,60 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M14"/>
   <mergeCells count="7">
@@ -12730,7 +12852,7 @@
     <mergeCell ref="X1:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12739,7 +12861,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13026,18 +13148,18 @@
         <v>225</v>
       </c>
       <c r="C29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I70,"Tư vấn trực tiếp")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I72,"Tư vấn trực tiếp")</f>
         <v>21</v>
       </c>
       <c r="D29" s="43">
         <f>C29/C32*100</f>
-        <v>41.17647058823529</v>
+        <v>38.888888888888893</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I70,"Tư Vấn trực tiếp",'Tháng 10'!H16:H70,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I72,"Tư Vấn trực tiếp",'Tháng 10'!H16:H72,"X")</f>
         <v>11</v>
       </c>
       <c r="J29" s="43">
@@ -13048,7 +13170,7 @@
         <v>232</v>
       </c>
       <c r="P29" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H70,"X",'Tháng 10'!G16:G70,"300 - 500")</f>
+        <f>COUNTIFS('Tháng 10'!H16:H72,"X",'Tháng 10'!G16:G72,"300 - 500")</f>
         <v>16</v>
       </c>
       <c r="Q29" s="43">
@@ -13061,18 +13183,18 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I70,"FB fanpage")</f>
-        <v>27</v>
+        <f>COUNTIFS('Tháng 10'!I16:I72,"FB fanpage")</f>
+        <v>30</v>
       </c>
       <c r="D30" s="43">
         <f>C30/C32*100</f>
-        <v>52.941176470588239</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I70,"FB fanpage",'Tháng 10'!H16:H70,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I72,"FB fanpage",'Tháng 10'!H16:H72,"X")</f>
         <v>9</v>
       </c>
       <c r="J30" s="43">
@@ -13083,7 +13205,7 @@
         <v>233</v>
       </c>
       <c r="P30" s="2">
-        <f>COUNTIFS('Tháng 10'!H16:H70,"X",'Tháng 10'!G16:G70,"500 - 700")</f>
+        <f>COUNTIFS('Tháng 10'!H16:H72,"X",'Tháng 10'!G16:G72,"500 - 700")</f>
         <v>7</v>
       </c>
       <c r="Q30" s="43">
@@ -13096,18 +13218,18 @@
         <v>114</v>
       </c>
       <c r="C31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I70,"Fb cá nhân")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I72,"Fb cá nhân")</f>
         <v>3</v>
       </c>
       <c r="D31" s="43">
         <f>C31/C32*100</f>
-        <v>5.8823529411764701</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIFS('Tháng 10'!I16:I70,"Fb cá nhân",'Tháng 10'!H16:H70,"X")</f>
+        <f>COUNTIFS('Tháng 10'!I16:I72,"Fb cá nhân",'Tháng 10'!H16:H72,"X")</f>
         <v>3</v>
       </c>
       <c r="J31" s="43">
@@ -13132,7 +13254,7 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C29:C31)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2">
         <f>C32/C32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="254">
   <si>
     <t>Tên FB</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t>Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Trần Việt Bắc</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,7 +1237,6 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1409,7 +1412,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1455,7 +1457,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -1464,7 +1466,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,7 +1536,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1580,13 +1581,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>38.888888888888893</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.555555555555557</c:v>
+                  <c:v>54.54545454545454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5555555555555554</c:v>
+                  <c:v>5.4545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -1606,11 +1607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="913352128"/>
-        <c:axId val="913348864"/>
+        <c:axId val="-1650153968"/>
+        <c:axId val="-1650153424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="913352128"/>
+        <c:axId val="-1650153968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913348864"/>
+        <c:crossAx val="-1650153424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913348864"/>
+        <c:axId val="-1650153424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913352128"/>
+        <c:crossAx val="-1650153968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,7 +1727,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1833,7 +1833,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1934,7 +1933,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2059,7 +2057,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2131,11 +2128,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="913349952"/>
-        <c:axId val="913352672"/>
+        <c:axId val="-1650151248"/>
+        <c:axId val="-1650142000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="913349952"/>
+        <c:axId val="-1650151248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913352672"/>
+        <c:crossAx val="-1650142000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913352672"/>
+        <c:axId val="-1650142000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913349952"/>
+        <c:crossAx val="-1650151248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2251,7 +2248,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2358,7 +2354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2459,7 +2454,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2578,7 +2572,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2644,11 +2637,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1144116336"/>
-        <c:axId val="1144117968"/>
+        <c:axId val="-1815841072"/>
+        <c:axId val="-1815837808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1144116336"/>
+        <c:axId val="-1815841072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +2684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144117968"/>
+        <c:crossAx val="-1815837808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2699,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1144117968"/>
+        <c:axId val="-1815837808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144116336"/>
+        <c:crossAx val="-1815841072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2764,7 +2757,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2876,7 +2868,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2977,7 +2968,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3102,7 +3092,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3174,11 +3163,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1144118512"/>
-        <c:axId val="1144119600"/>
+        <c:axId val="-1650307920"/>
+        <c:axId val="-1544638352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1144118512"/>
+        <c:axId val="-1650307920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144119600"/>
+        <c:crossAx val="-1544638352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3229,7 +3218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1144119600"/>
+        <c:axId val="-1544638352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144118512"/>
+        <c:crossAx val="-1650307920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3294,7 +3283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3401,7 +3389,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3502,7 +3489,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3627,7 +3613,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3699,11 +3684,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="913197920"/>
-        <c:axId val="913195200"/>
+        <c:axId val="-1544635632"/>
+        <c:axId val="-1544635088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="913197920"/>
+        <c:axId val="-1544635632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913195200"/>
+        <c:crossAx val="-1544635088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3754,7 +3739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913195200"/>
+        <c:axId val="-1544635088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,7 +3790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913197920"/>
+        <c:crossAx val="-1544635632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3819,7 +3804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3931,7 +3915,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4098,11 +4081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="913200640"/>
-        <c:axId val="1178978304"/>
+        <c:axId val="-1544623664"/>
+        <c:axId val="-1544632912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="913200640"/>
+        <c:axId val="-1544623664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1178978304"/>
+        <c:crossAx val="-1544632912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4153,7 +4136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1178978304"/>
+        <c:axId val="-1544632912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913200640"/>
+        <c:crossAx val="-1544623664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4218,7 +4201,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9404,7 +9386,7 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9468,30 +9450,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="47" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="48" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9546,11 +9528,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -12728,7 +12710,7 @@
         <v>26</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="47" t="s">
         <v>248</v>
       </c>
       <c r="G69" s="3"/>
@@ -12760,18 +12742,34 @@
       <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>253</v>
+      </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E70" s="8"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="3"/>
+      <c r="I70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K70" s="15">
+        <v>43031</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -12875,45 +12873,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="H3" s="52" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="H3" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="O3" s="55" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="O3" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -13074,45 +13072,45 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="H27" s="52" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="H27" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="O27" s="55" t="s">
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="O27" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -13149,11 +13147,11 @@
       </c>
       <c r="C29" s="2">
         <f>COUNTIFS('Tháng 10'!I16:I72,"Tư vấn trực tiếp")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="43">
         <f>C29/C32*100</f>
-        <v>38.888888888888893</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
@@ -13188,7 +13186,7 @@
       </c>
       <c r="D30" s="43">
         <f>C30/C32*100</f>
-        <v>55.555555555555557</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>29</v>
@@ -13223,7 +13221,7 @@
       </c>
       <c r="D31" s="43">
         <f>C31/C32*100</f>
-        <v>5.5555555555555554</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>114</v>
@@ -13254,7 +13252,7 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C29:C31)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2">
         <f>C32/C32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="254">
   <si>
     <t>Tên FB</t>
   </si>
@@ -1607,11 +1607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1650153968"/>
-        <c:axId val="-1650153424"/>
+        <c:axId val="-1233506144"/>
+        <c:axId val="-1233501248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1650153968"/>
+        <c:axId val="-1233506144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650153424"/>
+        <c:crossAx val="-1233501248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1650153424"/>
+        <c:axId val="-1233501248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650153968"/>
+        <c:crossAx val="-1233506144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1978,7 +1978,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -1987,7 +1987,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,13 +2102,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47.826086956521742</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.130434782608695</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.043478260869565</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>100</c:v>
@@ -2128,11 +2128,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1650151248"/>
-        <c:axId val="-1650142000"/>
+        <c:axId val="-1233497440"/>
+        <c:axId val="-1111074352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1650151248"/>
+        <c:axId val="-1233497440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650142000"/>
+        <c:crossAx val="-1111074352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2183,7 +2183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1650142000"/>
+        <c:axId val="-1111074352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650151248"/>
+        <c:crossAx val="-1233497440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2496,13 +2496,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,10 +2614,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>69.565217391304344</c:v>
+                  <c:v>70.833333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.434782608695656</c:v>
+                  <c:v>29.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>100</c:v>
@@ -2637,11 +2637,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1815841072"/>
-        <c:axId val="-1815837808"/>
+        <c:axId val="-1111075984"/>
+        <c:axId val="-1111073808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1815841072"/>
+        <c:axId val="-1111075984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815837808"/>
+        <c:crossAx val="-1111073808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1815837808"/>
+        <c:axId val="-1111073808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1815841072"/>
+        <c:crossAx val="-1111075984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3163,11 +3163,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1650307920"/>
-        <c:axId val="-1544638352"/>
+        <c:axId val="-1111072176"/>
+        <c:axId val="-1111083056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1650307920"/>
+        <c:axId val="-1111072176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544638352"/>
+        <c:crossAx val="-1111083056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1544638352"/>
+        <c:axId val="-1111083056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1650307920"/>
+        <c:crossAx val="-1111072176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3684,11 +3684,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1544635632"/>
-        <c:axId val="-1544635088"/>
+        <c:axId val="-1111071088"/>
+        <c:axId val="-1315639600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1544635632"/>
+        <c:axId val="-1111071088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +3731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544635088"/>
+        <c:crossAx val="-1315639600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3739,7 +3739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1544635088"/>
+        <c:axId val="-1315639600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,7 +3790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544635632"/>
+        <c:crossAx val="-1111071088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4081,11 +4081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1544623664"/>
-        <c:axId val="-1544632912"/>
+        <c:axId val="-1315638512"/>
+        <c:axId val="-1053555376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1544623664"/>
+        <c:axId val="-1315638512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,7 +4128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544632912"/>
+        <c:crossAx val="-1053555376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4136,7 +4136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1544632912"/>
+        <c:axId val="-1053555376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1544623664"/>
+        <c:crossAx val="-1315638512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12757,7 +12757,9 @@
       <c r="G70" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I70" s="2" t="s">
         <v>1</v>
       </c>
@@ -13158,22 +13160,22 @@
       </c>
       <c r="I29" s="2">
         <f>COUNTIFS('Tháng 10'!I16:I72,"Tư Vấn trực tiếp",'Tháng 10'!H16:H72,"X")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="43">
         <f>I29/I32*100</f>
-        <v>47.826086956521742</v>
+        <v>50</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>232</v>
       </c>
       <c r="P29" s="2">
         <f>COUNTIFS('Tháng 10'!H16:H72,"X",'Tháng 10'!G16:G72,"300 - 500")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="43">
         <f>P29/P31*100</f>
-        <v>69.565217391304344</v>
+        <v>70.833333333333343</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -13197,7 +13199,7 @@
       </c>
       <c r="J30" s="43">
         <f>I30/I32*100</f>
-        <v>39.130434782608695</v>
+        <v>37.5</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>233</v>
@@ -13208,7 +13210,7 @@
       </c>
       <c r="Q30" s="43">
         <f>P30/P31*100</f>
-        <v>30.434782608695656</v>
+        <v>29.166666666666668</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -13232,14 +13234,14 @@
       </c>
       <c r="J31" s="43">
         <f>I31/I32*100</f>
-        <v>13.043478260869565</v>
+        <v>12.5</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="P31" s="2">
         <f>SUM(P29:P30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="2">
         <f>P31/P31*100</f>
@@ -13263,7 +13265,7 @@
       </c>
       <c r="I32" s="2">
         <f>SUM(I29:I31)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J32" s="2">
         <f>I32/I32*100</f>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
     <sheet name="Thống kê Tháng 10" sheetId="3" r:id="rId3"/>
+    <sheet name="Tháng 11" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
@@ -1412,6 +1413,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1536,6 +1538,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1607,11 +1610,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1233506144"/>
-        <c:axId val="-1233501248"/>
+        <c:axId val="1844499792"/>
+        <c:axId val="1844500336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1233506144"/>
+        <c:axId val="1844499792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233501248"/>
+        <c:crossAx val="1844500336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1233501248"/>
+        <c:axId val="1844500336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233506144"/>
+        <c:crossAx val="1844499792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1727,6 +1730,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1833,6 +1837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1933,6 +1938,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2057,6 +2063,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2128,11 +2135,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1233497440"/>
-        <c:axId val="-1111074352"/>
+        <c:axId val="1844488368"/>
+        <c:axId val="1844499248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1233497440"/>
+        <c:axId val="1844488368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1111074352"/>
+        <c:crossAx val="1844499248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2183,7 +2190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1111074352"/>
+        <c:axId val="1844499248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1233497440"/>
+        <c:crossAx val="1844488368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2248,6 +2255,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2354,6 +2362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2454,6 +2463,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2572,6 +2582,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2637,11 +2648,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1111075984"/>
-        <c:axId val="-1111073808"/>
+        <c:axId val="1844498160"/>
+        <c:axId val="1844502512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1111075984"/>
+        <c:axId val="1844498160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1111073808"/>
+        <c:crossAx val="1844502512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1111073808"/>
+        <c:axId val="1844502512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1111075984"/>
+        <c:crossAx val="1844498160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2757,6 +2768,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,6 +2880,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2968,6 +2981,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3092,6 +3106,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3163,11 +3178,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1111072176"/>
-        <c:axId val="-1111083056"/>
+        <c:axId val="1686503744"/>
+        <c:axId val="1686505376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1111072176"/>
+        <c:axId val="1686503744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1111083056"/>
+        <c:crossAx val="1686505376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1111083056"/>
+        <c:axId val="1686505376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1111072176"/>
+        <c:crossAx val="1686503744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3283,6 +3298,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3389,6 +3405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3489,6 +3506,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3613,6 +3631,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3684,11 +3703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1111071088"/>
-        <c:axId val="-1315639600"/>
+        <c:axId val="1885143616"/>
+        <c:axId val="1885144160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1111071088"/>
+        <c:axId val="1885143616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +3750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315639600"/>
+        <c:crossAx val="1885144160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3739,7 +3758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315639600"/>
+        <c:axId val="1885144160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,7 +3809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1111071088"/>
+        <c:crossAx val="1885143616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3804,6 +3823,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3915,6 +3935,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4081,11 +4102,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1315638512"/>
-        <c:axId val="-1053555376"/>
+        <c:axId val="1885149600"/>
+        <c:axId val="1885155040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1315638512"/>
+        <c:axId val="1885149600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,7 +4149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053555376"/>
+        <c:crossAx val="1885155040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4136,7 +4157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1053555376"/>
+        <c:axId val="1885155040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315638512"/>
+        <c:crossAx val="1885149600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4201,6 +4222,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7971,7 +7993,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -9385,8 +9407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12860,8 +12882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13286,4 +13308,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
     <sheet name="Thống kê Tháng 10" sheetId="3" r:id="rId3"/>
-    <sheet name="Tháng 11" sheetId="5" r:id="rId4"/>
+    <sheet name="TOEIC Tháng 12" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="271">
   <si>
     <t>Tên FB</t>
   </si>
@@ -795,6 +795,57 @@
   </si>
   <si>
     <t>Trần Việt Bắc</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Mi Ni</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phúc</t>
+  </si>
+  <si>
+    <t>01672494740</t>
+  </si>
+  <si>
+    <t>TOEIC Tháng 12</t>
+  </si>
+  <si>
+    <t>Võ Tuấn Linh</t>
+  </si>
+  <si>
+    <t>01672301491</t>
+  </si>
+  <si>
+    <t>01672417871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc Duyên </t>
+  </si>
+  <si>
+    <t>Ngọc Duyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc </t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Huỳnh Kim Đính</t>
+  </si>
+  <si>
+    <t>Hồ Quý Ân</t>
+  </si>
+  <si>
+    <t>Ân Quý</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Phan Thị Quỳnh Liên</t>
+  </si>
+  <si>
+    <t>0932497649</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1077,6 +1128,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1091,7 +1155,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1266,103 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,6 +1398,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1413,7 +1592,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1538,7 +1716,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1610,11 +1787,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1844499792"/>
-        <c:axId val="1844500336"/>
+        <c:axId val="-1390396960"/>
+        <c:axId val="-1390392064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1844499792"/>
+        <c:axId val="-1390396960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844500336"/>
+        <c:crossAx val="-1390392064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,7 +1842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844500336"/>
+        <c:axId val="-1390392064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844499792"/>
+        <c:crossAx val="-1390396960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1730,7 +1907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1837,7 +2013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,7 +2113,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2063,7 +2237,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2135,11 +2308,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1844488368"/>
-        <c:axId val="1844499248"/>
+        <c:axId val="-1390398048"/>
+        <c:axId val="-1390396416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1844488368"/>
+        <c:axId val="-1390398048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844499248"/>
+        <c:crossAx val="-1390396416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844499248"/>
+        <c:axId val="-1390396416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844488368"/>
+        <c:crossAx val="-1390398048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,7 +2428,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2362,7 +2534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2463,7 +2634,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2582,7 +2752,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2648,11 +2817,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1844498160"/>
-        <c:axId val="1844502512"/>
+        <c:axId val="-1390394784"/>
+        <c:axId val="-1390395872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1844498160"/>
+        <c:axId val="-1390394784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +2864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844502512"/>
+        <c:crossAx val="-1390395872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2703,7 +2872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844502512"/>
+        <c:axId val="-1390395872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,7 +2923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844498160"/>
+        <c:crossAx val="-1390394784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2768,7 +2937,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2880,7 +3048,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2981,7 +3148,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3106,7 +3272,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3178,11 +3343,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1686503744"/>
-        <c:axId val="1686505376"/>
+        <c:axId val="-1390401312"/>
+        <c:axId val="-1390401856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1686503744"/>
+        <c:axId val="-1390401312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686505376"/>
+        <c:crossAx val="-1390401856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3233,7 +3398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1686505376"/>
+        <c:axId val="-1390401856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686503744"/>
+        <c:crossAx val="-1390401312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3298,7 +3463,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3405,7 +3569,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3506,7 +3669,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3631,7 +3793,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3703,11 +3864,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1885143616"/>
-        <c:axId val="1885144160"/>
+        <c:axId val="-1390399136"/>
+        <c:axId val="-1390390976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1885143616"/>
+        <c:axId val="-1390399136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885144160"/>
+        <c:crossAx val="-1390390976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3758,7 +3919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1885144160"/>
+        <c:axId val="-1390390976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,7 +3970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885143616"/>
+        <c:crossAx val="-1390399136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,7 +3984,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3935,7 +4095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4102,11 +4261,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1885149600"/>
-        <c:axId val="1885155040"/>
+        <c:axId val="-1390387712"/>
+        <c:axId val="-1390389344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1885149600"/>
+        <c:axId val="-1390387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885155040"/>
+        <c:crossAx val="-1390389344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4157,7 +4316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1885155040"/>
+        <c:axId val="-1390389344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885149600"/>
+        <c:crossAx val="-1390387712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4222,7 +4381,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7993,8 +8151,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9407,8 +9565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9472,30 +9630,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50" t="s">
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48" t="s">
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9550,11 +9708,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -12810,7 +12968,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="8"/>
@@ -12882,8 +13040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12897,45 +13055,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="H3" s="53" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="H3" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="O3" s="56" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="O3" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -13096,45 +13254,45 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="H27" s="53" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="H27" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="O27" s="56" t="s">
+      <c r="I27" s="89"/>
+      <c r="J27" s="90"/>
+      <c r="O27" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="93"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -13312,14 +13470,732 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+    </row>
+    <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="63">
+        <v>43034</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="64"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+    </row>
+    <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="15">
+        <v>43037</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="64"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+    </row>
+    <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>3</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="15">
+        <v>43049</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+    </row>
+    <row r="6" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>4</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="75"/>
+      <c r="K6" s="66">
+        <v>43050</v>
+      </c>
+      <c r="L6" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="64"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>5</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="15">
+        <v>43052</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="82"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
+        <v>6</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="15">
+        <v>43052</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="82"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>7</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="15">
+        <v>43052</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="82"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>8</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="82"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>9</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <v>10</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
+        <v>11</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="59">
+        <v>12</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>9</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <v>10</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="59">
+        <v>11</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="79"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="79"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="79"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="79"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="79"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="79"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="79"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="79"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="79"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="Y1:Y7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:U7"/>
+    <mergeCell ref="V1:V7"/>
+    <mergeCell ref="W1:W7"/>
+    <mergeCell ref="X1:X7"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="276">
   <si>
     <t>Tên FB</t>
   </si>
@@ -797,9 +797,6 @@
     <t>Trần Việt Bắc</t>
   </si>
   <si>
-    <t>Vũ Ngọc Mi Ni</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Phúc</t>
   </si>
   <si>
@@ -846,6 +843,24 @@
   </si>
   <si>
     <t>0932497649</t>
+  </si>
+  <si>
+    <t>Calla lily</t>
+  </si>
+  <si>
+    <t>Ielts</t>
+  </si>
+  <si>
+    <t>fb cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Khánh Ly </t>
+  </si>
+  <si>
+    <t>0917743756</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc My Ny</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1170,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,6 +1431,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1787,11 +1811,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1390396960"/>
-        <c:axId val="-1390392064"/>
+        <c:axId val="361297200"/>
+        <c:axId val="361290672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1390396960"/>
+        <c:axId val="361297200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390392064"/>
+        <c:crossAx val="361290672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1390392064"/>
+        <c:axId val="361290672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390396960"/>
+        <c:crossAx val="361297200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2308,11 +2332,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1390398048"/>
-        <c:axId val="-1390396416"/>
+        <c:axId val="361295568"/>
+        <c:axId val="361298832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1390398048"/>
+        <c:axId val="361295568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390396416"/>
+        <c:crossAx val="361298832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2363,7 +2387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1390396416"/>
+        <c:axId val="361298832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390398048"/>
+        <c:crossAx val="361295568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2817,11 +2841,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1390394784"/>
-        <c:axId val="-1390395872"/>
+        <c:axId val="361293936"/>
+        <c:axId val="361300464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1390394784"/>
+        <c:axId val="361293936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390395872"/>
+        <c:crossAx val="361300464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1390395872"/>
+        <c:axId val="361300464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390394784"/>
+        <c:crossAx val="361293936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3343,11 +3367,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1390401312"/>
-        <c:axId val="-1390401856"/>
+        <c:axId val="313216640"/>
+        <c:axId val="313222080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1390401312"/>
+        <c:axId val="313216640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390401856"/>
+        <c:crossAx val="313222080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3398,7 +3422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1390401856"/>
+        <c:axId val="313222080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,7 +3473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390401312"/>
+        <c:crossAx val="313216640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3864,11 +3888,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1390399136"/>
-        <c:axId val="-1390390976"/>
+        <c:axId val="313220448"/>
+        <c:axId val="314503360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1390399136"/>
+        <c:axId val="313220448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390390976"/>
+        <c:crossAx val="314503360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3919,7 +3943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1390390976"/>
+        <c:axId val="314503360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +3994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390399136"/>
+        <c:crossAx val="313220448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4261,11 +4285,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1390387712"/>
-        <c:axId val="-1390389344"/>
+        <c:axId val="314500096"/>
+        <c:axId val="314501184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1390387712"/>
+        <c:axId val="314500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390389344"/>
+        <c:crossAx val="314501184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4316,7 +4340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1390389344"/>
+        <c:axId val="314501184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,7 +4391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1390387712"/>
+        <c:crossAx val="314500096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13473,7 +13497,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13546,19 +13570,19 @@
       </c>
       <c r="S1" s="85"/>
       <c r="T1" s="85"/>
-      <c r="U1" s="83" t="s">
+      <c r="U1" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="X1" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="101" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13597,18 +13621,18 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>1</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="57" t="s">
@@ -13616,7 +13640,7 @@
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="61"/>
@@ -13638,18 +13662,18 @@
       <c r="R3" s="52"/>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
     </row>
     <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
         <v>2</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -13657,7 +13681,7 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -13679,18 +13703,18 @@
       <c r="R4" s="52"/>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
     </row>
     <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
         <v>3</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
@@ -13698,7 +13722,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -13706,7 +13730,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="15">
         <v>43049</v>
@@ -13715,7 +13739,7 @@
         <v>96</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
@@ -13724,18 +13748,18 @@
       <c r="R5" s="52"/>
       <c r="S5" s="53"/>
       <c r="T5" s="54"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-    </row>
-    <row r="6" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+    </row>
+    <row r="6" spans="1:25" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>4</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="80" t="s">
@@ -13743,7 +13767,7 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
@@ -13765,25 +13789,25 @@
       <c r="R6" s="70"/>
       <c r="S6" s="71"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -13792,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K7" s="15">
         <v>43052</v>
@@ -13801,32 +13825,56 @@
         <v>96</v>
       </c>
       <c r="M7" s="82"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>12</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="103">
+        <v>33</v>
+      </c>
+      <c r="V7" s="103">
+        <v>16</v>
+      </c>
+      <c r="W7" s="103">
+        <v>145</v>
+      </c>
+      <c r="X7" s="103">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="103">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>6</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -13835,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K8" s="15">
         <v>43052</v>
@@ -13844,32 +13892,56 @@
         <v>96</v>
       </c>
       <c r="M8" s="82"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
+      <c r="N8" s="41">
+        <v>7</v>
+      </c>
+      <c r="O8" s="41">
+        <v>13</v>
+      </c>
+      <c r="P8" s="41">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>11</v>
+      </c>
+      <c r="R8" s="41">
+        <v>21</v>
+      </c>
+      <c r="S8" s="41">
+        <v>3</v>
+      </c>
+      <c r="T8" s="41">
+        <v>10</v>
+      </c>
+      <c r="U8" s="41">
+        <v>37</v>
+      </c>
+      <c r="V8" s="41">
+        <v>34</v>
+      </c>
+      <c r="W8" s="41">
+        <v>170</v>
+      </c>
+      <c r="X8" s="41">
+        <v>115</v>
+      </c>
+      <c r="Y8" s="41">
+        <v>285</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>7</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -13878,7 +13950,7 @@
         <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K9" s="15">
         <v>43052</v>
@@ -13887,41 +13959,69 @@
         <v>96</v>
       </c>
       <c r="M9" s="82"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="N9" s="2">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2">
+        <v>14</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>11</v>
+      </c>
+      <c r="R9" s="2">
+        <v>16</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2">
+        <v>38</v>
+      </c>
+      <c r="V9" s="2">
+        <v>26</v>
+      </c>
+      <c r="W9" s="2">
+        <v>175</v>
+      </c>
+      <c r="X9" s="2">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>240</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>8</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="15"/>
+        <v>256</v>
+      </c>
+      <c r="K10" s="15">
+        <v>43052</v>
+      </c>
       <c r="L10" s="56" t="s">
         <v>21</v>
       </c>
@@ -13943,17 +14043,29 @@
       <c r="A11" s="60">
         <v>9</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="77" t="s">
+        <v>270</v>
+      </c>
       <c r="C11" s="28"/>
       <c r="D11" s="27"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28" t="s">
+        <v>270</v>
+      </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="57"/>
+      <c r="I11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="30">
+        <v>43055</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M11" s="61"/>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
@@ -13972,18 +14084,34 @@
       <c r="A12" s="59">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="78" t="s">
+        <v>273</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="82"/>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" s="15">
+        <v>43056</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>271</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -14174,26 +14302,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Y1:Y7"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:U7"/>
-    <mergeCell ref="V1:V7"/>
-    <mergeCell ref="W1:W7"/>
-    <mergeCell ref="X1:X7"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="279">
   <si>
     <t>Tên FB</t>
   </si>
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t>Vũ Ngọc My Ny</t>
+  </si>
+  <si>
+    <t>Phạm Phương</t>
+  </si>
+  <si>
+    <t>Xuân Quỳnh</t>
+  </si>
+  <si>
+    <t>Xuân Quỳnh Nguyễn</t>
   </si>
 </sst>
 </file>
@@ -1378,6 +1387,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,16 +1432,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1437,9 +1449,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1811,11 +1820,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361297200"/>
-        <c:axId val="361290672"/>
+        <c:axId val="1870186944"/>
+        <c:axId val="1870176608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361297200"/>
+        <c:axId val="1870186944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361290672"/>
+        <c:crossAx val="1870176608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361290672"/>
+        <c:axId val="1870176608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361297200"/>
+        <c:crossAx val="1870186944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2332,11 +2341,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361295568"/>
-        <c:axId val="361298832"/>
+        <c:axId val="1870173344"/>
+        <c:axId val="1870185312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361295568"/>
+        <c:axId val="1870173344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361298832"/>
+        <c:crossAx val="1870185312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2387,7 +2396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361298832"/>
+        <c:axId val="1870185312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361295568"/>
+        <c:crossAx val="1870173344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2841,11 +2850,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="361293936"/>
-        <c:axId val="361300464"/>
+        <c:axId val="1870177696"/>
+        <c:axId val="1870179328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361293936"/>
+        <c:axId val="1870177696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,7 +2897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361300464"/>
+        <c:crossAx val="1870179328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2896,7 +2905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361300464"/>
+        <c:axId val="1870179328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361293936"/>
+        <c:crossAx val="1870177696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3367,11 +3376,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313216640"/>
-        <c:axId val="313222080"/>
+        <c:axId val="1870184768"/>
+        <c:axId val="1870172800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313216640"/>
+        <c:axId val="1870184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313222080"/>
+        <c:crossAx val="1870172800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3422,7 +3431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313222080"/>
+        <c:axId val="1870172800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313216640"/>
+        <c:crossAx val="1870184768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3888,11 +3897,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313220448"/>
-        <c:axId val="314503360"/>
+        <c:axId val="1697827520"/>
+        <c:axId val="1697831872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313220448"/>
+        <c:axId val="1697827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,7 +3944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314503360"/>
+        <c:crossAx val="1697831872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3943,7 +3952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314503360"/>
+        <c:axId val="1697831872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +4003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313220448"/>
+        <c:crossAx val="1697827520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4285,11 +4294,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314500096"/>
-        <c:axId val="314501184"/>
+        <c:axId val="1931954320"/>
+        <c:axId val="1931964112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314500096"/>
+        <c:axId val="1931954320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,7 +4341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314501184"/>
+        <c:crossAx val="1931964112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4340,7 +4349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314501184"/>
+        <c:axId val="1931964112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314500096"/>
+        <c:crossAx val="1931954320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9654,30 +9663,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="83" t="s">
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="X1" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="84" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9732,11 +9741,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -13079,45 +13088,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="H3" s="88" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="H3" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="O3" s="91" t="s">
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
+      <c r="O3" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="94"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -13278,45 +13287,45 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="H27" s="88" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="H27" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
-      <c r="O27" s="91" t="s">
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="O27" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -13494,10 +13503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13520,86 +13529,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="101" t="s">
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="101" t="s">
+      <c r="V1" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="101" t="s">
+      <c r="W1" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="101" t="s">
+      <c r="X1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="101" t="s">
+      <c r="Y1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13621,11 +13630,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -13662,11 +13671,11 @@
       <c r="R3" s="52"/>
       <c r="S3" s="53"/>
       <c r="T3" s="54"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
     </row>
     <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
@@ -13703,11 +13712,11 @@
       <c r="R4" s="52"/>
       <c r="S4" s="53"/>
       <c r="T4" s="54"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
     </row>
     <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
@@ -13748,11 +13757,11 @@
       <c r="R5" s="52"/>
       <c r="S5" s="53"/>
       <c r="T5" s="54"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
     </row>
     <row r="6" spans="1:25" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
@@ -13789,11 +13798,11 @@
       <c r="R6" s="70"/>
       <c r="S6" s="71"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -13846,19 +13855,19 @@
       <c r="T7" s="2">
         <v>1</v>
       </c>
-      <c r="U7" s="103">
+      <c r="U7" s="83">
         <v>33</v>
       </c>
-      <c r="V7" s="103">
+      <c r="V7" s="83">
         <v>16</v>
       </c>
-      <c r="W7" s="103">
+      <c r="W7" s="83">
         <v>145</v>
       </c>
-      <c r="X7" s="103">
+      <c r="X7" s="83">
         <v>10</v>
       </c>
-      <c r="Y7" s="103">
+      <c r="Y7" s="83">
         <v>155</v>
       </c>
     </row>
@@ -14129,17 +14138,29 @@
       <c r="A13" s="59">
         <v>11</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="78" t="s">
+        <v>276</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="56"/>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="15">
+        <v>43057</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -14158,17 +14179,29 @@
       <c r="A14" s="59">
         <v>12</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="78" t="s">
+        <v>277</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="56"/>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="15">
+        <v>43057</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -14185,7 +14218,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="78"/>
       <c r="C15" s="2"/>
@@ -14213,37 +14246,37 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>10</v>
-      </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
+      <c r="A16" s="59">
+        <v>14</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="78"/>
       <c r="C17" s="2"/>
@@ -14255,7 +14288,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -14271,22 +14304,176 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
+      <c r="A18" s="59">
+        <v>16</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
+      <c r="A19" s="59">
+        <v>17</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
+      <c r="A20" s="59">
+        <v>18</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
+      <c r="A21" s="59">
+        <v>19</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
+      <c r="A22" s="60">
+        <v>20</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="79"/>
@@ -14300,28 +14487,46 @@
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="79"/>
     </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="79"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="79"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="79"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="79"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="79"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="280">
   <si>
     <t>Tên FB</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Xuân Quỳnh Nguyễn</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1426,6 +1429,12 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,12 +1451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1625,6 +1628,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1749,6 +1753,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1820,11 +1825,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1870186944"/>
-        <c:axId val="1870176608"/>
+        <c:axId val="-1119446992"/>
+        <c:axId val="-1119446448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1870186944"/>
+        <c:axId val="-1119446992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870176608"/>
+        <c:crossAx val="-1119446448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1870176608"/>
+        <c:axId val="-1119446448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870186944"/>
+        <c:crossAx val="-1119446992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,6 +1945,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2046,6 +2052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2146,6 +2153,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2270,6 +2278,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2341,11 +2350,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1870173344"/>
-        <c:axId val="1870185312"/>
+        <c:axId val="-1119442096"/>
+        <c:axId val="-1119436656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1870173344"/>
+        <c:axId val="-1119442096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870185312"/>
+        <c:crossAx val="-1119436656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2396,7 +2405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1870185312"/>
+        <c:axId val="-1119436656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870173344"/>
+        <c:crossAx val="-1119442096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2461,6 +2470,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2567,6 +2577,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2667,6 +2678,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2785,6 +2797,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2850,11 +2863,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1870177696"/>
-        <c:axId val="1870179328"/>
+        <c:axId val="-1119442640"/>
+        <c:axId val="-1119441552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1870177696"/>
+        <c:axId val="-1119442640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +2910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870179328"/>
+        <c:crossAx val="-1119441552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,7 +2918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1870179328"/>
+        <c:axId val="-1119441552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +2969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870177696"/>
+        <c:crossAx val="-1119442640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2970,6 +2983,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3081,6 +3095,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3181,6 +3196,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3305,6 +3321,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3376,11 +3393,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1870184768"/>
-        <c:axId val="1870172800"/>
+        <c:axId val="-1119440464"/>
+        <c:axId val="-1119437744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1870184768"/>
+        <c:axId val="-1119440464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,7 +3440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870172800"/>
+        <c:crossAx val="-1119437744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3431,7 +3448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1870172800"/>
+        <c:axId val="-1119437744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,7 +3499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1870184768"/>
+        <c:crossAx val="-1119440464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,6 +3513,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3602,6 +3620,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3702,6 +3721,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3826,6 +3846,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3897,11 +3918,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1697827520"/>
-        <c:axId val="1697831872"/>
+        <c:axId val="-1250460320"/>
+        <c:axId val="-1115711536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1697827520"/>
+        <c:axId val="-1250460320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +3965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697831872"/>
+        <c:crossAx val="-1115711536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3952,7 +3973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697831872"/>
+        <c:axId val="-1115711536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4003,7 +4024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697827520"/>
+        <c:crossAx val="-1250460320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4017,6 +4038,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4128,6 +4150,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4294,11 +4317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1931954320"/>
-        <c:axId val="1931964112"/>
+        <c:axId val="-1115707728"/>
+        <c:axId val="-1115709904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1931954320"/>
+        <c:axId val="-1115707728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,7 +4364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1931964112"/>
+        <c:crossAx val="-1115709904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4349,7 +4372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1931964112"/>
+        <c:axId val="-1115709904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +4423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1931954320"/>
+        <c:crossAx val="-1115707728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4414,6 +4437,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13073,7 +13097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -13505,8 +13529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13529,43 +13553,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13579,36 +13603,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="96" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13630,11 +13654,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -13819,8 +13843,12 @@
         <v>255</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="17" t="s">
         <v>1</v>
       </c>
@@ -13886,8 +13914,12 @@
         <v>258</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="17" t="s">
         <v>1</v>
       </c>
@@ -13953,8 +13985,12 @@
         <v>259</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>101</v>
       </c>
@@ -14020,8 +14056,12 @@
         <v>269</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>272</v>
       </c>
@@ -14507,16 +14547,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14527,6 +14557,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="280">
   <si>
     <t>Tên FB</t>
   </si>
@@ -1429,16 +1429,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,10 +1447,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1628,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1753,7 +1752,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1825,11 +1823,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1119446992"/>
-        <c:axId val="-1119446448"/>
+        <c:axId val="-885360544"/>
+        <c:axId val="-885364896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1119446992"/>
+        <c:axId val="-885360544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119446448"/>
+        <c:crossAx val="-885364896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1880,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1119446448"/>
+        <c:axId val="-885364896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119446992"/>
+        <c:crossAx val="-885360544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,7 +1943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2052,7 +2049,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2153,7 +2149,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2278,7 +2273,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2350,11 +2344,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1119442096"/>
-        <c:axId val="-1119436656"/>
+        <c:axId val="-885360000"/>
+        <c:axId val="-885363264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1119442096"/>
+        <c:axId val="-885360000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119436656"/>
+        <c:crossAx val="-885363264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2405,7 +2399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1119436656"/>
+        <c:axId val="-885363264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119442096"/>
+        <c:crossAx val="-885360000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2470,7 +2464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2577,7 +2570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2678,7 +2670,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2797,7 +2788,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2863,11 +2853,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1119442640"/>
-        <c:axId val="-1119441552"/>
+        <c:axId val="-885362176"/>
+        <c:axId val="-885361632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1119442640"/>
+        <c:axId val="-885362176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119441552"/>
+        <c:crossAx val="-885361632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2918,7 +2908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1119441552"/>
+        <c:axId val="-885361632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +2959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119442640"/>
+        <c:crossAx val="-885362176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2983,7 +2973,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3095,7 +3084,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3196,7 +3184,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3321,7 +3308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3393,11 +3379,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1119440464"/>
-        <c:axId val="-1119437744"/>
+        <c:axId val="-885371968"/>
+        <c:axId val="-885368160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1119440464"/>
+        <c:axId val="-885371968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119437744"/>
+        <c:crossAx val="-885368160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3448,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1119437744"/>
+        <c:axId val="-885368160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,7 +3485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119440464"/>
+        <c:crossAx val="-885371968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,7 +3499,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3620,7 +3605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3721,7 +3705,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3846,7 +3829,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3918,11 +3900,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1250460320"/>
-        <c:axId val="-1115711536"/>
+        <c:axId val="-885367616"/>
+        <c:axId val="-885372512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1250460320"/>
+        <c:axId val="-885367616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,7 +3947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1115711536"/>
+        <c:crossAx val="-885372512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3973,7 +3955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1115711536"/>
+        <c:axId val="-885372512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1250460320"/>
+        <c:crossAx val="-885367616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4038,7 +4020,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4150,7 +4131,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4317,11 +4297,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1115707728"/>
-        <c:axId val="-1115709904"/>
+        <c:axId val="-1052188240"/>
+        <c:axId val="-1052184976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1115707728"/>
+        <c:axId val="-1052188240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1115709904"/>
+        <c:crossAx val="-1052184976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4372,7 +4352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1115709904"/>
+        <c:axId val="-1052184976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4423,7 +4403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1115707728"/>
+        <c:crossAx val="-1052188240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4437,7 +4417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13529,8 +13508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13553,43 +13532,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="96" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13603,36 +13582,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13654,11 +13633,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14187,8 +14166,12 @@
       <c r="F13" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
@@ -14547,6 +14530,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14557,16 +14550,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="281">
   <si>
     <t>Tên FB</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Đức</t>
   </si>
 </sst>
 </file>
@@ -1429,16 +1432,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,10 +1450,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,6 +1631,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1752,6 +1756,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1823,11 +1828,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-885360544"/>
-        <c:axId val="-885364896"/>
+        <c:axId val="-910620320"/>
+        <c:axId val="-910618688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-885360544"/>
+        <c:axId val="-910620320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885364896"/>
+        <c:crossAx val="-910618688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1878,7 +1883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-885364896"/>
+        <c:axId val="-910618688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885360544"/>
+        <c:crossAx val="-910620320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1943,6 +1948,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2049,6 +2055,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2149,6 +2156,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2273,6 +2281,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2344,11 +2353,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-885360000"/>
-        <c:axId val="-885363264"/>
+        <c:axId val="-910630656"/>
+        <c:axId val="-910623040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-885360000"/>
+        <c:axId val="-910630656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885363264"/>
+        <c:crossAx val="-910623040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-885363264"/>
+        <c:axId val="-910623040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,7 +2459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885360000"/>
+        <c:crossAx val="-910630656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2464,6 +2473,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2570,6 +2580,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2670,6 +2681,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2788,6 +2800,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2853,11 +2866,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-885362176"/>
-        <c:axId val="-885361632"/>
+        <c:axId val="-910629568"/>
+        <c:axId val="-910626304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-885362176"/>
+        <c:axId val="-910629568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885361632"/>
+        <c:crossAx val="-910626304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2908,7 +2921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-885361632"/>
+        <c:axId val="-910626304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +2972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885362176"/>
+        <c:crossAx val="-910629568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2973,6 +2986,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3084,6 +3098,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3184,6 +3199,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3308,6 +3324,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3379,11 +3396,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-885371968"/>
-        <c:axId val="-885368160"/>
+        <c:axId val="-910621952"/>
+        <c:axId val="-910617600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-885371968"/>
+        <c:axId val="-910621952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885368160"/>
+        <c:crossAx val="-910617600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,7 +3451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-885368160"/>
+        <c:axId val="-910617600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,7 +3502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885371968"/>
+        <c:crossAx val="-910621952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3499,6 +3516,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3605,6 +3623,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3705,6 +3724,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3829,6 +3849,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3900,11 +3921,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-885367616"/>
-        <c:axId val="-885372512"/>
+        <c:axId val="-910616512"/>
+        <c:axId val="-1079975536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-885367616"/>
+        <c:axId val="-910616512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,7 +3968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885372512"/>
+        <c:crossAx val="-1079975536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3955,7 +3976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-885372512"/>
+        <c:axId val="-1079975536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-885367616"/>
+        <c:crossAx val="-910616512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4020,6 +4041,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4121,16 +4143,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Khóa</a:t>
+              <a:t>Khóa đăng ký</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> đăng ký</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4191,6 +4209,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Thống kê Tháng 10'!$O$5:$O$7</c:f>
@@ -4251,6 +4328,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Thống kê Tháng 10'!$O$5:$O$7</c:f>
@@ -4288,8 +4424,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4297,11 +4434,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1052188240"/>
-        <c:axId val="-1052184976"/>
+        <c:axId val="-844353792"/>
+        <c:axId val="-844357056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1052188240"/>
+        <c:axId val="-844353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,7 +4481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052184976"/>
+        <c:crossAx val="-844357056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4352,7 +4489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052184976"/>
+        <c:axId val="-844357056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052188240"/>
+        <c:crossAx val="-844353792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4417,6 +4554,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13076,8 +13214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13509,7 +13647,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13532,43 +13670,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="98" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13582,36 +13720,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="96" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13633,11 +13771,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14243,17 +14381,31 @@
       <c r="A15" s="59">
         <v>13</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="78" t="s">
+        <v>249</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="56"/>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="15">
+        <v>43057</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -14272,16 +14424,28 @@
       <c r="A16" s="59">
         <v>14</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="78" t="s">
+        <v>280</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="15"/>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="15">
+        <v>43057</v>
+      </c>
       <c r="L16" s="56"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -14301,17 +14465,31 @@
       <c r="A17" s="59">
         <v>15</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="78" t="s">
+        <v>218</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="56"/>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="15">
+        <v>43057</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -14530,16 +14708,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14550,6 +14718,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="282">
   <si>
     <t>Tên FB</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>Đức</t>
+  </si>
+  <si>
+    <t>Giọt</t>
   </si>
 </sst>
 </file>
@@ -1432,16 +1435,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,10 +1453,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,7 +1634,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1756,7 +1758,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1828,11 +1829,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-910620320"/>
-        <c:axId val="-910618688"/>
+        <c:axId val="-1705143616"/>
+        <c:axId val="-1705135456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-910620320"/>
+        <c:axId val="-1705143616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910618688"/>
+        <c:crossAx val="-1705135456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1883,7 +1884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-910618688"/>
+        <c:axId val="-1705135456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910620320"/>
+        <c:crossAx val="-1705143616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1948,7 +1949,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2055,7 +2055,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2156,7 +2155,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2281,7 +2279,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2353,11 +2350,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-910630656"/>
-        <c:axId val="-910623040"/>
+        <c:axId val="-1705133824"/>
+        <c:axId val="-1705144704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-910630656"/>
+        <c:axId val="-1705133824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910623040"/>
+        <c:crossAx val="-1705144704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2408,7 +2405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-910623040"/>
+        <c:axId val="-1705144704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910630656"/>
+        <c:crossAx val="-1705133824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2473,7 +2470,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2580,7 +2576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2681,7 +2676,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2800,7 +2794,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2866,11 +2859,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-910629568"/>
-        <c:axId val="-910626304"/>
+        <c:axId val="-1705132736"/>
+        <c:axId val="-1705132192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-910629568"/>
+        <c:axId val="-1705132736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +2906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910626304"/>
+        <c:crossAx val="-1705132192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2921,7 +2914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-910626304"/>
+        <c:axId val="-1705132192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +2965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910629568"/>
+        <c:crossAx val="-1705132736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2986,7 +2979,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3098,7 +3090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3199,7 +3190,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3324,7 +3314,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3396,11 +3385,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-910621952"/>
-        <c:axId val="-910617600"/>
+        <c:axId val="-1705130560"/>
+        <c:axId val="-1705130016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-910621952"/>
+        <c:axId val="-1705130560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910617600"/>
+        <c:crossAx val="-1705130016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3451,7 +3440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-910617600"/>
+        <c:axId val="-1705130016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +3491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910621952"/>
+        <c:crossAx val="-1705130560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,7 +3505,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3623,7 +3611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3724,7 +3711,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3849,7 +3835,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3921,11 +3906,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-910616512"/>
-        <c:axId val="-1079975536"/>
+        <c:axId val="-1871313296"/>
+        <c:axId val="-1871312752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-910616512"/>
+        <c:axId val="-1871313296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +3953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1079975536"/>
+        <c:crossAx val="-1871312752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3976,7 +3961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1079975536"/>
+        <c:axId val="-1871312752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,7 +4012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-910616512"/>
+        <c:crossAx val="-1871313296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4041,7 +4026,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4148,7 +4132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4249,7 +4232,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4368,7 +4350,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4434,11 +4415,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-844353792"/>
-        <c:axId val="-844357056"/>
+        <c:axId val="-1871310576"/>
+        <c:axId val="-1643784432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-844353792"/>
+        <c:axId val="-1871310576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-844357056"/>
+        <c:crossAx val="-1643784432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4489,7 +4470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-844357056"/>
+        <c:axId val="-1643784432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4540,7 +4521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-844353792"/>
+        <c:crossAx val="-1871310576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4554,7 +4535,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13647,7 +13627,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13670,43 +13650,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="96" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13720,36 +13700,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13771,11 +13751,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14508,17 +14488,31 @@
       <c r="A18" s="59">
         <v>16</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="78" t="s">
+        <v>281</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="56"/>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K18" s="15">
+        <v>43066</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -14708,6 +14702,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14718,16 +14722,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="286">
   <si>
     <t>Tên FB</t>
   </si>
@@ -879,6 +879,18 @@
   </si>
   <si>
     <t>Giọt</t>
+  </si>
+  <si>
+    <t>Lê Châu Anh Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Trúc Quỳnh</t>
+  </si>
+  <si>
+    <t>01643963152</t>
+  </si>
+  <si>
+    <t>01263599924</t>
   </si>
 </sst>
 </file>
@@ -1435,16 +1447,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,10 +1465,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,11 +1841,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1705143616"/>
-        <c:axId val="-1705135456"/>
+        <c:axId val="-244612480"/>
+        <c:axId val="-244607584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1705143616"/>
+        <c:axId val="-244612480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705135456"/>
+        <c:crossAx val="-244607584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1884,7 +1896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1705135456"/>
+        <c:axId val="-244607584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705143616"/>
+        <c:crossAx val="-244612480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2350,11 +2362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1705133824"/>
-        <c:axId val="-1705144704"/>
+        <c:axId val="-244619552"/>
+        <c:axId val="-244611392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1705133824"/>
+        <c:axId val="-244619552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705144704"/>
+        <c:crossAx val="-244611392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2405,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1705144704"/>
+        <c:axId val="-244611392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705133824"/>
+        <c:crossAx val="-244619552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,11 +2871,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1705132736"/>
-        <c:axId val="-1705132192"/>
+        <c:axId val="-296995440"/>
+        <c:axId val="-296993808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1705132736"/>
+        <c:axId val="-296995440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,7 +2918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705132192"/>
+        <c:crossAx val="-296993808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2914,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1705132192"/>
+        <c:axId val="-296993808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705132736"/>
+        <c:crossAx val="-296995440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,11 +3397,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1705130560"/>
-        <c:axId val="-1705130016"/>
+        <c:axId val="-106474800"/>
+        <c:axId val="-106479152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1705130560"/>
+        <c:axId val="-106474800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705130016"/>
+        <c:crossAx val="-106479152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1705130016"/>
+        <c:axId val="-106479152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1705130560"/>
+        <c:crossAx val="-106474800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3906,11 +3918,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1871313296"/>
-        <c:axId val="-1871312752"/>
+        <c:axId val="-106467728"/>
+        <c:axId val="-106468816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1871313296"/>
+        <c:axId val="-106467728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3953,7 +3965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1871312752"/>
+        <c:crossAx val="-106468816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3961,7 +3973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1871312752"/>
+        <c:axId val="-106468816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4012,7 +4024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1871313296"/>
+        <c:crossAx val="-106467728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,11 +4427,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1871310576"/>
-        <c:axId val="-1643784432"/>
+        <c:axId val="-106482416"/>
+        <c:axId val="-106481328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1871310576"/>
+        <c:axId val="-106482416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4462,7 +4474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1643784432"/>
+        <c:crossAx val="-106481328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4470,7 +4482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1643784432"/>
+        <c:axId val="-106481328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1871310576"/>
+        <c:crossAx val="-106482416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13627,7 +13639,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13650,43 +13662,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="98" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13700,36 +13712,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="96" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13751,11 +13763,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14531,17 +14543,31 @@
       <c r="A19" s="59">
         <v>17</v>
       </c>
-      <c r="B19" s="78"/>
+      <c r="B19" s="78" t="s">
+        <v>282</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>285</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="56"/>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="15">
+        <v>43068</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -14560,17 +14586,31 @@
       <c r="A20" s="59">
         <v>18</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="78" t="s">
+        <v>283</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="56"/>
+      <c r="I20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="15">
+        <v>43068</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -14702,16 +14742,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14722,6 +14752,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="288">
   <si>
     <t>Tên FB</t>
   </si>
@@ -891,6 +891,12 @@
   </si>
   <si>
     <t>01263599924</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh Nhi</t>
+  </si>
+  <si>
+    <t>01633109974</t>
   </si>
 </sst>
 </file>
@@ -1447,16 +1453,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1465,10 +1471,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,11 +1847,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-244612480"/>
-        <c:axId val="-244607584"/>
+        <c:axId val="-1842070864"/>
+        <c:axId val="-1842068688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-244612480"/>
+        <c:axId val="-1842070864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-244607584"/>
+        <c:crossAx val="-1842068688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-244607584"/>
+        <c:axId val="-1842068688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-244612480"/>
+        <c:crossAx val="-1842070864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,11 +2368,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-244619552"/>
-        <c:axId val="-244611392"/>
+        <c:axId val="-1842065424"/>
+        <c:axId val="-1842066512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-244619552"/>
+        <c:axId val="-1842065424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-244611392"/>
+        <c:crossAx val="-1842066512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-244611392"/>
+        <c:axId val="-1842066512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-244619552"/>
+        <c:crossAx val="-1842065424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2871,11 +2877,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-296995440"/>
-        <c:axId val="-296993808"/>
+        <c:axId val="-2083021840"/>
+        <c:axId val="-1805084304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-296995440"/>
+        <c:axId val="-2083021840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +2924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-296993808"/>
+        <c:crossAx val="-1805084304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2926,7 +2932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-296993808"/>
+        <c:axId val="-1805084304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,7 +2983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-296995440"/>
+        <c:crossAx val="-2083021840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3397,11 +3403,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-106474800"/>
-        <c:axId val="-106479152"/>
+        <c:axId val="-1805090288"/>
+        <c:axId val="-1805087568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-106474800"/>
+        <c:axId val="-1805090288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106479152"/>
+        <c:crossAx val="-1805087568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3452,7 +3458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-106479152"/>
+        <c:axId val="-1805087568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106474800"/>
+        <c:crossAx val="-1805090288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3918,11 +3924,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-106467728"/>
-        <c:axId val="-106468816"/>
+        <c:axId val="-1805089744"/>
+        <c:axId val="-1805098448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-106467728"/>
+        <c:axId val="-1805089744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,7 +3971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106468816"/>
+        <c:crossAx val="-1805098448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3973,7 +3979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-106468816"/>
+        <c:axId val="-1805098448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106467728"/>
+        <c:crossAx val="-1805089744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4427,11 +4433,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-106482416"/>
-        <c:axId val="-106481328"/>
+        <c:axId val="-1805093552"/>
+        <c:axId val="-1805088112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-106482416"/>
+        <c:axId val="-1805093552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,7 +4480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106481328"/>
+        <c:crossAx val="-1805088112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4482,7 +4488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-106481328"/>
+        <c:axId val="-1805088112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4533,7 +4539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106482416"/>
+        <c:crossAx val="-1805093552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13639,7 +13645,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13662,43 +13668,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="96" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13712,36 +13718,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13763,11 +13769,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14629,17 +14635,33 @@
       <c r="A21" s="59">
         <v>19</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="78" t="s">
+        <v>286</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K21" s="15">
+        <v>43069</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -14742,6 +14764,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14752,16 +14784,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="289">
   <si>
     <t>Tên FB</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>01633109974</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1453,16 +1456,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1471,10 +1474,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1847,11 +1850,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1842070864"/>
-        <c:axId val="-1842068688"/>
+        <c:axId val="1100916864"/>
+        <c:axId val="1100905440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1842070864"/>
+        <c:axId val="1100916864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842068688"/>
+        <c:crossAx val="1100905440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842068688"/>
+        <c:axId val="1100905440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842070864"/>
+        <c:crossAx val="1100916864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2368,11 +2371,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1842065424"/>
-        <c:axId val="-1842066512"/>
+        <c:axId val="1100910880"/>
+        <c:axId val="1100915232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1842065424"/>
+        <c:axId val="1100910880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842066512"/>
+        <c:crossAx val="1100915232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2423,7 +2426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842066512"/>
+        <c:axId val="1100915232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +2477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842065424"/>
+        <c:crossAx val="1100910880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,11 +2880,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2083021840"/>
-        <c:axId val="-1805084304"/>
+        <c:axId val="1100905984"/>
+        <c:axId val="1100914144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083021840"/>
+        <c:axId val="1100905984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805084304"/>
+        <c:crossAx val="1100914144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2932,7 +2935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805084304"/>
+        <c:axId val="1100914144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +2986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083021840"/>
+        <c:crossAx val="1100905984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3108,6 +3111,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3208,6 +3212,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3332,6 +3337,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3403,11 +3409,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805090288"/>
-        <c:axId val="-1805087568"/>
+        <c:axId val="1100913056"/>
+        <c:axId val="1100904352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805090288"/>
+        <c:axId val="1100913056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,7 +3456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805087568"/>
+        <c:crossAx val="1100904352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3458,7 +3464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805087568"/>
+        <c:axId val="1100904352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805090288"/>
+        <c:crossAx val="1100913056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3523,6 +3529,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3629,6 +3636,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3729,6 +3737,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3853,6 +3862,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3924,11 +3934,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805089744"/>
-        <c:axId val="-1805098448"/>
+        <c:axId val="1100902720"/>
+        <c:axId val="1100908160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805089744"/>
+        <c:axId val="1100902720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,7 +3981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805098448"/>
+        <c:crossAx val="1100908160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3979,7 +3989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805098448"/>
+        <c:axId val="1100908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4030,7 +4040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805089744"/>
+        <c:crossAx val="1100902720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4044,6 +4054,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4150,6 +4161,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4250,6 +4262,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4368,6 +4381,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4433,11 +4447,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805093552"/>
-        <c:axId val="-1805088112"/>
+        <c:axId val="1100908704"/>
+        <c:axId val="1100911968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805093552"/>
+        <c:axId val="1100908704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805088112"/>
+        <c:crossAx val="1100911968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4488,7 +4502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805088112"/>
+        <c:axId val="1100911968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,7 +4553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805093552"/>
+        <c:crossAx val="1100908704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,6 +4567,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8323,8 +8338,8 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9738,7 +9753,7 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:L71"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13212,7 +13227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -13644,8 +13659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13668,43 +13683,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="98" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13718,36 +13733,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="96" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13769,11 +13784,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14107,7 +14122,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>256</v>
@@ -14474,7 +14489,9 @@
       <c r="F17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
         <v>29</v>
@@ -14560,10 +14577,14 @@
         <v>285</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>256</v>
@@ -14603,8 +14624,12 @@
         <v>284</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>272</v>
       </c>
@@ -14649,7 +14674,9 @@
       <c r="G21" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>1</v>
       </c>
@@ -14764,16 +14791,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14784,6 +14801,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="291">
   <si>
     <t>Tên FB</t>
   </si>
@@ -900,6 +900,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Đinh Thúy Hằng</t>
+  </si>
+  <si>
+    <t>01658616779</t>
   </si>
 </sst>
 </file>
@@ -1456,16 +1462,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,10 +1480,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1850,11 +1856,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1100916864"/>
-        <c:axId val="1100905440"/>
+        <c:axId val="1143081952"/>
+        <c:axId val="1143084128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1100916864"/>
+        <c:axId val="1143081952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100905440"/>
+        <c:crossAx val="1143084128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100905440"/>
+        <c:axId val="1143084128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100916864"/>
+        <c:crossAx val="1143081952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2371,11 +2377,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1100910880"/>
-        <c:axId val="1100915232"/>
+        <c:axId val="1148361104"/>
+        <c:axId val="1148363824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1100910880"/>
+        <c:axId val="1148361104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,7 +2424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100915232"/>
+        <c:crossAx val="1148363824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2426,7 +2432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100915232"/>
+        <c:axId val="1148363824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100910880"/>
+        <c:crossAx val="1148361104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2880,11 +2886,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1100905984"/>
-        <c:axId val="1100914144"/>
+        <c:axId val="1148364912"/>
+        <c:axId val="1148361648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1100905984"/>
+        <c:axId val="1148364912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100914144"/>
+        <c:crossAx val="1148361648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100914144"/>
+        <c:axId val="1148361648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100905984"/>
+        <c:crossAx val="1148364912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3111,7 +3117,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3212,7 +3217,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3337,7 +3341,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3409,11 +3412,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1100913056"/>
-        <c:axId val="1100904352"/>
+        <c:axId val="1148367632"/>
+        <c:axId val="1148362736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1100913056"/>
+        <c:axId val="1148367632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100904352"/>
+        <c:crossAx val="1148362736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3464,7 +3467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100904352"/>
+        <c:axId val="1148362736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100913056"/>
+        <c:crossAx val="1148367632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3529,7 +3532,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3636,7 +3638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3737,7 +3738,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3862,7 +3862,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3934,11 +3933,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1100902720"/>
-        <c:axId val="1100908160"/>
+        <c:axId val="1148366544"/>
+        <c:axId val="1148367088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1100902720"/>
+        <c:axId val="1148366544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100908160"/>
+        <c:crossAx val="1148367088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3989,7 +3988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100908160"/>
+        <c:axId val="1148367088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100902720"/>
+        <c:crossAx val="1148366544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4054,7 +4053,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4161,7 +4159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4262,7 +4259,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4381,7 +4377,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4447,11 +4442,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1100908704"/>
-        <c:axId val="1100911968"/>
+        <c:axId val="1144703776"/>
+        <c:axId val="1144699968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1100908704"/>
+        <c:axId val="1144703776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4494,7 +4489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100911968"/>
+        <c:crossAx val="1144699968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4502,7 +4497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1100911968"/>
+        <c:axId val="1144699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100908704"/>
+        <c:crossAx val="1144703776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4567,7 +4562,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13659,7 +13653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -13683,43 +13677,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="96" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13733,36 +13727,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13784,11 +13778,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14707,17 +14701,33 @@
       <c r="A22" s="60">
         <v>20</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="77" t="s">
+        <v>289</v>
+      </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>290</v>
+      </c>
       <c r="F22" s="28"/>
-      <c r="G22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>288</v>
+      </c>
       <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="57"/>
+      <c r="I22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K22" s="30">
+        <v>43071</v>
+      </c>
+      <c r="L22" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
@@ -14733,7 +14743,7 @@
       <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="78"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
@@ -14791,6 +14801,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14801,16 +14821,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="294">
   <si>
     <t>Tên FB</t>
   </si>
@@ -906,6 +906,15 @@
   </si>
   <si>
     <t>01658616779</t>
+  </si>
+  <si>
+    <t>Châu Hồ Bích Ngân</t>
+  </si>
+  <si>
+    <t>Bích Ngân</t>
+  </si>
+  <si>
+    <t>01219618701</t>
   </si>
 </sst>
 </file>
@@ -1462,16 +1471,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1480,10 +1489,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1856,11 +1865,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1143081952"/>
-        <c:axId val="1143084128"/>
+        <c:axId val="-2135674976"/>
+        <c:axId val="-2135666816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1143081952"/>
+        <c:axId val="-2135674976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143084128"/>
+        <c:crossAx val="-2135666816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1143084128"/>
+        <c:axId val="-2135666816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143081952"/>
+        <c:crossAx val="-2135674976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2377,11 +2386,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1148361104"/>
-        <c:axId val="1148363824"/>
+        <c:axId val="-2135662464"/>
+        <c:axId val="-207720736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1148361104"/>
+        <c:axId val="-2135662464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148363824"/>
+        <c:crossAx val="-207720736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2432,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148363824"/>
+        <c:axId val="-207720736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148361104"/>
+        <c:crossAx val="-2135662464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,11 +2895,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1148364912"/>
-        <c:axId val="1148361648"/>
+        <c:axId val="-207727264"/>
+        <c:axId val="-207726720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1148364912"/>
+        <c:axId val="-207727264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148361648"/>
+        <c:crossAx val="-207726720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2941,7 +2950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148361648"/>
+        <c:axId val="-207726720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +3001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148364912"/>
+        <c:crossAx val="-207727264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3412,11 +3421,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1148367632"/>
-        <c:axId val="1148362736"/>
+        <c:axId val="-2134236016"/>
+        <c:axId val="-2134237648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1148367632"/>
+        <c:axId val="-2134236016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148362736"/>
+        <c:crossAx val="-2134237648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3467,7 +3476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148362736"/>
+        <c:axId val="-2134237648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3518,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148367632"/>
+        <c:crossAx val="-2134236016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3933,11 +3942,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1148366544"/>
-        <c:axId val="1148367088"/>
+        <c:axId val="-2134235472"/>
+        <c:axId val="-2134237104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1148366544"/>
+        <c:axId val="-2134235472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3980,7 +3989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148367088"/>
+        <c:crossAx val="-2134237104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3988,7 +3997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148367088"/>
+        <c:axId val="-2134237104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4039,7 +4048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148366544"/>
+        <c:crossAx val="-2134235472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4442,11 +4451,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1144703776"/>
-        <c:axId val="1144699968"/>
+        <c:axId val="-2134233296"/>
+        <c:axId val="-2134234384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1144703776"/>
+        <c:axId val="-2134233296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4489,7 +4498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144699968"/>
+        <c:crossAx val="-2134234384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4497,7 +4506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1144699968"/>
+        <c:axId val="-2134234384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144703776"/>
+        <c:crossAx val="-2134233296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13651,10 +13660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13677,43 +13686,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="98" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="98" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13727,36 +13736,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="96" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13778,11 +13787,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14743,40 +14752,132 @@
       <c r="Y22" s="28"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="A23" s="60">
+        <v>21</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="30">
+        <v>43073</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="79"/>
@@ -14799,18 +14900,17 @@
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="79"/>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="79"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="79"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14821,6 +14921,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="296">
   <si>
     <t>Tên FB</t>
   </si>
@@ -915,6 +915,12 @@
   </si>
   <si>
     <t>01219618701</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Uyển Thư</t>
+  </si>
+  <si>
+    <t>0905047795</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,16 +1477,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,11 +1495,14 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1865,11 +1874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2135674976"/>
-        <c:axId val="-2135666816"/>
+        <c:axId val="29805712"/>
+        <c:axId val="29798096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135674976"/>
+        <c:axId val="29805712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135666816"/>
+        <c:crossAx val="29798096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1920,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135666816"/>
+        <c:axId val="29798096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135674976"/>
+        <c:crossAx val="29805712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2386,11 +2395,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2135662464"/>
-        <c:axId val="-207720736"/>
+        <c:axId val="29802992"/>
+        <c:axId val="29806800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135662464"/>
+        <c:axId val="29802992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207720736"/>
+        <c:crossAx val="29806800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2441,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207720736"/>
+        <c:axId val="29806800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135662464"/>
+        <c:crossAx val="29802992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2895,11 +2904,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-207727264"/>
-        <c:axId val="-207726720"/>
+        <c:axId val="29811152"/>
+        <c:axId val="29804624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-207727264"/>
+        <c:axId val="29811152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207726720"/>
+        <c:crossAx val="29804624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2950,7 +2959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207726720"/>
+        <c:axId val="29804624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +3010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207727264"/>
+        <c:crossAx val="29811152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3421,11 +3430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2134236016"/>
-        <c:axId val="-2134237648"/>
+        <c:axId val="29807888"/>
+        <c:axId val="29799728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134236016"/>
+        <c:axId val="29807888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,7 +3477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134237648"/>
+        <c:crossAx val="29799728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3476,7 +3485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134237648"/>
+        <c:axId val="29799728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134236016"/>
+        <c:crossAx val="29807888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3942,11 +3951,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2134235472"/>
-        <c:axId val="-2134237104"/>
+        <c:axId val="29805168"/>
+        <c:axId val="29808976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134235472"/>
+        <c:axId val="29805168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3989,7 +3998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134237104"/>
+        <c:crossAx val="29808976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3997,7 +4006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134237104"/>
+        <c:axId val="29808976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134235472"/>
+        <c:crossAx val="29805168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4451,11 +4460,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2134233296"/>
-        <c:axId val="-2134234384"/>
+        <c:axId val="29810064"/>
+        <c:axId val="29810608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134233296"/>
+        <c:axId val="29810064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4498,7 +4507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134234384"/>
+        <c:crossAx val="29810608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4506,7 +4515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134234384"/>
+        <c:axId val="29810608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +4566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134233296"/>
+        <c:crossAx val="29810064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13662,13 +13671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -13686,43 +13695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="96" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="96" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="85" t="s">
@@ -13736,36 +13745,36 @@
       </c>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13787,11 +13796,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14799,18 +14808,34 @@
       <c r="Y23" s="28"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="60">
+        <v>22</v>
+      </c>
+      <c r="B24" s="104" t="s">
+        <v>294</v>
+      </c>
       <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>295</v>
+      </c>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="57"/>
+      <c r="I24" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K24" s="30">
+        <v>43080</v>
+      </c>
+      <c r="L24" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
@@ -14911,6 +14936,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14921,16 +14956,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -1441,6 +1441,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,16 +1480,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1495,14 +1498,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1874,11 +1874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29805712"/>
-        <c:axId val="29798096"/>
+        <c:axId val="-595886480"/>
+        <c:axId val="-595884848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29805712"/>
+        <c:axId val="-595886480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29798096"/>
+        <c:crossAx val="-595884848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29798096"/>
+        <c:axId val="-595884848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +1980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29805712"/>
+        <c:crossAx val="-595886480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2395,11 +2395,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29802992"/>
-        <c:axId val="29806800"/>
+        <c:axId val="-595892464"/>
+        <c:axId val="-595888112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29802992"/>
+        <c:axId val="-595892464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29806800"/>
+        <c:crossAx val="-595888112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29806800"/>
+        <c:axId val="-595888112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29802992"/>
+        <c:crossAx val="-595892464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2904,11 +2904,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29811152"/>
-        <c:axId val="29804624"/>
+        <c:axId val="-595884304"/>
+        <c:axId val="-595883760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29811152"/>
+        <c:axId val="-595884304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29804624"/>
+        <c:crossAx val="-595883760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +2959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29804624"/>
+        <c:axId val="-595883760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29811152"/>
+        <c:crossAx val="-595884304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3430,11 +3430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29807888"/>
-        <c:axId val="29799728"/>
+        <c:axId val="-662702848"/>
+        <c:axId val="-662710464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29807888"/>
+        <c:axId val="-662702848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,7 +3477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29799728"/>
+        <c:crossAx val="-662710464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3485,7 +3485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29799728"/>
+        <c:axId val="-662710464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,7 +3536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29807888"/>
+        <c:crossAx val="-662702848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3951,11 +3951,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29805168"/>
-        <c:axId val="29808976"/>
+        <c:axId val="-662705568"/>
+        <c:axId val="-662709376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29805168"/>
+        <c:axId val="-662705568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3998,7 +3998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29808976"/>
+        <c:crossAx val="-662709376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4006,7 +4006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29808976"/>
+        <c:axId val="-662709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,7 +4057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29805168"/>
+        <c:crossAx val="-662705568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4460,11 +4460,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="29810064"/>
-        <c:axId val="29810608"/>
+        <c:axId val="-790574896"/>
+        <c:axId val="-790568368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29810064"/>
+        <c:axId val="-790574896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4507,7 +4507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29810608"/>
+        <c:crossAx val="-790568368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4515,7 +4515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29810608"/>
+        <c:axId val="-790568368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,7 +4566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29810064"/>
+        <c:crossAx val="-790574896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9829,30 +9829,30 @@
       <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="84" t="s">
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="84" t="s">
+      <c r="V1" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="84" t="s">
+      <c r="W1" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="84" t="s">
+      <c r="X1" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="84" t="s">
+      <c r="Y1" s="85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9907,11 +9907,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -13254,45 +13254,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="H3" s="89" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="H3" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="O3" s="92" t="s">
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="O3" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -13453,45 +13453,45 @@
       </c>
     </row>
     <row r="25" spans="1:20" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="H27" s="89" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="H27" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="O27" s="92" t="s">
+      <c r="I27" s="91"/>
+      <c r="J27" s="92"/>
+      <c r="O27" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -13671,8 +13671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13695,86 +13695,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="102" t="s">
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="97" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13796,11 +13796,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14811,7 +14811,7 @@
       <c r="A24" s="60">
         <v>22</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="84" t="s">
         <v>294</v>
       </c>
       <c r="C24" s="28"/>
@@ -14837,18 +14837,42 @@
         <v>96</v>
       </c>
       <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
+      <c r="N24" s="28">
+        <v>5</v>
+      </c>
+      <c r="O24" s="28">
+        <v>18</v>
+      </c>
+      <c r="P24" s="28">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>15</v>
+      </c>
+      <c r="R24" s="28">
+        <v>24</v>
+      </c>
+      <c r="S24" s="28">
+        <v>4</v>
+      </c>
+      <c r="T24" s="28">
+        <v>24</v>
+      </c>
+      <c r="U24" s="28">
+        <v>49</v>
+      </c>
+      <c r="V24" s="28">
+        <v>52</v>
+      </c>
+      <c r="W24" s="28">
+        <v>245</v>
+      </c>
+      <c r="X24" s="28">
+        <v>225</v>
+      </c>
+      <c r="Y24" s="28">
+        <v>470</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
@@ -14936,16 +14960,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14956,6 +14970,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="302">
   <si>
     <t>Tên FB</t>
   </si>
@@ -921,6 +921,24 @@
   </si>
   <si>
     <t>0905047795</t>
+  </si>
+  <si>
+    <t>Nguyễn Navy</t>
+  </si>
+  <si>
+    <t>Lê Hoài Diệu Linh</t>
+  </si>
+  <si>
+    <t>Linh Lê</t>
+  </si>
+  <si>
+    <t>0968982406</t>
+  </si>
+  <si>
+    <t>123/12/2017</t>
+  </si>
+  <si>
+    <t>Gọi khóa sau</t>
   </si>
 </sst>
 </file>
@@ -1480,16 +1498,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,10 +1516,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,11 +1892,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595886480"/>
-        <c:axId val="-595884848"/>
+        <c:axId val="-662702848"/>
+        <c:axId val="-662709920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595886480"/>
+        <c:axId val="-662702848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595884848"/>
+        <c:crossAx val="-662709920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +1947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595884848"/>
+        <c:axId val="-662709920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +1998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595886480"/>
+        <c:crossAx val="-662702848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2395,11 +2413,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595892464"/>
+        <c:axId val="-662707744"/>
         <c:axId val="-595888112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595892464"/>
+        <c:axId val="-662707744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595892464"/>
+        <c:crossAx val="-662707744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2904,11 +2922,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595884304"/>
-        <c:axId val="-595883760"/>
+        <c:axId val="-595877776"/>
+        <c:axId val="-595892464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595884304"/>
+        <c:axId val="-595877776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595883760"/>
+        <c:crossAx val="-595892464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2959,7 +2977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595883760"/>
+        <c:axId val="-595892464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595884304"/>
+        <c:crossAx val="-595877776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3430,11 +3448,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-662702848"/>
-        <c:axId val="-662710464"/>
+        <c:axId val="-595885392"/>
+        <c:axId val="-595884848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-662702848"/>
+        <c:axId val="-595885392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,7 +3495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662710464"/>
+        <c:crossAx val="-595884848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3485,7 +3503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-662710464"/>
+        <c:axId val="-595884848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,7 +3554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662702848"/>
+        <c:crossAx val="-595885392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3951,11 +3969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-662705568"/>
-        <c:axId val="-662709376"/>
+        <c:axId val="-790568368"/>
+        <c:axId val="-790574352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-662705568"/>
+        <c:axId val="-790568368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3998,7 +4016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662709376"/>
+        <c:crossAx val="-790574352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4006,7 +4024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-662709376"/>
+        <c:axId val="-790574352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,7 +4075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662705568"/>
+        <c:crossAx val="-790568368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4460,11 +4478,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-790574896"/>
-        <c:axId val="-790568368"/>
+        <c:axId val="-556608048"/>
+        <c:axId val="-556610768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-790574896"/>
+        <c:axId val="-556608048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4507,7 +4525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790568368"/>
+        <c:crossAx val="-556610768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4515,7 +4533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790568368"/>
+        <c:axId val="-556610768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,7 +4584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790574896"/>
+        <c:crossAx val="-556608048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13669,10 +13687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13695,43 +13713,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="97" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13745,36 +13763,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="103" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13796,11 +13814,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14811,125 +14829,181 @@
       <c r="A24" s="60">
         <v>22</v>
       </c>
-      <c r="B24" s="84" t="s">
-        <v>294</v>
+      <c r="B24" s="77" t="s">
+        <v>296</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28" t="s">
+        <v>296</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="28" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>256</v>
       </c>
       <c r="K24" s="30">
-        <v>43080</v>
-      </c>
-      <c r="L24" s="57" t="s">
-        <v>96</v>
-      </c>
+        <v>43075</v>
+      </c>
+      <c r="L24" s="57"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="28">
-        <v>5</v>
-      </c>
-      <c r="O24" s="28">
-        <v>18</v>
-      </c>
-      <c r="P24" s="28">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="28">
-        <v>15</v>
-      </c>
-      <c r="R24" s="28">
-        <v>24</v>
-      </c>
-      <c r="S24" s="28">
-        <v>4</v>
-      </c>
-      <c r="T24" s="28">
-        <v>24</v>
-      </c>
-      <c r="U24" s="28">
-        <v>49</v>
-      </c>
-      <c r="V24" s="28">
-        <v>52</v>
-      </c>
-      <c r="W24" s="28">
-        <v>245</v>
-      </c>
-      <c r="X24" s="28">
-        <v>225</v>
-      </c>
-      <c r="Y24" s="28">
-        <v>470</v>
-      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="60">
+        <v>23</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>294</v>
+      </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>295</v>
+      </c>
       <c r="F25" s="28"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="57"/>
+      <c r="I25" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="30">
+        <v>43080</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
+      <c r="N25" s="28">
+        <v>5</v>
+      </c>
+      <c r="O25" s="28">
+        <v>18</v>
+      </c>
+      <c r="P25" s="28">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>15</v>
+      </c>
+      <c r="R25" s="28">
+        <v>24</v>
+      </c>
+      <c r="S25" s="28">
+        <v>4</v>
+      </c>
+      <c r="T25" s="28">
+        <v>24</v>
+      </c>
+      <c r="U25" s="28">
+        <v>49</v>
+      </c>
+      <c r="V25" s="28">
+        <v>52</v>
+      </c>
+      <c r="W25" s="28">
+        <v>245</v>
+      </c>
+      <c r="X25" s="28">
+        <v>225</v>
+      </c>
+      <c r="Y25" s="28">
+        <v>470</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="A26" s="60">
+        <v>24</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="79"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="79"/>
@@ -14958,8 +15032,21 @@
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="79"/>
     </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -14970,16 +15057,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="302">
   <si>
     <t>Tên FB</t>
   </si>
@@ -1892,11 +1892,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-662702848"/>
-        <c:axId val="-662709920"/>
+        <c:axId val="-120735248"/>
+        <c:axId val="-120744496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-662702848"/>
+        <c:axId val="-120735248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662709920"/>
+        <c:crossAx val="-120744496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +1947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-662709920"/>
+        <c:axId val="-120744496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662702848"/>
+        <c:crossAx val="-120735248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2413,11 +2413,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-662707744"/>
-        <c:axId val="-595888112"/>
+        <c:axId val="-120734704"/>
+        <c:axId val="-120737424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-662707744"/>
+        <c:axId val="-120734704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595888112"/>
+        <c:crossAx val="-120737424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2468,7 +2468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595888112"/>
+        <c:axId val="-120737424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-662707744"/>
+        <c:crossAx val="-120734704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2922,11 +2922,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595877776"/>
-        <c:axId val="-595892464"/>
+        <c:axId val="-120736336"/>
+        <c:axId val="-120733616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595877776"/>
+        <c:axId val="-120736336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +2969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595892464"/>
+        <c:crossAx val="-120733616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2977,7 +2977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595892464"/>
+        <c:axId val="-120733616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +3028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595877776"/>
+        <c:crossAx val="-120736336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3448,11 +3448,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-595885392"/>
-        <c:axId val="-595884848"/>
+        <c:axId val="-445517248"/>
+        <c:axId val="-445528128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-595885392"/>
+        <c:axId val="-445517248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,7 +3495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595884848"/>
+        <c:crossAx val="-445528128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3503,7 +3503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-595884848"/>
+        <c:axId val="-445528128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-595885392"/>
+        <c:crossAx val="-445517248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3969,11 +3969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-790568368"/>
-        <c:axId val="-790574352"/>
+        <c:axId val="-445518336"/>
+        <c:axId val="-445519968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-790568368"/>
+        <c:axId val="-445518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,7 +4016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790574352"/>
+        <c:crossAx val="-445519968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4024,7 +4024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-790574352"/>
+        <c:axId val="-445519968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +4075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-790568368"/>
+        <c:crossAx val="-445518336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4478,11 +4478,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-556608048"/>
-        <c:axId val="-556610768"/>
+        <c:axId val="-445515616"/>
+        <c:axId val="-445523232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-556608048"/>
+        <c:axId val="-445515616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4525,7 +4525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-556610768"/>
+        <c:crossAx val="-445523232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4533,7 +4533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-556610768"/>
+        <c:axId val="-445523232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4584,7 +4584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-556608048"/>
+        <c:crossAx val="-445515616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13689,8 +13689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13922,9 +13922,7 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="15">
         <v>43049</v>
       </c>
@@ -14851,7 +14849,9 @@
       <c r="K24" s="30">
         <v>43075</v>
       </c>
-      <c r="L24" s="57"/>
+      <c r="L24" s="57" t="s">
+        <v>21</v>
+      </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
@@ -14881,8 +14881,12 @@
         <v>295</v>
       </c>
       <c r="F25" s="28"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="I25" s="28" t="s">
         <v>1</v>
       </c>
@@ -14961,7 +14965,9 @@
       <c r="K26" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="L26" s="57"/>
+      <c r="L26" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="M26" s="28" t="s">
         <v>301</v>
       </c>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="303">
   <si>
     <t>Tên FB</t>
   </si>
@@ -935,10 +935,13 @@
     <t>0968982406</t>
   </si>
   <si>
-    <t>123/12/2017</t>
-  </si>
-  <si>
     <t>Gọi khóa sau</t>
+  </si>
+  <si>
+    <t>Thanh Phuong Nguyen</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương Thanh</t>
   </si>
 </sst>
 </file>
@@ -1498,16 +1501,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1516,10 +1519,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1697,6 +1700,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1821,6 +1825,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1892,11 +1897,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-120735248"/>
-        <c:axId val="-120744496"/>
+        <c:axId val="2013317248"/>
+        <c:axId val="2013310720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-120735248"/>
+        <c:axId val="2013317248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120744496"/>
+        <c:crossAx val="2013310720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +1952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-120744496"/>
+        <c:axId val="2013310720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120735248"/>
+        <c:crossAx val="2013317248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2012,6 +2017,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2118,6 +2124,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2218,6 +2225,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2342,6 +2350,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2413,11 +2422,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-120734704"/>
-        <c:axId val="-120737424"/>
+        <c:axId val="2010715536"/>
+        <c:axId val="2010718800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-120734704"/>
+        <c:axId val="2010715536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120737424"/>
+        <c:crossAx val="2010718800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2468,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-120737424"/>
+        <c:axId val="2010718800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120734704"/>
+        <c:crossAx val="2010715536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2533,6 +2542,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2639,6 +2649,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2739,6 +2750,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2857,6 +2869,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2922,11 +2935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-120736336"/>
-        <c:axId val="-120733616"/>
+        <c:axId val="2051864992"/>
+        <c:axId val="2051868800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-120736336"/>
+        <c:axId val="2051864992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +2982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120733616"/>
+        <c:crossAx val="2051868800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2977,7 +2990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-120733616"/>
+        <c:axId val="2051868800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +3041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-120736336"/>
+        <c:crossAx val="2051864992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3042,6 +3055,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3153,6 +3167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3253,6 +3268,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3377,6 +3393,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3448,11 +3465,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-445517248"/>
-        <c:axId val="-445528128"/>
+        <c:axId val="2051866080"/>
+        <c:axId val="2051869344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-445517248"/>
+        <c:axId val="2051866080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,7 +3512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445528128"/>
+        <c:crossAx val="2051869344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3503,7 +3520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-445528128"/>
+        <c:axId val="2051869344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445517248"/>
+        <c:crossAx val="2051866080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3568,6 +3585,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3674,6 +3692,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3774,6 +3793,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3898,6 +3918,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3969,11 +3990,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-445518336"/>
-        <c:axId val="-445519968"/>
+        <c:axId val="2051866624"/>
+        <c:axId val="2051864448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-445518336"/>
+        <c:axId val="2051866624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,7 +4037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445519968"/>
+        <c:crossAx val="2051864448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4024,7 +4045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-445519968"/>
+        <c:axId val="2051864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +4096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445518336"/>
+        <c:crossAx val="2051866624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4089,6 +4110,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4195,6 +4217,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4295,6 +4318,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4413,6 +4437,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4478,11 +4503,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-445515616"/>
-        <c:axId val="-445523232"/>
+        <c:axId val="2051869888"/>
+        <c:axId val="2051967568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-445515616"/>
+        <c:axId val="2051869888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4525,7 +4550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445523232"/>
+        <c:crossAx val="2051967568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4533,7 +4558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-445523232"/>
+        <c:axId val="2051967568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4584,7 +4609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-445515616"/>
+        <c:crossAx val="2051869888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4598,6 +4623,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8368,7 +8394,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -9782,7 +9808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
@@ -13257,8 +13283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13687,10 +13713,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13713,43 +13739,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13763,36 +13789,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="103" t="s">
+      <c r="W1" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="103" t="s">
+      <c r="Y1" s="97" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13814,11 +13840,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -14962,14 +14988,14 @@
       <c r="J26" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="K26" s="30" t="s">
-        <v>300</v>
+      <c r="K26" s="30">
+        <v>43081</v>
       </c>
       <c r="L26" s="57" t="s">
         <v>39</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
@@ -14985,37 +15011,103 @@
       <c r="Y26" s="28"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+      <c r="A27" s="60">
+        <v>25</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" s="30">
+        <v>43085</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="79"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="79"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="79"/>
@@ -15041,18 +15133,14 @@
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="79"/>
     </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="79"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15063,6 +15151,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="303">
   <si>
     <t>Tên FB</t>
   </si>
@@ -941,7 +941,7 @@
     <t>Thanh Phuong Nguyen</t>
   </si>
   <si>
-    <t>Nguyễn Phương Thanh</t>
+    <t xml:space="preserve">Nguyễn Thanh Phương </t>
   </si>
 </sst>
 </file>
@@ -1501,16 +1501,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,10 +1519,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1700,7 +1700,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1825,7 +1824,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1897,11 +1895,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2013317248"/>
-        <c:axId val="2013310720"/>
+        <c:axId val="243718624"/>
+        <c:axId val="243730048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2013317248"/>
+        <c:axId val="243718624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2013310720"/>
+        <c:crossAx val="243730048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1952,7 +1950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2013310720"/>
+        <c:axId val="243730048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2013317248"/>
+        <c:crossAx val="243718624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2017,7 +2015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2124,7 +2121,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2225,7 +2221,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2350,7 +2345,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2422,11 +2416,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2010715536"/>
-        <c:axId val="2010718800"/>
+        <c:axId val="243716992"/>
+        <c:axId val="123684128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2010715536"/>
+        <c:axId val="243716992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010718800"/>
+        <c:crossAx val="123684128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,7 +2471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2010718800"/>
+        <c:axId val="123684128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +2522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010715536"/>
+        <c:crossAx val="243716992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2542,7 +2536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2649,7 +2642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2750,7 +2742,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2869,7 +2860,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2935,11 +2925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2051864992"/>
-        <c:axId val="2051868800"/>
+        <c:axId val="123683040"/>
+        <c:axId val="123681952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051864992"/>
+        <c:axId val="123683040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,7 +2972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051868800"/>
+        <c:crossAx val="123681952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2990,7 +2980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051868800"/>
+        <c:axId val="123681952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051864992"/>
+        <c:crossAx val="123683040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3055,7 +3045,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3167,7 +3156,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3268,7 +3256,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3393,7 +3380,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3465,11 +3451,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2051866080"/>
-        <c:axId val="2051869344"/>
+        <c:axId val="310964208"/>
+        <c:axId val="310961488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051866080"/>
+        <c:axId val="310964208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3512,7 +3498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051869344"/>
+        <c:crossAx val="310961488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3520,7 +3506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051869344"/>
+        <c:axId val="310961488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +3557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051866080"/>
+        <c:crossAx val="310964208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3585,7 +3571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3692,7 +3677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3793,7 +3777,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3918,7 +3901,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3990,11 +3972,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2051866624"/>
-        <c:axId val="2051864448"/>
+        <c:axId val="310972912"/>
+        <c:axId val="310962032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051866624"/>
+        <c:axId val="310972912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051864448"/>
+        <c:crossAx val="310962032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4045,7 +4027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051864448"/>
+        <c:axId val="310962032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,7 +4078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051866624"/>
+        <c:crossAx val="310972912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4110,7 +4092,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4217,7 +4198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4318,7 +4298,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4437,7 +4416,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4503,11 +4481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2051869888"/>
-        <c:axId val="2051967568"/>
+        <c:axId val="310968560"/>
+        <c:axId val="310962576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051869888"/>
+        <c:axId val="310968560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4550,7 +4528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051967568"/>
+        <c:crossAx val="310962576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4558,7 +4536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051967568"/>
+        <c:axId val="310962576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,7 +4587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2051869888"/>
+        <c:crossAx val="310968560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4623,7 +4601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13715,8 +13692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13739,43 +13716,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="97" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13789,36 +13766,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="103" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13840,11 +13817,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15028,7 +15005,9 @@
       <c r="G27" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="H27" s="27"/>
+      <c r="H27" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="I27" s="28" t="s">
         <v>29</v>
       </c>
@@ -15141,6 +15120,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15151,16 +15140,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="304">
   <si>
     <t>Tên FB</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Thanh Phương </t>
+  </si>
+  <si>
+    <t>Thường Thường</t>
   </si>
 </sst>
 </file>
@@ -1501,16 +1504,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,10 +1522,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1895,11 +1898,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243718624"/>
-        <c:axId val="243730048"/>
+        <c:axId val="-499396720"/>
+        <c:axId val="-499393456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243718624"/>
+        <c:axId val="-499396720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243730048"/>
+        <c:crossAx val="-499393456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1950,7 +1953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243730048"/>
+        <c:axId val="-499393456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243718624"/>
+        <c:crossAx val="-499396720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2416,11 +2419,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243716992"/>
-        <c:axId val="123684128"/>
+        <c:axId val="-499391280"/>
+        <c:axId val="-499390192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243716992"/>
+        <c:axId val="-499391280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123684128"/>
+        <c:crossAx val="-499390192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2471,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123684128"/>
+        <c:axId val="-499390192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243716992"/>
+        <c:crossAx val="-499391280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2925,11 +2928,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="123683040"/>
-        <c:axId val="123681952"/>
+        <c:axId val="-499390736"/>
+        <c:axId val="-499402160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123683040"/>
+        <c:axId val="-499390736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +2975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123681952"/>
+        <c:crossAx val="-499402160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2980,7 +2983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123681952"/>
+        <c:axId val="-499402160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123683040"/>
+        <c:crossAx val="-499390736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3451,11 +3454,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310964208"/>
-        <c:axId val="310961488"/>
+        <c:axId val="-499401616"/>
+        <c:axId val="-499398352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310964208"/>
+        <c:axId val="-499401616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,7 +3501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310961488"/>
+        <c:crossAx val="-499398352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3506,7 +3509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310961488"/>
+        <c:axId val="-499398352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +3560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310964208"/>
+        <c:crossAx val="-499401616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3972,11 +3975,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310972912"/>
-        <c:axId val="310962032"/>
+        <c:axId val="-499392912"/>
+        <c:axId val="-499394000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310972912"/>
+        <c:axId val="-499392912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310962032"/>
+        <c:crossAx val="-499394000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310962032"/>
+        <c:axId val="-499394000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,7 +4081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310972912"/>
+        <c:crossAx val="-499392912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4481,11 +4484,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="310968560"/>
-        <c:axId val="310962576"/>
+        <c:axId val="-499399440"/>
+        <c:axId val="-499398896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310968560"/>
+        <c:axId val="-499399440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310962576"/>
+        <c:crossAx val="-499398896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4536,7 +4539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310962576"/>
+        <c:axId val="-499398896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310968560"/>
+        <c:crossAx val="-499399440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13693,7 +13696,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13716,43 +13719,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13766,36 +13769,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="103" t="s">
+      <c r="W1" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="103" t="s">
+      <c r="Y1" s="97" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13817,11 +13820,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15035,18 +15038,34 @@
       <c r="Y27" s="28"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="60">
+        <v>26</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>303</v>
+      </c>
       <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28" t="s">
+        <v>303</v>
+      </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="57"/>
+      <c r="I28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" s="30">
+        <v>43092</v>
+      </c>
+      <c r="L28" s="57" t="s">
+        <v>96</v>
+      </c>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
@@ -15120,16 +15139,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15140,6 +15149,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="307">
   <si>
     <t>Tên FB</t>
   </si>
@@ -945,6 +945,15 @@
   </si>
   <si>
     <t>Thường Thường</t>
+  </si>
+  <si>
+    <t>Anh Tran</t>
+  </si>
+  <si>
+    <t>Tôn Nữ Ngọc Khuê</t>
+  </si>
+  <si>
+    <t>01262568931</t>
   </si>
 </sst>
 </file>
@@ -1504,16 +1513,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1522,10 +1531,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1898,11 +1907,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-499396720"/>
-        <c:axId val="-499393456"/>
+        <c:axId val="-2139728976"/>
+        <c:axId val="-2139716464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-499396720"/>
+        <c:axId val="-2139728976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499393456"/>
+        <c:crossAx val="-2139716464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +1962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-499393456"/>
+        <c:axId val="-2139716464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499396720"/>
+        <c:crossAx val="-2139728976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,11 +2428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-499391280"/>
-        <c:axId val="-499390192"/>
+        <c:axId val="-187253856"/>
+        <c:axId val="-187257120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-499391280"/>
+        <c:axId val="-187253856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499390192"/>
+        <c:crossAx val="-187257120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-499390192"/>
+        <c:axId val="-187257120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,7 +2534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499391280"/>
+        <c:crossAx val="-187253856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2928,11 +2937,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-499390736"/>
-        <c:axId val="-499402160"/>
+        <c:axId val="-187255488"/>
+        <c:axId val="-187257664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-499390736"/>
+        <c:axId val="-187255488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,7 +2984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499402160"/>
+        <c:crossAx val="-187257664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2983,7 +2992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-499402160"/>
+        <c:axId val="-187257664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,7 +3043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499390736"/>
+        <c:crossAx val="-187255488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,11 +3463,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-499401616"/>
-        <c:axId val="-499398352"/>
+        <c:axId val="-2002287568"/>
+        <c:axId val="-2002286480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-499401616"/>
+        <c:axId val="-2002287568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499398352"/>
+        <c:crossAx val="-2002286480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-499398352"/>
+        <c:axId val="-2002286480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499401616"/>
+        <c:crossAx val="-2002287568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3975,11 +3984,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-499392912"/>
-        <c:axId val="-499394000"/>
+        <c:axId val="-2002289744"/>
+        <c:axId val="-2002281040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-499392912"/>
+        <c:axId val="-2002289744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,7 +4031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499394000"/>
+        <c:crossAx val="-2002281040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4030,7 +4039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-499394000"/>
+        <c:axId val="-2002281040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499392912"/>
+        <c:crossAx val="-2002289744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4484,11 +4493,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-499399440"/>
-        <c:axId val="-499398896"/>
+        <c:axId val="-2002292464"/>
+        <c:axId val="-2002280496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-499399440"/>
+        <c:axId val="-2002292464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,7 +4540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499398896"/>
+        <c:crossAx val="-2002280496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4539,7 +4548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-499398896"/>
+        <c:axId val="-2002280496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-499399440"/>
+        <c:crossAx val="-2002292464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13693,10 +13702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13719,43 +13728,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="97" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13769,36 +13778,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="103" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13820,11 +13829,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15081,37 +15090,103 @@
       <c r="Y28" s="28"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="A29" s="60">
+        <v>27</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="30">
+        <v>43093</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="79"/>
@@ -15137,8 +15212,24 @@
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="79"/>
     </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="79"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15149,16 +15240,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
     <sheet name="Tháng 10" sheetId="2" r:id="rId2"/>
     <sheet name="Thống kê Tháng 10" sheetId="3" r:id="rId3"/>
     <sheet name="TOEIC Tháng 12" sheetId="5" r:id="rId4"/>
+    <sheet name="Thống kê tháng 12" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
@@ -1513,16 +1514,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,10 +1532,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,6 +1713,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1836,6 +1838,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1907,11 +1910,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2139728976"/>
-        <c:axId val="-2139716464"/>
+        <c:axId val="-1515902080"/>
+        <c:axId val="-1515912960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139728976"/>
+        <c:axId val="-1515902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139716464"/>
+        <c:crossAx val="-1515912960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1962,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139716464"/>
+        <c:axId val="-1515912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139728976"/>
+        <c:crossAx val="-1515902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,6 +2030,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2133,6 +2137,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2233,6 +2238,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2357,6 +2363,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2428,11 +2435,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-187253856"/>
-        <c:axId val="-187257120"/>
+        <c:axId val="-1515900448"/>
+        <c:axId val="-1515898272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-187253856"/>
+        <c:axId val="-1515900448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-187257120"/>
+        <c:crossAx val="-1515898272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2483,7 +2490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-187257120"/>
+        <c:axId val="-1515898272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-187253856"/>
+        <c:crossAx val="-1515900448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,6 +2555,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2654,6 +2662,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2754,6 +2763,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2872,6 +2882,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2937,11 +2948,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-187255488"/>
-        <c:axId val="-187257664"/>
+        <c:axId val="-1515897728"/>
+        <c:axId val="-1515901536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-187255488"/>
+        <c:axId val="-1515897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +2995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-187257664"/>
+        <c:crossAx val="-1515901536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2992,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-187257664"/>
+        <c:axId val="-1515901536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-187255488"/>
+        <c:crossAx val="-1515897728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3057,6 +3068,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3168,6 +3180,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3268,6 +3281,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3392,6 +3406,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3463,11 +3478,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2002287568"/>
-        <c:axId val="-2002286480"/>
+        <c:axId val="-1515912416"/>
+        <c:axId val="-1515909696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2002287568"/>
+        <c:axId val="-1515912416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,7 +3525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002286480"/>
+        <c:crossAx val="-1515909696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3518,7 +3533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002286480"/>
+        <c:axId val="-1515909696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002287568"/>
+        <c:crossAx val="-1515912416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3583,6 +3598,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3689,6 +3705,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3789,6 +3806,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3913,6 +3931,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3984,11 +4003,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2002289744"/>
-        <c:axId val="-2002281040"/>
+        <c:axId val="-1515908064"/>
+        <c:axId val="-1515905344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2002289744"/>
+        <c:axId val="-1515908064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,7 +4050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002281040"/>
+        <c:crossAx val="-1515905344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4039,7 +4058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002281040"/>
+        <c:axId val="-1515905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,7 +4109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002289744"/>
+        <c:crossAx val="-1515908064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4104,6 +4123,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4210,6 +4230,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4310,6 +4331,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4428,6 +4450,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4493,11 +4516,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2002292464"/>
-        <c:axId val="-2002280496"/>
+        <c:axId val="-1515911872"/>
+        <c:axId val="-1515900992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2002292464"/>
+        <c:axId val="-1515911872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4540,7 +4563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002280496"/>
+        <c:crossAx val="-1515900992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4548,7 +4571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002280496"/>
+        <c:axId val="-1515900992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,7 +4622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002292464"/>
+        <c:crossAx val="-1515911872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4613,6 +4636,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13272,8 +13296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13704,8 +13728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13728,43 +13752,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13778,36 +13802,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="103" t="s">
+      <c r="W1" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="103" t="s">
+      <c r="Y1" s="97" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13829,11 +13853,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15220,16 +15244,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15240,8 +15254,32 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tháng 10'!$A$1:$M$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tháng 8'!$A$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TOEIC Tháng 12'!$A$1:$Y$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="307">
   <si>
     <t>Tên FB</t>
   </si>
@@ -1514,16 +1515,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1532,10 +1533,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1713,7 +1714,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1838,7 +1838,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1910,11 +1909,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1515902080"/>
-        <c:axId val="-1515912960"/>
+        <c:axId val="-138837824"/>
+        <c:axId val="-138847072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1515902080"/>
+        <c:axId val="-138837824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515912960"/>
+        <c:crossAx val="-138847072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515912960"/>
+        <c:axId val="-138847072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515902080"/>
+        <c:crossAx val="-138837824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,7 +2029,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2137,7 +2135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2238,7 +2235,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2363,7 +2359,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2435,11 +2430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1515900448"/>
-        <c:axId val="-1515898272"/>
+        <c:axId val="-138844352"/>
+        <c:axId val="-138829120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1515900448"/>
+        <c:axId val="-138844352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515898272"/>
+        <c:crossAx val="-138829120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2490,7 +2485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515898272"/>
+        <c:axId val="-138829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +2536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515900448"/>
+        <c:crossAx val="-138844352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2555,7 +2550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2662,7 +2656,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2763,7 +2756,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2882,7 +2874,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2948,11 +2939,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1515897728"/>
-        <c:axId val="-1515901536"/>
+        <c:axId val="-138842176"/>
+        <c:axId val="-138818784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1515897728"/>
+        <c:axId val="-138842176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +2986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515901536"/>
+        <c:crossAx val="-138818784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +2994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515901536"/>
+        <c:axId val="-138818784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515897728"/>
+        <c:crossAx val="-138842176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3068,7 +3059,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3478,11 +3468,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1515912416"/>
-        <c:axId val="-1515909696"/>
+        <c:axId val="-138820416"/>
+        <c:axId val="-138828032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1515912416"/>
+        <c:axId val="-138820416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +3515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515909696"/>
+        <c:crossAx val="-138828032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3533,7 +3523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515909696"/>
+        <c:axId val="-138828032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +3574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515912416"/>
+        <c:crossAx val="-138820416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4003,11 +3993,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1515908064"/>
-        <c:axId val="-1515905344"/>
+        <c:axId val="-138840544"/>
+        <c:axId val="-138848160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1515908064"/>
+        <c:axId val="-138840544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,7 +4040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515905344"/>
+        <c:crossAx val="-138848160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4058,7 +4048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515905344"/>
+        <c:axId val="-138848160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,7 +4099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515908064"/>
+        <c:crossAx val="-138840544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4516,11 +4506,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1515911872"/>
-        <c:axId val="-1515900992"/>
+        <c:axId val="-138847616"/>
+        <c:axId val="-138838368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1515911872"/>
+        <c:axId val="-138847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +4553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515900992"/>
+        <c:crossAx val="-138838368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4571,7 +4561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1515900992"/>
+        <c:axId val="-138838368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4622,7 +4612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1515911872"/>
+        <c:crossAx val="-138847616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13296,7 +13286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -13726,10 +13716,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13752,43 +13743,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="97" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13802,36 +13793,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="103" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+    <row r="2" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13853,13 +13844,13 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-    </row>
-    <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+    </row>
+    <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>1</v>
       </c>
@@ -13900,7 +13891,7 @@
       <c r="X3" s="83"/>
       <c r="Y3" s="83"/>
     </row>
-    <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
         <v>2</v>
       </c>
@@ -13941,7 +13932,7 @@
       <c r="X4" s="83"/>
       <c r="Y4" s="83"/>
     </row>
-    <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
         <v>3</v>
       </c>
@@ -13984,7 +13975,7 @@
       <c r="X5" s="83"/>
       <c r="Y5" s="83"/>
     </row>
-    <row r="6" spans="1:25" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="55" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>4</v>
       </c>
@@ -14025,7 +14016,7 @@
       <c r="X6" s="83"/>
       <c r="Y6" s="83"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>5</v>
       </c>
@@ -14096,7 +14087,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>6</v>
       </c>
@@ -14167,7 +14158,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>7</v>
       </c>
@@ -14238,7 +14229,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>8</v>
       </c>
@@ -14285,7 +14276,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>9</v>
       </c>
@@ -14326,7 +14317,7 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>10</v>
       </c>
@@ -14371,7 +14362,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>11</v>
       </c>
@@ -14416,7 +14407,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>12</v>
       </c>
@@ -14457,7 +14448,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>13</v>
       </c>
@@ -14500,7 +14491,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>14</v>
       </c>
@@ -14541,7 +14532,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>15</v>
       </c>
@@ -14586,7 +14577,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>16</v>
       </c>
@@ -14629,7 +14620,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>17</v>
       </c>
@@ -14676,7 +14667,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>18</v>
       </c>
@@ -14723,7 +14714,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>19</v>
       </c>
@@ -14770,7 +14761,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>20</v>
       </c>
@@ -14847,7 +14838,9 @@
       <c r="K23" s="30">
         <v>43073</v>
       </c>
-      <c r="L23" s="57"/>
+      <c r="L23" s="57" t="s">
+        <v>21</v>
+      </c>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
@@ -14862,7 +14855,7 @@
       <c r="X23" s="28"/>
       <c r="Y23" s="28"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60">
         <v>22</v>
       </c>
@@ -14976,7 +14969,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60">
         <v>24</v>
       </c>
@@ -15070,7 +15063,7 @@
       <c r="X27" s="28"/>
       <c r="Y27" s="28"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60">
         <v>26</v>
       </c>
@@ -15113,7 +15106,7 @@
       <c r="X28" s="28"/>
       <c r="Y28" s="28"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>27</v>
       </c>
@@ -15243,7 +15236,34 @@
       <c r="B41" s="79"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y29">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <dateGroupItem year="2017" month="12" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15254,16 +15274,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -13716,10 +13716,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -13809,7 +13808,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -13850,7 +13849,7 @@
       <c r="X2" s="104"/>
       <c r="Y2" s="104"/>
     </row>
-    <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>1</v>
       </c>
@@ -13891,7 +13890,7 @@
       <c r="X3" s="83"/>
       <c r="Y3" s="83"/>
     </row>
-    <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
         <v>2</v>
       </c>
@@ -13932,7 +13931,7 @@
       <c r="X4" s="83"/>
       <c r="Y4" s="83"/>
     </row>
-    <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
         <v>3</v>
       </c>
@@ -13975,7 +13974,7 @@
       <c r="X5" s="83"/>
       <c r="Y5" s="83"/>
     </row>
-    <row r="6" spans="1:25" s="55" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>4</v>
       </c>
@@ -14016,7 +14015,7 @@
       <c r="X6" s="83"/>
       <c r="Y6" s="83"/>
     </row>
-    <row r="7" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>5</v>
       </c>
@@ -14087,7 +14086,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>6</v>
       </c>
@@ -14158,7 +14157,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>7</v>
       </c>
@@ -14229,7 +14228,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>8</v>
       </c>
@@ -14276,7 +14275,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>9</v>
       </c>
@@ -14317,7 +14316,7 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>10</v>
       </c>
@@ -14362,7 +14361,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>11</v>
       </c>
@@ -14407,7 +14406,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>12</v>
       </c>
@@ -14448,7 +14447,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>13</v>
       </c>
@@ -14491,7 +14490,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>14</v>
       </c>
@@ -14532,7 +14531,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>15</v>
       </c>
@@ -14577,7 +14576,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>16</v>
       </c>
@@ -14620,7 +14619,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>17</v>
       </c>
@@ -14667,7 +14666,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>18</v>
       </c>
@@ -14714,7 +14713,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>19</v>
       </c>
@@ -14761,7 +14760,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>20</v>
       </c>
@@ -14855,7 +14854,7 @@
       <c r="X23" s="28"/>
       <c r="Y23" s="28"/>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="60">
         <v>22</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="60">
         <v>24</v>
       </c>
@@ -15063,7 +15062,7 @@
       <c r="X27" s="28"/>
       <c r="Y27" s="28"/>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="60">
         <v>26</v>
       </c>
@@ -15106,7 +15105,7 @@
       <c r="X28" s="28"/>
       <c r="Y28" s="28"/>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>27</v>
       </c>
@@ -15236,23 +15235,6 @@
       <c r="B41" s="79"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y29">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <dateGroupItem year="2017" month="12" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="14" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="17" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English\SUCCESS\SUCCESS - github\trunk\Danh Sach Lop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUCCESS\New folder\trunk\Danh Sach Lop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="310">
   <si>
     <t>Tên FB</t>
   </si>
@@ -956,6 +956,15 @@
   </si>
   <si>
     <t>01262568931</t>
+  </si>
+  <si>
+    <t>Phung Thuy</t>
+  </si>
+  <si>
+    <t>Thủy</t>
+  </si>
+  <si>
+    <t>01668163399</t>
   </si>
 </sst>
 </file>
@@ -1515,16 +1524,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,10 +1542,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,11 +1918,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-138837824"/>
-        <c:axId val="-138847072"/>
+        <c:axId val="1740054720"/>
+        <c:axId val="1740048736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-138837824"/>
+        <c:axId val="1740054720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138847072"/>
+        <c:crossAx val="1740048736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1964,7 +1973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138847072"/>
+        <c:axId val="1740048736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138837824"/>
+        <c:crossAx val="1740054720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,11 +2439,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-138844352"/>
-        <c:axId val="-138829120"/>
+        <c:axId val="1740049280"/>
+        <c:axId val="1740056896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-138844352"/>
+        <c:axId val="1740049280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138829120"/>
+        <c:crossAx val="1740056896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2485,7 +2494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138829120"/>
+        <c:axId val="1740056896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138844352"/>
+        <c:crossAx val="1740049280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2939,11 +2948,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-138842176"/>
-        <c:axId val="-138818784"/>
+        <c:axId val="1740047104"/>
+        <c:axId val="1740050368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-138842176"/>
+        <c:axId val="1740047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138818784"/>
+        <c:crossAx val="1740050368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2994,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138818784"/>
+        <c:axId val="1740050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138842176"/>
+        <c:crossAx val="1740047104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3170,7 +3179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3271,7 +3279,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3396,7 +3403,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3468,11 +3474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-138820416"/>
-        <c:axId val="-138828032"/>
+        <c:axId val="1740051456"/>
+        <c:axId val="1740052000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-138820416"/>
+        <c:axId val="1740051456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138828032"/>
+        <c:crossAx val="1740052000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3523,7 +3529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138828032"/>
+        <c:axId val="1740052000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138820416"/>
+        <c:crossAx val="1740051456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3588,7 +3594,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3695,7 +3700,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3796,7 +3800,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3921,7 +3924,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3993,11 +3995,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-138840544"/>
-        <c:axId val="-138848160"/>
+        <c:axId val="1740058528"/>
+        <c:axId val="1740061248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-138840544"/>
+        <c:axId val="1740058528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138848160"/>
+        <c:crossAx val="1740061248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4048,7 +4050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138848160"/>
+        <c:axId val="1740061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4099,7 +4101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138840544"/>
+        <c:crossAx val="1740058528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4113,7 +4115,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4220,7 +4221,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4321,7 +4321,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4440,7 +4439,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4506,11 +4504,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-138847616"/>
-        <c:axId val="-138838368"/>
+        <c:axId val="1740047648"/>
+        <c:axId val="1740060704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-138847616"/>
+        <c:axId val="1740047648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138838368"/>
+        <c:crossAx val="1740060704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4561,7 +4559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138838368"/>
+        <c:axId val="1740060704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-138847616"/>
+        <c:crossAx val="1740047648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4626,7 +4624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13718,8 +13715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13742,43 +13739,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13792,36 +13789,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="103" t="s">
+      <c r="W1" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="103" t="s">
+      <c r="Y1" s="97" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13843,11 +13840,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15151,17 +15148,31 @@
       <c r="Y29" s="28"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="60">
+        <v>28</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>308</v>
+      </c>
       <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>307</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="I30" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="J30" s="28"/>
-      <c r="K30" s="30"/>
+      <c r="K30" s="30">
+        <v>43109</v>
+      </c>
       <c r="L30" s="57"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -15236,16 +15247,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15256,6 +15257,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="313">
   <si>
     <t>Tên FB</t>
   </si>
@@ -965,6 +965,15 @@
   </si>
   <si>
     <t>01668163399</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tử Giang</t>
+  </si>
+  <si>
+    <t>0975646730</t>
+  </si>
+  <si>
+    <t>Nguyễn Tử Giang</t>
   </si>
 </sst>
 </file>
@@ -1524,16 +1533,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,10 +1551,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1918,11 +1927,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1740054720"/>
-        <c:axId val="1740048736"/>
+        <c:axId val="-1199797200"/>
+        <c:axId val="-1199796112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740054720"/>
+        <c:axId val="-1199797200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740048736"/>
+        <c:crossAx val="-1199796112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1973,7 +1982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740048736"/>
+        <c:axId val="-1199796112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740054720"/>
+        <c:crossAx val="-1199797200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2439,11 +2448,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1740049280"/>
-        <c:axId val="1740056896"/>
+        <c:axId val="-1199811344"/>
+        <c:axId val="-1199796656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740049280"/>
+        <c:axId val="-1199811344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740056896"/>
+        <c:crossAx val="-1199796656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2494,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740056896"/>
+        <c:axId val="-1199796656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740049280"/>
+        <c:crossAx val="-1199811344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2948,11 +2957,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1740047104"/>
-        <c:axId val="1740050368"/>
+        <c:axId val="-1199803728"/>
+        <c:axId val="-1199802640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740047104"/>
+        <c:axId val="-1199803728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740050368"/>
+        <c:crossAx val="-1199802640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740050368"/>
+        <c:axId val="-1199802640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740047104"/>
+        <c:crossAx val="-1199803728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3474,11 +3483,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1740051456"/>
-        <c:axId val="1740052000"/>
+        <c:axId val="-1199803184"/>
+        <c:axId val="-1199809168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740051456"/>
+        <c:axId val="-1199803184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740052000"/>
+        <c:crossAx val="-1199809168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3529,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740052000"/>
+        <c:axId val="-1199809168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740051456"/>
+        <c:crossAx val="-1199803184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3995,11 +4004,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1740058528"/>
-        <c:axId val="1740061248"/>
+        <c:axId val="-1199808080"/>
+        <c:axId val="-1199806992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740058528"/>
+        <c:axId val="-1199808080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,7 +4051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740061248"/>
+        <c:crossAx val="-1199806992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4050,7 +4059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740061248"/>
+        <c:axId val="-1199806992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +4110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740058528"/>
+        <c:crossAx val="-1199808080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4504,11 +4513,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1740047648"/>
-        <c:axId val="1740060704"/>
+        <c:axId val="-1199805360"/>
+        <c:axId val="-1199802096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740047648"/>
+        <c:axId val="-1199805360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +4560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740060704"/>
+        <c:crossAx val="-1199802096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4559,7 +4568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740060704"/>
+        <c:axId val="-1199802096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4610,7 +4619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740047648"/>
+        <c:crossAx val="-1199805360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13713,10 +13722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13739,43 +13748,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="97" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13789,36 +13798,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="103" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13840,11 +13849,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15189,34 +15198,74 @@
       <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
+      <c r="A31" s="60">
+        <v>29</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="30">
+        <v>43110</v>
+      </c>
+      <c r="L31" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="79"/>
@@ -15245,8 +15294,21 @@
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="79"/>
     </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="79"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15257,16 +15319,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="315">
   <si>
     <t>Tên FB</t>
   </si>
@@ -974,6 +974,12 @@
   </si>
   <si>
     <t>Nguyễn Tử Giang</t>
+  </si>
+  <si>
+    <t>Toeic A</t>
+  </si>
+  <si>
+    <t>Toeic B</t>
   </si>
 </sst>
 </file>
@@ -1533,16 +1539,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,10 +1557,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,11 +1933,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1199797200"/>
-        <c:axId val="-1199796112"/>
+        <c:axId val="1151247648"/>
+        <c:axId val="1151244384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1199797200"/>
+        <c:axId val="1151247648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199796112"/>
+        <c:crossAx val="1151244384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1982,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1199796112"/>
+        <c:axId val="1151244384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,7 +2039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199797200"/>
+        <c:crossAx val="1151247648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2448,11 +2454,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1199811344"/>
-        <c:axId val="-1199796656"/>
+        <c:axId val="1151254176"/>
+        <c:axId val="1151251456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1199811344"/>
+        <c:axId val="1151254176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199796656"/>
+        <c:crossAx val="1151251456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2503,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1199796656"/>
+        <c:axId val="1151251456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199811344"/>
+        <c:crossAx val="1151254176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2957,11 +2963,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1199803728"/>
-        <c:axId val="-1199802640"/>
+        <c:axId val="1151244928"/>
+        <c:axId val="1151245472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1199803728"/>
+        <c:axId val="1151244928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199802640"/>
+        <c:crossAx val="1151245472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3012,7 +3018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1199802640"/>
+        <c:axId val="1151245472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199803728"/>
+        <c:crossAx val="1151244928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3188,6 +3194,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3288,6 +3295,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3412,6 +3420,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3483,11 +3492,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1199803184"/>
-        <c:axId val="-1199809168"/>
+        <c:axId val="1151249280"/>
+        <c:axId val="1151249824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1199803184"/>
+        <c:axId val="1151249280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199809168"/>
+        <c:crossAx val="1151249824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1199809168"/>
+        <c:axId val="1151249824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199803184"/>
+        <c:crossAx val="1151249280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,6 +3612,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3709,6 +3719,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3809,6 +3820,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3933,6 +3945,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4004,11 +4017,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1199808080"/>
-        <c:axId val="-1199806992"/>
+        <c:axId val="1051700976"/>
+        <c:axId val="930519312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1199808080"/>
+        <c:axId val="1051700976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199806992"/>
+        <c:crossAx val="930519312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4059,7 +4072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1199806992"/>
+        <c:axId val="930519312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199808080"/>
+        <c:crossAx val="1051700976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4124,6 +4137,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4230,6 +4244,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4330,6 +4345,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4448,6 +4464,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4513,11 +4530,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1199805360"/>
-        <c:axId val="-1199802096"/>
+        <c:axId val="1115008304"/>
+        <c:axId val="1115015376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1199805360"/>
+        <c:axId val="1115008304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4560,7 +4577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199802096"/>
+        <c:crossAx val="1115015376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4568,7 +4585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1199802096"/>
+        <c:axId val="1115015376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4619,7 +4636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1199805360"/>
+        <c:crossAx val="1115008304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4633,6 +4650,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4675,6 +4693,1444 @@
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kênh</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> tư vấn</a:t>
+            </a:r>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tư Vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê tháng 12'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$B$5:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tư Vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê tháng 12'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.782608695652172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.521739130434781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.695652173913043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Đăng</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> ký học</a:t>
+            </a:r>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số lượng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$H$5:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tư vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê tháng 12'!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tỉ lệ (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$H$5:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tư vấn trực tiếp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB fanpage</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fb cá nhân</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê tháng 12'!$J$5:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>54.54545454545454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Khóa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> đăng ký</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35887192131286622"/>
+          <c:y val="2.7826092037173029E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê tháng 12'!$O$5:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Toeic A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Toeic B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê tháng 12'!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>81.818181818181827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -4933,6 +6389,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7947,6 +9523,1809 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8128,6 +11507,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13293,7 +16767,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13724,8 +17198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13748,43 +17222,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -13798,36 +17272,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="103" t="s">
+      <c r="W1" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="103" t="s">
+      <c r="Y1" s="97" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -13849,11 +17323,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -15299,16 +18773,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -15319,6 +18783,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15327,14 +18801,202 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="H3" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="O3" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!I7:I29,"Tư vấn trực tiếp")</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="43">
+        <f>C5/C8*100</f>
+        <v>34.782608695652172</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!I7:I29,"Tư Vấn trực tiếp",'TOEIC Tháng 12'!H7:H29,"X")</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="43">
+        <f>I5/I8*100</f>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P5" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!H7:H29,"X",'TOEIC Tháng 12'!G7:G29,"A")</f>
+        <v>9</v>
+      </c>
+      <c r="Q5" s="43">
+        <f>P5/P7*100</f>
+        <v>81.818181818181827</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!I7:I29,"FB fanpage")</f>
+        <v>13</v>
+      </c>
+      <c r="D6" s="43">
+        <f>C6/C8*100</f>
+        <v>56.521739130434781</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!I7:I29,"FB fanpage",'TOEIC Tháng 12'!H7:H29,"X")</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="43">
+        <f>I6/I8*100</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P6" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!H7:H29,"X",'TOEIC Tháng 12'!G7:G29,"B")</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="43">
+        <f>P6/P7*100</f>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!I7:I29,"Fb cá nhân")</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="43">
+        <f>C7/C8*100</f>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="2">
+        <f>COUNTIFS('TOEIC Tháng 12'!I7:I29,"Fb cá nhân",'TOEIC Tháng 12'!H7:H29,"X")</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="43">
+        <f>I7/I8*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P7" s="2">
+        <f>SUM(P5:P6)</f>
+        <v>11</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>P7/P7*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C5:C7)</f>
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8/C8*100</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(I5:I7)</f>
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <f>I8/I8*100</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="O3:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Danh Sach Lop/Danh sach hoi.xlsx
+++ b/Danh Sach Lop/Danh sach hoi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tháng 8" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="317">
   <si>
     <t>Tên FB</t>
   </si>
@@ -980,13 +980,19 @@
   </si>
   <si>
     <t>Toeic B</t>
+  </si>
+  <si>
+    <t>Pi Kool</t>
+  </si>
+  <si>
+    <t>21/1/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,6 +1093,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1289,7 +1301,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,16 +1551,16 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1557,12 +1569,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1933,11 +1946,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1151247648"/>
-        <c:axId val="1151244384"/>
+        <c:axId val="1255799776"/>
+        <c:axId val="1255798144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1151247648"/>
+        <c:axId val="1255799776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +1993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151244384"/>
+        <c:crossAx val="1255798144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1988,7 +2001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1151244384"/>
+        <c:axId val="1255798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151247648"/>
+        <c:crossAx val="1255799776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2454,11 +2467,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1151254176"/>
-        <c:axId val="1151251456"/>
+        <c:axId val="1255806304"/>
+        <c:axId val="1255801408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1151254176"/>
+        <c:axId val="1255806304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151251456"/>
+        <c:crossAx val="1255801408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1151251456"/>
+        <c:axId val="1255801408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151254176"/>
+        <c:crossAx val="1255806304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2963,11 +2976,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1151244928"/>
-        <c:axId val="1151245472"/>
+        <c:axId val="1255802496"/>
+        <c:axId val="1255793792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1151244928"/>
+        <c:axId val="1255802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151245472"/>
+        <c:crossAx val="1255793792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3018,7 +3031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1151245472"/>
+        <c:axId val="1255793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,7 +3082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151244928"/>
+        <c:crossAx val="1255802496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3194,7 +3207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3295,7 +3307,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3420,7 +3431,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3492,11 +3502,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1151249280"/>
-        <c:axId val="1151249824"/>
+        <c:axId val="1255798688"/>
+        <c:axId val="1255803584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1151249280"/>
+        <c:axId val="1255798688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3539,7 +3549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151249824"/>
+        <c:crossAx val="1255803584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3547,7 +3557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1151249824"/>
+        <c:axId val="1255803584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1151249280"/>
+        <c:crossAx val="1255798688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3612,7 +3622,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3719,7 +3728,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3820,7 +3828,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3945,7 +3952,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4017,11 +4023,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1051700976"/>
-        <c:axId val="930519312"/>
+        <c:axId val="1255795424"/>
+        <c:axId val="1255799232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1051700976"/>
+        <c:axId val="1255795424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,7 +4070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930519312"/>
+        <c:crossAx val="1255799232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4072,7 +4078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930519312"/>
+        <c:axId val="1255799232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,7 +4129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051700976"/>
+        <c:crossAx val="1255795424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4137,7 +4143,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4244,7 +4249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4345,7 +4349,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4464,7 +4467,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4530,11 +4532,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1115008304"/>
-        <c:axId val="1115015376"/>
+        <c:axId val="1255797056"/>
+        <c:axId val="1255800320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1115008304"/>
+        <c:axId val="1255797056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115015376"/>
+        <c:crossAx val="1255800320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4585,7 +4587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1115015376"/>
+        <c:axId val="1255800320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115008304"/>
+        <c:crossAx val="1255797056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4650,7 +4652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17196,10 +17197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17222,43 +17223,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="97" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="97" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="86" t="s">
@@ -17272,36 +17273,36 @@
       </c>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="103" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="34" t="s">
         <v>143</v>
       </c>
@@ -17323,11 +17324,11 @@
       <c r="T2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:25" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
@@ -18715,64 +18716,113 @@
       <c r="Y31" s="28"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
+      <c r="A32" s="60">
+        <v>30</v>
+      </c>
+      <c r="B32" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="L32" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="79"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="79"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="79"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="79"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B38" s="79"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" s="79"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="79"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B41" s="79"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="79"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B43" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -18783,16 +18833,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18803,7 +18843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
